--- a/GreenIguanaMasterSpring2021.xlsx
+++ b/GreenIguanaMasterSpring2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usu-my.sharepoint.com/personal/a02308724_aggies_usu_edu/Documents/Desktop/ASU green iguana 2021/greeniguanaAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E1F204-3744-4711-9BBE-5D795E9D066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{D3E1F204-3744-4711-9BBE-5D795E9D066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDEAD138-3C9C-45A1-898F-D862980AC593}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1470" windowWidth="25440" windowHeight="15390" xr2:uid="{480D2B5B-0BF7-4EFB-BBDF-5EF1CCA213B8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="221">
   <si>
     <t>0324bka</t>
   </si>
@@ -1094,8 +1094,8 @@
   <dimension ref="A1:FW37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <pane xSplit="1" topLeftCell="FB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FO21" sqref="FO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1825,12 +1825,6 @@
       <c r="BH2">
         <v>2.6666666666666665</v>
       </c>
-      <c r="BI2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>1</v>
-      </c>
       <c r="BK2">
         <v>2.6666666666666665</v>
       </c>
@@ -1864,12 +1858,6 @@
       <c r="BU2">
         <v>0</v>
       </c>
-      <c r="BV2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>1</v>
-      </c>
       <c r="BX2">
         <v>6.2156505040806529</v>
       </c>
@@ -1903,9 +1891,6 @@
       <c r="CH2">
         <v>19.947420147420146</v>
       </c>
-      <c r="CI2" t="s">
-        <v>1</v>
-      </c>
       <c r="CJ2">
         <v>28.914987714987713</v>
       </c>
@@ -1942,9 +1927,6 @@
       <c r="CU2">
         <v>326.41810918774974</v>
       </c>
-      <c r="CV2" t="s">
-        <v>1</v>
-      </c>
       <c r="CW2">
         <v>343.026706231454</v>
       </c>
@@ -1981,9 +1963,6 @@
       <c r="DH2">
         <v>6.7555555555555555</v>
       </c>
-      <c r="DI2" t="s">
-        <v>1</v>
-      </c>
       <c r="DJ2">
         <v>6.2391752577319579</v>
       </c>
@@ -2020,9 +1999,6 @@
       <c r="DU2">
         <v>3.5917242450120339</v>
       </c>
-      <c r="DV2" t="s">
-        <v>1</v>
-      </c>
       <c r="DW2">
         <v>2.7308447937131626</v>
       </c>
@@ -2059,9 +2035,6 @@
       <c r="EH2">
         <v>4.0393470071159481</v>
       </c>
-      <c r="EI2" t="s">
-        <v>1</v>
-      </c>
       <c r="EJ2">
         <v>4.6923417441345734</v>
       </c>
@@ -2098,9 +2071,6 @@
       <c r="EU2">
         <v>0.96229087869852048</v>
       </c>
-      <c r="EV2" t="s">
-        <v>1</v>
-      </c>
       <c r="EW2">
         <v>2.0516843384472456</v>
       </c>
@@ -2136,9 +2106,6 @@
       </c>
       <c r="FH2">
         <v>-7.6118429368162183E-2</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>1</v>
       </c>
       <c r="FJ2">
         <v>4.5789074579987009E-2</v>
@@ -2186,9 +2153,6 @@
       <c r="FU2">
         <f t="shared" si="0"/>
         <v>1.0384093080666827</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>1</v>
       </c>
       <c r="FW2">
         <f t="shared" si="0"/>
@@ -2907,9 +2871,6 @@
       <c r="BA4">
         <v>0</v>
       </c>
-      <c r="BB4" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="BC4">
         <v>0</v>
       </c>
@@ -2946,9 +2907,6 @@
       <c r="BN4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="BO4" s="9" t="s">
-        <v>1</v>
-      </c>
       <c r="BP4">
         <v>0</v>
       </c>
@@ -3051,9 +3009,6 @@
       <c r="CW4">
         <v>354.12462908011872</v>
       </c>
-      <c r="CX4" t="s">
-        <v>1</v>
-      </c>
       <c r="CY4">
         <v>4.7627118644067794</v>
       </c>
@@ -3090,9 +3045,6 @@
       <c r="DJ4">
         <v>3.8886597938144325</v>
       </c>
-      <c r="DK4" t="s">
-        <v>1</v>
-      </c>
       <c r="DL4">
         <v>3.7417986877900473</v>
       </c>
@@ -3128,9 +3080,6 @@
       </c>
       <c r="DW4">
         <v>3.4506876227897831</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>1</v>
       </c>
       <c r="DY4">
         <v>1.1297493936944218</v>
@@ -3612,9 +3561,6 @@
       <c r="CZ5">
         <v>1.3495904690990317</v>
       </c>
-      <c r="DA5" t="s">
-        <v>1</v>
-      </c>
       <c r="DB5">
         <v>5.385618479880776</v>
       </c>
@@ -3651,9 +3597,6 @@
       <c r="DM5">
         <v>1.0340572556762093</v>
       </c>
-      <c r="DN5" t="s">
-        <v>1</v>
-      </c>
       <c r="DO5">
         <v>2.6977140423115156</v>
       </c>
@@ -3689,9 +3632,6 @@
       </c>
       <c r="DZ5">
         <v>0.51884959191605118</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>1</v>
       </c>
       <c r="EB5">
         <v>3.5097656250000004</v>
@@ -4026,9 +3966,6 @@
       <c r="BF6">
         <v>4</v>
       </c>
-      <c r="BG6" t="s">
-        <v>1</v>
-      </c>
       <c r="BH6">
         <v>2.3333333333333335</v>
       </c>
@@ -4065,9 +4002,6 @@
       <c r="BS6">
         <v>2.3333333333333335</v>
       </c>
-      <c r="BT6" t="s">
-        <v>1</v>
-      </c>
       <c r="BU6">
         <v>1.6666666666666667</v>
       </c>
@@ -4182,9 +4116,6 @@
       <c r="DF6">
         <v>3.9519408502772642</v>
       </c>
-      <c r="DG6" t="s">
-        <v>1</v>
-      </c>
       <c r="DH6">
         <v>3.6101010101010105</v>
       </c>
@@ -4221,9 +4152,6 @@
       <c r="DS6">
         <v>1.9103889709502699</v>
       </c>
-      <c r="DT6" t="s">
-        <v>1</v>
-      </c>
       <c r="DU6">
         <v>2.5293067308438788</v>
       </c>
@@ -4260,9 +4188,6 @@
       <c r="EF6">
         <v>2.7459819678557427</v>
       </c>
-      <c r="EG6" t="s">
-        <v>1</v>
-      </c>
       <c r="EH6">
         <v>1.3980745081624113</v>
       </c>
@@ -4337,9 +4262,6 @@
       </c>
       <c r="FF6">
         <v>-1.2974618853610975</v>
-      </c>
-      <c r="FG6" t="s">
-        <v>1</v>
       </c>
       <c r="FH6">
         <v>-3.9087842107976438E-2</v>
@@ -4385,9 +4307,6 @@
       <c r="FS6">
         <f t="shared" si="0"/>
         <v>2.2015592366786443</v>
-      </c>
-      <c r="FT6" t="s">
-        <v>1</v>
       </c>
       <c r="FU6">
         <f t="shared" si="0"/>
@@ -4559,9 +4478,6 @@
       <c r="AZ7">
         <v>0</v>
       </c>
-      <c r="BA7" t="s">
-        <v>1</v>
-      </c>
       <c r="BB7" s="6">
         <v>0</v>
       </c>
@@ -5138,9 +5054,6 @@
       <c r="BI8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>1</v>
-      </c>
       <c r="BK8">
         <v>2</v>
       </c>
@@ -5177,9 +5090,6 @@
       <c r="BV8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="BW8" t="s">
-        <v>1</v>
-      </c>
       <c r="BX8">
         <v>4.5488238118098892</v>
       </c>
@@ -5255,9 +5165,6 @@
       <c r="CV8">
         <v>349.080118694362</v>
       </c>
-      <c r="CW8" t="s">
-        <v>1</v>
-      </c>
       <c r="CX8">
         <v>1.9088983050847457</v>
       </c>
@@ -5449,9 +5356,6 @@
       </c>
       <c r="FI8">
         <v>0.58188606457855419</v>
-      </c>
-      <c r="FJ8" t="s">
-        <v>1</v>
       </c>
       <c r="FK8">
         <f t="shared" si="1"/>
@@ -5500,9 +5404,6 @@
       <c r="FV8">
         <f t="shared" si="0"/>
         <v>-1.2826825384337956</v>
-      </c>
-      <c r="FW8" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:179" x14ac:dyDescent="0.35">
@@ -6172,9 +6073,6 @@
       <c r="AL10">
         <v>71.1011459890384</v>
       </c>
-      <c r="AM10" t="s">
-        <v>1</v>
-      </c>
       <c r="AN10">
         <v>67.588932806324081</v>
       </c>
@@ -6205,9 +6103,6 @@
       <c r="AW10">
         <v>88.222083593262639</v>
       </c>
-      <c r="AX10" t="s">
-        <v>1</v>
-      </c>
       <c r="AY10">
         <v>2</v>
       </c>
@@ -6235,24 +6130,15 @@
       <c r="BG10">
         <v>1.3333333333333333</v>
       </c>
-      <c r="BH10" t="s">
-        <v>1</v>
-      </c>
       <c r="BI10">
         <v>3.3333333333333335</v>
       </c>
       <c r="BJ10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="BK10" t="s">
-        <v>1</v>
-      </c>
       <c r="BL10">
         <v>2.6666666666666665</v>
       </c>
-      <c r="BM10" t="s">
-        <v>1</v>
-      </c>
       <c r="BN10">
         <v>0.66666666666666663</v>
       </c>
@@ -6274,9 +6160,6 @@
       <c r="BT10">
         <v>0</v>
       </c>
-      <c r="BU10" t="s">
-        <v>1</v>
-      </c>
       <c r="BV10">
         <v>0</v>
       </c>
@@ -6289,9 +6172,6 @@
       <c r="BY10">
         <v>3.2012810248198562</v>
       </c>
-      <c r="BZ10" t="s">
-        <v>1</v>
-      </c>
       <c r="CA10">
         <v>12.424755700325733</v>
       </c>
@@ -6328,9 +6208,6 @@
       <c r="CL10">
         <v>342.54443405051455</v>
       </c>
-      <c r="CM10" t="s">
-        <v>1</v>
-      </c>
       <c r="CN10">
         <v>328.61491628614914</v>
       </c>
@@ -6361,15 +6238,9 @@
       <c r="CW10">
         <v>349.080118694362</v>
       </c>
-      <c r="CX10" t="s">
-        <v>1</v>
-      </c>
       <c r="CY10">
         <v>2.7076271186440684</v>
       </c>
-      <c r="CZ10" t="s">
-        <v>1</v>
-      </c>
       <c r="DA10">
         <v>2.6387176325524053</v>
       </c>
@@ -6400,15 +6271,9 @@
       <c r="DJ10">
         <v>2.6680412371134015</v>
       </c>
-      <c r="DK10" t="s">
-        <v>1</v>
-      </c>
       <c r="DL10">
         <v>2.5952152344375099</v>
       </c>
-      <c r="DM10" t="s">
-        <v>1</v>
-      </c>
       <c r="DN10">
         <v>2.3125440727101783</v>
       </c>
@@ -6439,15 +6304,9 @@
       <c r="DW10">
         <v>1.9324165029469544</v>
       </c>
-      <c r="DX10" t="s">
-        <v>1</v>
-      </c>
       <c r="DY10">
         <v>0.1273241713823767</v>
       </c>
-      <c r="DZ10" t="s">
-        <v>1</v>
-      </c>
       <c r="EA10">
         <v>0.44776119402985082</v>
       </c>
@@ -6484,9 +6343,6 @@
       <c r="EL10">
         <v>-0.95797550008366683</v>
       </c>
-      <c r="EM10" t="s">
-        <v>1</v>
-      </c>
       <c r="EN10">
         <v>-0.15303463027279826</v>
       </c>
@@ -6522,9 +6378,6 @@
       </c>
       <c r="EY10">
         <v>0.97355140418608987</v>
-      </c>
-      <c r="EZ10" t="s">
-        <v>1</v>
       </c>
       <c r="FA10">
         <v>-1.1628418426879035</v>
@@ -6563,9 +6416,6 @@
       <c r="FL10">
         <f t="shared" si="0"/>
         <v>-1.9315269042697567</v>
-      </c>
-      <c r="FM10" t="s">
-        <v>1</v>
       </c>
       <c r="FN10">
         <f t="shared" si="0"/>
@@ -6756,9 +6606,6 @@
       <c r="AW11">
         <v>82.956955708047417</v>
       </c>
-      <c r="AX11" t="s">
-        <v>1</v>
-      </c>
       <c r="AY11">
         <v>2</v>
       </c>
@@ -6768,15 +6615,7 @@
       <c r="BA11">
         <v>2</v>
       </c>
-      <c r="BB11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>1</v>
-      </c>
+      <c r="BB11" s="7"/>
       <c r="BE11">
         <v>3</v>
       </c>
@@ -6795,9 +6634,6 @@
       <c r="BJ11">
         <v>4</v>
       </c>
-      <c r="BK11" t="s">
-        <v>1</v>
-      </c>
       <c r="BL11">
         <v>1.3333333333333333</v>
       </c>
@@ -6807,15 +6643,6 @@
       <c r="BN11">
         <v>1.6666666666666667</v>
       </c>
-      <c r="BO11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>1</v>
-      </c>
       <c r="BR11">
         <v>2.3333333333333335</v>
       </c>
@@ -6849,9 +6676,6 @@
       <c r="CB11">
         <v>14.549126213592231</v>
       </c>
-      <c r="CC11" t="s">
-        <v>1</v>
-      </c>
       <c r="CD11">
         <v>17.034730538922155</v>
       </c>
@@ -6912,9 +6736,6 @@
       <c r="CW11">
         <v>338.486646884273</v>
       </c>
-      <c r="CX11" t="s">
-        <v>1</v>
-      </c>
       <c r="CY11">
         <v>1.7926284437825761</v>
       </c>
@@ -6927,12 +6748,6 @@
       <c r="DB11">
         <v>6.0674366616989577</v>
       </c>
-      <c r="DC11" t="s">
-        <v>1</v>
-      </c>
-      <c r="DD11" t="s">
-        <v>1</v>
-      </c>
       <c r="DE11">
         <v>1.5510033444816054</v>
       </c>
@@ -6951,9 +6766,6 @@
       <c r="DJ11">
         <v>5.3402061855670091</v>
       </c>
-      <c r="DK11" t="s">
-        <v>1</v>
-      </c>
       <c r="DL11">
         <v>1.1236073896488505</v>
       </c>
@@ -6966,12 +6778,6 @@
       <c r="DO11">
         <v>1.9757205736191956</v>
       </c>
-      <c r="DP11" t="s">
-        <v>1</v>
-      </c>
-      <c r="DQ11" t="s">
-        <v>1</v>
-      </c>
       <c r="DR11">
         <v>1.2537632704801138</v>
       </c>
@@ -6990,9 +6796,6 @@
       <c r="DW11">
         <v>3.9850687622789778</v>
       </c>
-      <c r="DX11" t="s">
-        <v>1</v>
-      </c>
       <c r="DY11">
         <v>0.97357170617955724</v>
       </c>
@@ -7005,12 +6808,6 @@
       <c r="EB11">
         <v>5.396484375</v>
       </c>
-      <c r="EC11" t="s">
-        <v>1</v>
-      </c>
-      <c r="ED11" t="s">
-        <v>1</v>
-      </c>
       <c r="EE11">
         <v>0.48558758314855888</v>
       </c>
@@ -7043,9 +6840,6 @@
       </c>
       <c r="EO11">
         <v>-0.32963349033073369</v>
-      </c>
-      <c r="EP11" t="s">
-        <v>1</v>
       </c>
       <c r="EQ11">
         <v>0.8771933031205682</v>
@@ -7126,9 +6920,6 @@
       <c r="FO11">
         <f t="shared" si="0"/>
         <v>-1.8267648461785442</v>
-      </c>
-      <c r="FP11" t="s">
-        <v>1</v>
       </c>
       <c r="FQ11">
         <f t="shared" si="0"/>
@@ -7319,9 +7110,7 @@
       <c r="BA12">
         <v>0</v>
       </c>
-      <c r="BB12" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="BB12" s="7"/>
       <c r="BC12">
         <v>1</v>
       </c>
@@ -7357,9 +7146,6 @@
       </c>
       <c r="BN12">
         <v>0.33333333333333331</v>
-      </c>
-      <c r="BO12" s="9" t="s">
-        <v>1</v>
       </c>
       <c r="BP12">
         <v>0.33333333333333331</v>
@@ -7862,24 +7648,15 @@
       <c r="AX13">
         <v>2</v>
       </c>
-      <c r="AY13" t="s">
-        <v>1</v>
-      </c>
       <c r="AZ13">
         <v>1</v>
       </c>
       <c r="BA13">
         <v>0</v>
       </c>
-      <c r="BB13" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="BC13">
         <v>3</v>
       </c>
-      <c r="BD13" t="s">
-        <v>1</v>
-      </c>
       <c r="BE13">
         <v>3</v>
       </c>
@@ -7901,24 +7678,15 @@
       <c r="BK13">
         <v>2</v>
       </c>
-      <c r="BL13" t="s">
-        <v>1</v>
-      </c>
       <c r="BM13">
         <v>1.3333333333333333</v>
       </c>
       <c r="BN13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="BO13" s="9" t="s">
-        <v>1</v>
-      </c>
       <c r="BP13">
         <v>2</v>
       </c>
-      <c r="BQ13" t="s">
-        <v>1</v>
-      </c>
       <c r="BR13">
         <v>1.6666666666666667</v>
       </c>
@@ -7979,9 +7747,6 @@
       <c r="CK13">
         <v>352.14285714285717</v>
       </c>
-      <c r="CL13" t="s">
-        <v>1</v>
-      </c>
       <c r="CM13">
         <v>346.26006904487917</v>
       </c>
@@ -8018,9 +7783,6 @@
       <c r="CX13">
         <v>1.5826271186440684</v>
       </c>
-      <c r="CY13" t="s">
-        <v>1</v>
-      </c>
       <c r="CZ13">
         <v>0.67386448250186137</v>
       </c>
@@ -8057,9 +7819,6 @@
       <c r="DK13">
         <v>1.6194591134581537</v>
       </c>
-      <c r="DL13" t="s">
-        <v>1</v>
-      </c>
       <c r="DM13">
         <v>0.52249330136793104</v>
       </c>
@@ -8096,9 +7855,6 @@
       <c r="DX13">
         <v>1.8189167340339547E-2</v>
       </c>
-      <c r="DY13" t="s">
-        <v>1</v>
-      </c>
       <c r="DZ13">
         <v>0.34201321414691016</v>
       </c>
@@ -8173,9 +7929,6 @@
       </c>
       <c r="EX13">
         <v>-0.57430499679252422</v>
-      </c>
-      <c r="EY13" t="s">
-        <v>1</v>
       </c>
       <c r="EZ13">
         <v>-0.50486075342846581</v>
@@ -8213,9 +7966,6 @@
       <c r="FK13">
         <f t="shared" si="1"/>
         <v>0.39474096025859551</v>
-      </c>
-      <c r="FL13" t="s">
-        <v>1</v>
       </c>
       <c r="FM13">
         <f t="shared" si="0"/>
@@ -8995,9 +8745,6 @@
       <c r="BH15">
         <v>7</v>
       </c>
-      <c r="BI15" t="s">
-        <v>1</v>
-      </c>
       <c r="BJ15">
         <v>5.666666666666667</v>
       </c>
@@ -9034,9 +8781,6 @@
       <c r="BU15">
         <v>4.333333333333333</v>
       </c>
-      <c r="BV15" t="s">
-        <v>1</v>
-      </c>
       <c r="BW15">
         <v>3</v>
       </c>
@@ -9142,9 +8886,6 @@
       <c r="DE15">
         <v>1.0953177257525084</v>
       </c>
-      <c r="DF15" t="s">
-        <v>1</v>
-      </c>
       <c r="DG15">
         <v>3.3174075612796012</v>
       </c>
@@ -9181,9 +8922,6 @@
       <c r="DR15">
         <v>1.0057835525273333</v>
       </c>
-      <c r="DS15" t="s">
-        <v>1</v>
-      </c>
       <c r="DT15">
         <v>3.0475049900199602</v>
       </c>
@@ -9219,9 +8957,6 @@
       </c>
       <c r="EE15">
         <v>0.22838137472283809</v>
-      </c>
-      <c r="EF15" t="s">
-        <v>1</v>
       </c>
       <c r="EG15">
         <v>0.32335069444444448</v>
@@ -9526,9 +9261,6 @@
       <c r="BA16">
         <v>1</v>
       </c>
-      <c r="BB16" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="BC16">
         <v>1</v>
       </c>
@@ -9565,9 +9297,6 @@
       <c r="BN16">
         <v>1.3333333333333333</v>
       </c>
-      <c r="BO16" s="9" t="s">
-        <v>1</v>
-      </c>
       <c r="BP16">
         <v>0.33333333333333331</v>
       </c>
@@ -9688,9 +9417,6 @@
       <c r="DC16">
         <v>5.5019157088122617</v>
       </c>
-      <c r="DD16" t="s">
-        <v>1</v>
-      </c>
       <c r="DE16">
         <v>2.7362040133779262</v>
       </c>
@@ -9727,9 +9453,6 @@
       <c r="DP16">
         <v>5.0096982758620694</v>
       </c>
-      <c r="DQ16" t="s">
-        <v>1</v>
-      </c>
       <c r="DR16">
         <v>2.5003961337347484</v>
       </c>
@@ -9765,9 +9488,6 @@
       </c>
       <c r="EC16">
         <v>0.42484969939879763</v>
-      </c>
-      <c r="ED16" t="s">
-        <v>1</v>
       </c>
       <c r="EE16">
         <v>0.31263858093126384</v>
@@ -10405,9 +10125,6 @@
       <c r="FF17">
         <v>4.7100453938366038E-2</v>
       </c>
-      <c r="FG17" t="s">
-        <v>1</v>
-      </c>
       <c r="FH17">
         <v>1.2199521247385066</v>
       </c>
@@ -10452,9 +10169,6 @@
       <c r="FS17">
         <f t="shared" si="0"/>
         <v>-0.55561188937602468</v>
-      </c>
-      <c r="FT17" t="s">
-        <v>1</v>
       </c>
       <c r="FU17">
         <f t="shared" si="0"/>
@@ -10653,9 +10367,6 @@
       <c r="BI18">
         <v>3</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>1</v>
-      </c>
       <c r="BK18">
         <v>0</v>
       </c>
@@ -10692,9 +10403,6 @@
       <c r="BV18">
         <v>3</v>
       </c>
-      <c r="BW18" t="s">
-        <v>1</v>
-      </c>
       <c r="BX18">
         <v>8.1835813730196829</v>
       </c>
@@ -10940,9 +10648,6 @@
       </c>
       <c r="FA18">
         <v>-1.0835563421625458</v>
-      </c>
-      <c r="FB18" t="s">
-        <v>1</v>
       </c>
       <c r="FC18">
         <v>0.39816939041716731</v>
@@ -10983,9 +10688,6 @@
       <c r="FN18">
         <f t="shared" ref="FN18:FN36" si="4">EN18-FA18</f>
         <v>-0.4472792698472039</v>
-      </c>
-      <c r="FO18" t="s">
-        <v>1</v>
       </c>
       <c r="FP18">
         <f t="shared" ref="FP18:FP37" si="5">EP18-FC18</f>
@@ -11171,9 +10873,6 @@
       <c r="AX19">
         <v>1</v>
       </c>
-      <c r="AY19" t="s">
-        <v>1</v>
-      </c>
       <c r="AZ19">
         <v>0</v>
       </c>
@@ -11189,9 +10888,6 @@
       <c r="BD19">
         <v>1</v>
       </c>
-      <c r="BE19" t="s">
-        <v>1</v>
-      </c>
       <c r="BF19">
         <v>1.6666666666666667</v>
       </c>
@@ -11204,15 +10900,9 @@
       <c r="BI19">
         <v>3</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>1</v>
-      </c>
       <c r="BK19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="BL19" t="s">
-        <v>1</v>
-      </c>
       <c r="BM19">
         <v>0</v>
       </c>
@@ -11242,9 +10932,6 @@
       </c>
       <c r="BV19">
         <v>0.33333333333333331</v>
-      </c>
-      <c r="BW19" t="s">
-        <v>1</v>
       </c>
       <c r="BX19">
         <v>2.3658185309649546</v>
@@ -13388,9 +13075,6 @@
       <c r="BA23">
         <v>1.6666666666666667</v>
       </c>
-      <c r="BB23" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="BC23">
         <v>2</v>
       </c>
@@ -13427,9 +13111,6 @@
       <c r="BN23">
         <v>1.3333333333333333</v>
       </c>
-      <c r="BO23" s="9" t="s">
-        <v>1</v>
-      </c>
       <c r="BP23">
         <v>3</v>
       </c>
@@ -13466,9 +13147,6 @@
       <c r="CA23">
         <v>15.429902912621358</v>
       </c>
-      <c r="CB23" t="s">
-        <v>1</v>
-      </c>
       <c r="CC23">
         <v>7.1907621247113171</v>
       </c>
@@ -13505,9 +13183,6 @@
       <c r="CN23">
         <v>341.03500761035014</v>
       </c>
-      <c r="CO23" t="s">
-        <v>1</v>
-      </c>
       <c r="CP23">
         <v>341.24694376528117</v>
       </c>
@@ -13661,9 +13336,6 @@
       <c r="EN23">
         <v>0.50389334037696309</v>
       </c>
-      <c r="EO23" t="s">
-        <v>1</v>
-      </c>
       <c r="EP23">
         <v>-0.57228052220322523</v>
       </c>
@@ -13699,9 +13371,6 @@
       </c>
       <c r="FA23">
         <v>-0.21141583638360717</v>
-      </c>
-      <c r="FB23" t="s">
-        <v>1</v>
       </c>
       <c r="FC23">
         <v>-0.94233422398725819</v>
@@ -13742,9 +13411,6 @@
       <c r="FN23">
         <f t="shared" si="4"/>
         <v>0.71530917676057026</v>
-      </c>
-      <c r="FO23" t="s">
-        <v>1</v>
       </c>
       <c r="FP23">
         <f t="shared" si="5"/>
@@ -14653,9 +14319,6 @@
       <c r="DC25">
         <v>6.314176245210728</v>
       </c>
-      <c r="DD25" t="s">
-        <v>1</v>
-      </c>
       <c r="DE25">
         <v>7.2532347504621066</v>
       </c>
@@ -14692,9 +14355,6 @@
       <c r="DP25">
         <v>5.169181034482758</v>
       </c>
-      <c r="DQ25" t="s">
-        <v>1</v>
-      </c>
       <c r="DR25">
         <v>3.7652106632904263</v>
       </c>
@@ -14730,9 +14390,6 @@
       </c>
       <c r="EC25">
         <v>1.2645290581162325</v>
-      </c>
-      <c r="ED25" t="s">
-        <v>1</v>
       </c>
       <c r="EE25">
         <v>4.5374362994903956</v>
@@ -15043,9 +14700,6 @@
       <c r="BA26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="BB26" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="BC26">
         <v>5.333333333333333</v>
       </c>
@@ -15064,12 +14718,6 @@
       <c r="BH26">
         <v>8.3333333333333339</v>
       </c>
-      <c r="BI26" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>1</v>
-      </c>
       <c r="BK26">
         <v>2.3333333333333335</v>
       </c>
@@ -15082,9 +14730,6 @@
       <c r="BN26">
         <v>0.33333333333333331</v>
       </c>
-      <c r="BO26" s="9" t="s">
-        <v>1</v>
-      </c>
       <c r="BP26">
         <v>1.3333333333333333</v>
       </c>
@@ -15102,12 +14747,6 @@
       </c>
       <c r="BU26">
         <v>7.666666666666667</v>
-      </c>
-      <c r="BV26" t="s">
-        <v>1</v>
-      </c>
-      <c r="BW26" t="s">
-        <v>1</v>
       </c>
       <c r="BX26">
         <v>7.4308209313490163</v>
@@ -16702,9 +16341,6 @@
       <c r="BB29" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="BC29" t="s">
-        <v>1</v>
-      </c>
       <c r="BD29">
         <v>1.6666666666666667</v>
       </c>
@@ -16720,9 +16356,6 @@
       <c r="BH29">
         <v>2</v>
       </c>
-      <c r="BI29" t="s">
-        <v>1</v>
-      </c>
       <c r="BJ29">
         <v>3</v>
       </c>
@@ -16741,9 +16374,6 @@
       <c r="BO29" s="9">
         <v>0</v>
       </c>
-      <c r="BP29" t="s">
-        <v>1</v>
-      </c>
       <c r="BQ29">
         <v>1</v>
       </c>
@@ -16759,9 +16389,6 @@
       <c r="BU29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="BV29" t="s">
-        <v>1</v>
-      </c>
       <c r="BW29">
         <v>2.6666666666666665</v>
       </c>
@@ -16819,9 +16446,6 @@
       <c r="CO29">
         <v>299.87577639751549</v>
       </c>
-      <c r="CP29" t="s">
-        <v>1</v>
-      </c>
       <c r="CQ29">
         <v>352.20297029702976</v>
       </c>
@@ -17013,9 +16637,6 @@
       </c>
       <c r="FB29">
         <v>-3.5370908592812067</v>
-      </c>
-      <c r="FC29" t="s">
-        <v>1</v>
       </c>
       <c r="FD29">
         <v>0.38108043419757404</v>
@@ -17057,9 +16678,6 @@
       <c r="FO29">
         <f t="shared" si="13"/>
         <v>3.3063563181321851</v>
-      </c>
-      <c r="FP29" t="s">
-        <v>1</v>
       </c>
       <c r="FQ29">
         <f t="shared" si="6"/>
@@ -17250,9 +16868,6 @@
       <c r="BA30">
         <v>1</v>
       </c>
-      <c r="BB30" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="BC30">
         <v>1</v>
       </c>
@@ -17265,18 +16880,12 @@
       <c r="BF30">
         <v>4.666666666666667</v>
       </c>
-      <c r="BG30" t="s">
-        <v>1</v>
-      </c>
       <c r="BH30">
         <v>6.666666666666667</v>
       </c>
       <c r="BI30">
         <v>12</v>
       </c>
-      <c r="BJ30" t="s">
-        <v>1</v>
-      </c>
       <c r="BK30">
         <v>2.6666666666666665</v>
       </c>
@@ -17289,9 +16898,6 @@
       <c r="BN30">
         <v>1</v>
       </c>
-      <c r="BO30" s="9" t="s">
-        <v>1</v>
-      </c>
       <c r="BP30">
         <v>0.66666666666666663</v>
       </c>
@@ -17304,18 +16910,12 @@
       <c r="BS30">
         <v>3.3333333333333335</v>
       </c>
-      <c r="BT30" t="s">
-        <v>1</v>
-      </c>
       <c r="BU30">
         <v>2.3333333333333335</v>
       </c>
       <c r="BV30">
         <v>8</v>
       </c>
-      <c r="BW30" t="s">
-        <v>1</v>
-      </c>
       <c r="BX30">
         <v>2.935765722515602</v>
       </c>
@@ -17430,9 +17030,6 @@
       <c r="DI30">
         <v>8.971134020618555</v>
       </c>
-      <c r="DJ30" t="s">
-        <v>1</v>
-      </c>
       <c r="DK30">
         <v>1.8406945111217798</v>
       </c>
@@ -17469,9 +17066,6 @@
       <c r="DV30">
         <v>4.293516699410608</v>
       </c>
-      <c r="DW30" t="s">
-        <v>1</v>
-      </c>
       <c r="DX30">
         <v>-6.6693613581244884E-2</v>
       </c>
@@ -17508,9 +17102,6 @@
       <c r="EI30">
         <v>6.1575918548030106</v>
       </c>
-      <c r="EJ30" t="s">
-        <v>1</v>
-      </c>
       <c r="EK30">
         <v>-0.58467578301494838</v>
       </c>
@@ -17585,9 +17176,6 @@
       </c>
       <c r="FI30">
         <v>0.15744500097114447</v>
-      </c>
-      <c r="FJ30" t="s">
-        <v>1</v>
       </c>
       <c r="FK30">
         <f t="shared" si="1"/>
@@ -17636,9 +17224,6 @@
       <c r="FV30">
         <f t="shared" si="11"/>
         <v>-0.47700819304913467</v>
-      </c>
-      <c r="FW30" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:179" x14ac:dyDescent="0.35">
@@ -18470,9 +18055,6 @@
       <c r="CN32">
         <v>336.3774733637747</v>
       </c>
-      <c r="CO32" t="s">
-        <v>1</v>
-      </c>
       <c r="CP32">
         <v>345.4034229828851</v>
       </c>
@@ -18664,9 +18246,6 @@
       </c>
       <c r="FA32">
         <v>-0.56820058874772328</v>
-      </c>
-      <c r="FB32" t="s">
-        <v>1</v>
       </c>
       <c r="FC32">
         <v>-0.38379105131874824</v>
@@ -18707,9 +18286,6 @@
       <c r="FN32">
         <f t="shared" si="4"/>
         <v>0.29243143335033855</v>
-      </c>
-      <c r="FO32" t="s">
-        <v>1</v>
       </c>
       <c r="FP32">
         <f t="shared" si="5"/>
@@ -18901,12 +18477,6 @@
       <c r="AZ33">
         <v>1</v>
       </c>
-      <c r="BA33" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB33" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="BC33">
         <v>2.3333333333333335</v>
       </c>
@@ -18943,9 +18513,6 @@
       <c r="BN33">
         <v>0</v>
       </c>
-      <c r="BO33" s="9" t="s">
-        <v>1</v>
-      </c>
       <c r="BP33">
         <v>2</v>
       </c>
@@ -19021,9 +18588,6 @@
       <c r="CN33">
         <v>334.82496194824961</v>
       </c>
-      <c r="CO33" t="s">
-        <v>1</v>
-      </c>
       <c r="CP33">
         <v>345.4034229828851</v>
       </c>
@@ -19215,9 +18779,6 @@
       </c>
       <c r="FA33">
         <v>-0.68712883953575754</v>
-      </c>
-      <c r="FB33" t="s">
-        <v>1</v>
       </c>
       <c r="FC33">
         <v>-0.38379105131874824</v>
@@ -19258,9 +18819,6 @@
       <c r="FN33">
         <f t="shared" si="4"/>
         <v>-0.52280909890833005</v>
-      </c>
-      <c r="FO33" t="s">
-        <v>1</v>
       </c>
       <c r="FP33">
         <f t="shared" si="5"/>
@@ -19410,9 +18968,6 @@
       <c r="AL34">
         <v>70.951669157947194</v>
       </c>
-      <c r="AM34" t="s">
-        <v>1</v>
-      </c>
       <c r="AN34">
         <v>79.725645198790957</v>
       </c>
@@ -21066,12 +20621,6 @@
       <c r="AL37">
         <v>0</v>
       </c>
-      <c r="AM37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>1</v>
-      </c>
       <c r="AO37">
         <v>63.801728060000002</v>
       </c>
@@ -21096,21 +20645,9 @@
       <c r="AV37">
         <v>42.008733624454145</v>
       </c>
-      <c r="AW37" t="s">
-        <v>1</v>
-      </c>
       <c r="AX37">
         <v>3</v>
       </c>
-      <c r="AY37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ37" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA37" t="s">
-        <v>1</v>
-      </c>
       <c r="BB37" s="6">
         <v>1</v>
       </c>
@@ -21126,30 +20663,15 @@
       <c r="BF37">
         <v>8.3333333333333339</v>
       </c>
-      <c r="BG37" t="s">
-        <v>1</v>
-      </c>
       <c r="BH37">
         <v>2</v>
       </c>
       <c r="BI37">
         <v>2.3333333333333335</v>
       </c>
-      <c r="BJ37" t="s">
-        <v>1</v>
-      </c>
       <c r="BK37">
         <v>3.6666666666666665</v>
       </c>
-      <c r="BL37" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM37" t="s">
-        <v>1</v>
-      </c>
-      <c r="BN37" t="s">
-        <v>1</v>
-      </c>
       <c r="BO37" s="9">
         <v>0.33333333333333331</v>
       </c>
@@ -21165,30 +20687,18 @@
       <c r="BS37">
         <v>2.3333333333333335</v>
       </c>
-      <c r="BT37" t="s">
-        <v>1</v>
-      </c>
       <c r="BU37">
         <v>0.33333333333333331</v>
       </c>
       <c r="BV37">
         <v>1.3333333333333333</v>
       </c>
-      <c r="BW37" t="s">
-        <v>1</v>
-      </c>
       <c r="BX37">
         <v>2.8247557003257331</v>
       </c>
       <c r="BY37">
         <v>10.491593274619696</v>
       </c>
-      <c r="BZ37" t="s">
-        <v>1</v>
-      </c>
-      <c r="CA37" t="s">
-        <v>1</v>
-      </c>
       <c r="CB37">
         <v>22.260201632261165</v>
       </c>
@@ -21201,9 +20711,6 @@
       <c r="CE37">
         <v>6.8855505279034688</v>
       </c>
-      <c r="CF37" t="s">
-        <v>1</v>
-      </c>
       <c r="CG37">
         <v>13.229484029484027</v>
       </c>
@@ -21222,12 +20729,6 @@
       <c r="CL37">
         <v>336.86996547756041</v>
       </c>
-      <c r="CM37" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN37" t="s">
-        <v>1</v>
-      </c>
       <c r="CO37">
         <v>348.9751552795031</v>
       </c>
@@ -21252,21 +20753,12 @@
       <c r="CV37">
         <v>345.54896142433239</v>
       </c>
-      <c r="CW37" t="s">
-        <v>1</v>
-      </c>
       <c r="CX37">
         <v>2.0254237288135597</v>
       </c>
       <c r="CY37">
         <v>3.0640357408786296</v>
       </c>
-      <c r="CZ37" t="s">
-        <v>1</v>
-      </c>
-      <c r="DA37" t="s">
-        <v>1</v>
-      </c>
       <c r="DB37">
         <v>4.0014903129657222</v>
       </c>
@@ -21279,9 +20771,6 @@
       <c r="DE37">
         <v>2.3752310536044363</v>
       </c>
-      <c r="DF37" t="s">
-        <v>1</v>
-      </c>
       <c r="DG37">
         <v>7.7752388865808051</v>
       </c>
@@ -21291,21 +20780,12 @@
       <c r="DI37">
         <v>5.2226804123711332</v>
       </c>
-      <c r="DJ37" t="s">
-        <v>1</v>
-      </c>
       <c r="DK37">
         <v>2.1127380380860941</v>
       </c>
       <c r="DL37">
         <v>1.032999576928501</v>
       </c>
-      <c r="DM37" t="s">
-        <v>1</v>
-      </c>
-      <c r="DN37" t="s">
-        <v>1</v>
-      </c>
       <c r="DO37">
         <v>2.9962373988357234</v>
       </c>
@@ -21318,9 +20798,6 @@
       <c r="DR37">
         <v>1.6751072659492161</v>
       </c>
-      <c r="DS37" t="s">
-        <v>1</v>
-      </c>
       <c r="DT37">
         <v>2.4063872255489014</v>
       </c>
@@ -21330,21 +20807,12 @@
       <c r="DV37">
         <v>2.849901768172888</v>
       </c>
-      <c r="DW37" t="s">
-        <v>1</v>
-      </c>
       <c r="DX37">
         <v>-7.6798706548100185E-2</v>
       </c>
       <c r="DY37">
         <v>2.7574815390594636</v>
       </c>
-      <c r="DZ37" t="s">
-        <v>1</v>
-      </c>
-      <c r="EA37" t="s">
-        <v>1</v>
-      </c>
       <c r="EB37">
         <v>1.28515625</v>
       </c>
@@ -21357,9 +20825,6 @@
       <c r="EE37">
         <v>0.98392787142297133</v>
       </c>
-      <c r="EF37" t="s">
-        <v>1</v>
-      </c>
       <c r="EG37">
         <v>7.0160590277777768</v>
       </c>
@@ -21369,21 +20834,12 @@
       <c r="EI37">
         <v>3.1606905710491366</v>
       </c>
-      <c r="EJ37" t="s">
-        <v>1</v>
-      </c>
       <c r="EK37">
         <v>-0.63898675207899436</v>
       </c>
       <c r="EL37">
         <v>0.90662694298667734</v>
       </c>
-      <c r="EM37" t="s">
-        <v>1</v>
-      </c>
-      <c r="EN37" t="s">
-        <v>1</v>
-      </c>
       <c r="EO37">
         <v>1.1158396380009423</v>
       </c>
@@ -21396,9 +20852,6 @@
       <c r="ER37">
         <v>-0.32853478421207982</v>
       </c>
-      <c r="ES37" t="s">
-        <v>1</v>
-      </c>
       <c r="ET37">
         <v>5.3527215208639775E-2</v>
       </c>
@@ -21417,12 +20870,6 @@
       <c r="EY37">
         <v>-0.21435727106771249</v>
       </c>
-      <c r="EZ37" t="s">
-        <v>1</v>
-      </c>
-      <c r="FA37" t="s">
-        <v>1</v>
-      </c>
       <c r="FB37">
         <v>0.23764912165584226</v>
       </c>
@@ -21446,9 +20893,6 @@
       </c>
       <c r="FI37">
         <v>8.6704823703250847E-2</v>
-      </c>
-      <c r="FJ37" t="s">
-        <v>1</v>
       </c>
       <c r="FK37">
         <f t="shared" si="1"/>
@@ -21458,12 +20902,6 @@
         <f t="shared" si="2"/>
         <v>1.1209842140543897</v>
       </c>
-      <c r="FM37" t="s">
-        <v>1</v>
-      </c>
-      <c r="FN37" t="s">
-        <v>1</v>
-      </c>
       <c r="FO37">
         <f t="shared" si="13"/>
         <v>0.87819051634510004</v>
@@ -21480,9 +20918,6 @@
         <f t="shared" si="7"/>
         <v>-0.17839540483955432</v>
       </c>
-      <c r="FS37" t="s">
-        <v>1</v>
-      </c>
       <c r="FT37">
         <f t="shared" si="9"/>
         <v>-6.2868107175499482E-2</v>
@@ -21494,9 +20929,6 @@
       <c r="FV37">
         <f t="shared" si="11"/>
         <v>-1.1350963485906915</v>
-      </c>
-      <c r="FW37" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/GreenIguanaMasterSpring2021.xlsx
+++ b/GreenIguanaMasterSpring2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usu-my.sharepoint.com/personal/a02308724_aggies_usu_edu/Documents/Desktop/ASU green iguana 2021/greeniguanaAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="8_{D3E1F204-3744-4711-9BBE-5D795E9D066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDEAD138-3C9C-45A1-898F-D862980AC593}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="8_{D3E1F204-3744-4711-9BBE-5D795E9D066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07E3005F-6C8A-4ADE-BA29-FE701A3095D3}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1470" windowWidth="25440" windowHeight="15390" xr2:uid="{480D2B5B-0BF7-4EFB-BBDF-5EF1CCA213B8}"/>
   </bookViews>
@@ -1094,8 +1094,8 @@
   <dimension ref="A1:FW37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FO21" sqref="FO21"/>
+      <pane xSplit="1" topLeftCell="FA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FL2" sqref="FL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,6 +1103,7 @@
     <col min="1" max="1" width="9.6328125" style="3"/>
     <col min="54" max="54" width="9.6328125" style="6"/>
     <col min="67" max="67" width="9.6328125" style="9"/>
+    <col min="165" max="165" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:179" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1859,40 +1860,40 @@
         <v>0</v>
       </c>
       <c r="BX2">
-        <v>6.2156505040806529</v>
+        <v>0.49725204032645204</v>
       </c>
       <c r="BY2">
-        <v>6.1873498799039233</v>
+        <v>0.49498799039231389</v>
       </c>
       <c r="BZ2">
-        <v>10.061168935148117</v>
+        <v>0.80489351481184945</v>
       </c>
       <c r="CA2">
-        <v>13.769381107491858</v>
+        <v>1.1015504885993488</v>
       </c>
       <c r="CB2">
-        <v>22.88932038834951</v>
+        <v>1.8311456310679608</v>
       </c>
       <c r="CC2">
-        <v>16.942263279445729</v>
+        <v>1.3553810623556584</v>
       </c>
       <c r="CD2">
-        <v>6.9665896843725958</v>
+        <v>0.55732717474980764</v>
       </c>
       <c r="CE2">
-        <v>8.6246706586826338</v>
+        <v>0.68997365269461075</v>
       </c>
       <c r="CF2">
-        <v>33.674328808446461</v>
+        <v>2.6939463046757171</v>
       </c>
       <c r="CG2">
-        <v>7.5059405940594051</v>
+        <v>0.60047524752475245</v>
       </c>
       <c r="CH2">
-        <v>19.947420147420146</v>
+        <v>1.5957936117936118</v>
       </c>
       <c r="CJ2">
-        <v>28.914987714987713</v>
+        <v>2.3131990171990173</v>
       </c>
       <c r="CK2">
         <v>347.91925465838511</v>
@@ -2039,40 +2040,43 @@
         <v>4.6923417441345734</v>
       </c>
       <c r="EK2">
-        <v>1.0199876283709082</v>
+        <v>1.0199876283709084</v>
       </c>
       <c r="EL2">
-        <v>-0.19424534812496499</v>
+        <v>-0.19424534812496444</v>
       </c>
       <c r="EM2">
-        <v>0.3883730661146047</v>
+        <v>0.38837306611460493</v>
       </c>
       <c r="EN2">
-        <v>0.14090173211225243</v>
+        <v>0.14090173211225296</v>
       </c>
       <c r="EO2">
-        <v>1.2337705629473523</v>
+        <v>1.233770562947347</v>
       </c>
       <c r="EP2">
         <v>0.74533271989615735</v>
       </c>
       <c r="EQ2">
-        <v>-0.64976087778509439</v>
+        <v>-0.64976087778509373</v>
       </c>
       <c r="ER2">
-        <v>0.17568772977516478</v>
+        <v>0.17568772977516525</v>
       </c>
       <c r="ES2">
-        <v>3.5627488093828994</v>
+        <v>3.562748809382895</v>
       </c>
       <c r="ET2">
-        <v>-0.69940196207683725</v>
+        <v>-0.69940196207683702</v>
       </c>
       <c r="EU2">
-        <v>0.96229087869852048</v>
+        <v>0.96229087869852148</v>
+      </c>
+      <c r="EV2">
+        <v>-1.8295459944114121</v>
       </c>
       <c r="EW2">
-        <v>2.0516843384472456</v>
+        <v>2.0516843384472452</v>
       </c>
       <c r="EX2">
         <v>-1.1263738855650605</v>
@@ -2112,23 +2116,23 @@
       </c>
       <c r="FK2">
         <f>EK2-EX2</f>
-        <v>2.1463615139359686</v>
+        <v>2.1463615139359691</v>
       </c>
       <c r="FL2">
         <f t="shared" ref="FL2:FW17" si="0">EL2-EY2</f>
-        <v>-0.70172035450604076</v>
+        <v>-0.7017203545060402</v>
       </c>
       <c r="FM2">
         <f t="shared" si="0"/>
-        <v>2.7590235604743163</v>
+        <v>2.7590235604743167</v>
       </c>
       <c r="FN2">
         <f t="shared" si="0"/>
-        <v>-1.3966621810102811</v>
+        <v>-1.3966621810102806</v>
       </c>
       <c r="FO2">
         <f t="shared" si="0"/>
-        <v>0.69149070127087864</v>
+        <v>0.69149070127087331</v>
       </c>
       <c r="FP2">
         <f t="shared" si="0"/>
@@ -2136,27 +2140,27 @@
       </c>
       <c r="FQ2">
         <f t="shared" si="0"/>
-        <v>-1.2656390367205272</v>
+        <v>-1.2656390367205264</v>
       </c>
       <c r="FR2">
         <f t="shared" si="0"/>
-        <v>-0.28009418044194234</v>
+        <v>-0.2800941804419419</v>
       </c>
       <c r="FS2">
         <f t="shared" si="0"/>
-        <v>3.6276952170528221</v>
+        <v>3.6276952170528176</v>
       </c>
       <c r="FT2">
         <f t="shared" si="0"/>
-        <v>-1.5086804588900065</v>
+        <v>-1.5086804588900062</v>
       </c>
       <c r="FU2">
         <f t="shared" si="0"/>
-        <v>1.0384093080666827</v>
+        <v>1.0384093080666836</v>
       </c>
       <c r="FW2">
         <f t="shared" si="0"/>
-        <v>2.0058952638672585</v>
+        <v>2.005895263867258</v>
       </c>
     </row>
     <row r="3" spans="1:179" x14ac:dyDescent="0.35">
@@ -2386,43 +2390,43 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="BX3">
-        <v>4.3552568410945742</v>
+        <v>0.34842054728756594</v>
       </c>
       <c r="BY3">
-        <v>5.0036829463570864</v>
+        <v>0.40029463570856694</v>
       </c>
       <c r="BZ3">
-        <v>3.9365892714171329</v>
+        <v>0.31492714171337066</v>
       </c>
       <c r="CA3">
-        <v>5.5557003257328992</v>
+        <v>0.44445602605863194</v>
       </c>
       <c r="CB3">
-        <v>11.493592233009707</v>
+        <v>0.91948737864077656</v>
       </c>
       <c r="CC3">
-        <v>6.483756735950732</v>
+        <v>0.5187005388760586</v>
       </c>
       <c r="CD3">
-        <v>7.8719014626635886</v>
+        <v>0.62975211701308709</v>
       </c>
       <c r="CE3">
-        <v>7.9405988023952077</v>
+        <v>0.63524790419161659</v>
       </c>
       <c r="CF3">
-        <v>11.152699849170435</v>
+        <v>0.89221598793363488</v>
       </c>
       <c r="CG3">
-        <v>8.7118811881188112</v>
+        <v>0.6969504950495049</v>
       </c>
       <c r="CH3">
-        <v>15.6029484029484</v>
+        <v>1.248235872235872</v>
       </c>
       <c r="CI3">
-        <v>10.917936117936119</v>
+        <v>0.87343488943488956</v>
       </c>
       <c r="CJ3">
-        <v>26.046191646191645</v>
+        <v>2.0836953316953317</v>
       </c>
       <c r="CK3">
         <v>345.80745341614903</v>
@@ -2581,43 +2585,43 @@
         <v>0.19698981850376274</v>
       </c>
       <c r="EK3">
-        <v>0.10980149666679906</v>
+        <v>0.10980149666679834</v>
       </c>
       <c r="EL3">
-        <v>-0.49698522818066648</v>
+        <v>-0.49698522818066554</v>
       </c>
       <c r="EM3">
-        <v>-1.0147675108503444</v>
+        <v>-1.0147675108503442</v>
       </c>
       <c r="EN3">
-        <v>-1.6546165125344119</v>
+        <v>-1.6546165125344079</v>
       </c>
       <c r="EO3">
-        <v>-0.90240603136220987</v>
+        <v>-0.90240603136220598</v>
       </c>
       <c r="EP3">
-        <v>-0.6678103947515448</v>
+        <v>-0.66781039475154558</v>
       </c>
       <c r="EQ3">
-        <v>-0.51245950061376588</v>
+        <v>-0.51245950061376522</v>
       </c>
       <c r="ER3">
-        <v>-2.2644993203916133E-2</v>
+        <v>-2.2644993203915813E-2</v>
       </c>
       <c r="ES3">
-        <v>3.9996890086738688E-3</v>
+        <v>3.9996890086745999E-3</v>
       </c>
       <c r="ET3">
-        <v>-0.54076110094166785</v>
+        <v>-0.54076110094166774</v>
       </c>
       <c r="EU3">
-        <v>0.4260770268085694</v>
+        <v>0.42607702680856985</v>
       </c>
       <c r="EV3">
-        <v>0.14763445715883769</v>
+        <v>0.14763445715883827</v>
       </c>
       <c r="EW3">
-        <v>1.7144475387825091</v>
+        <v>1.7144475387825087</v>
       </c>
       <c r="EX3">
         <v>-1.4024083299513361</v>
@@ -2660,55 +2664,55 @@
       </c>
       <c r="FK3">
         <f t="shared" ref="FK3:FK37" si="1">EK3-EX3</f>
-        <v>1.5122098266181352</v>
+        <v>1.5122098266181345</v>
       </c>
       <c r="FL3">
         <f t="shared" si="0"/>
-        <v>-1.8034483450846204</v>
+        <v>-1.8034483450846193</v>
       </c>
       <c r="FM3">
         <f t="shared" si="0"/>
-        <v>0.98272503532312272</v>
+        <v>0.98272503532312294</v>
       </c>
       <c r="FN3">
         <f t="shared" si="0"/>
-        <v>-3.2221519871328708</v>
+        <v>-3.2221519871328668</v>
       </c>
       <c r="FO3">
         <f t="shared" si="0"/>
-        <v>-2.0812535558195733</v>
+        <v>-2.0812535558195693</v>
       </c>
       <c r="FP3">
         <f t="shared" si="0"/>
-        <v>-3.6911326967106941</v>
+        <v>-3.691132696710695</v>
       </c>
       <c r="FQ3">
         <f t="shared" si="0"/>
-        <v>-0.45748701744102066</v>
+        <v>-0.45748701744101999</v>
       </c>
       <c r="FR3">
         <f t="shared" si="0"/>
-        <v>-0.90013036504017796</v>
+        <v>-0.90013036504017763</v>
       </c>
       <c r="FS3">
         <f t="shared" si="0"/>
-        <v>-0.77140536538357185</v>
+        <v>-0.77140536538357107</v>
       </c>
       <c r="FT3">
         <f t="shared" si="0"/>
-        <v>-0.30336301323063747</v>
+        <v>-0.30336301323063736</v>
       </c>
       <c r="FU3">
         <f t="shared" si="0"/>
-        <v>0.24298134535540342</v>
+        <v>0.24298134535540386</v>
       </c>
       <c r="FV3">
         <f t="shared" si="0"/>
-        <v>1.8548666188979206</v>
+        <v>1.8548666188979213</v>
       </c>
       <c r="FW3">
         <f t="shared" si="0"/>
-        <v>1.9457575679140799</v>
+        <v>1.9457575679140795</v>
       </c>
     </row>
     <row r="4" spans="1:179" x14ac:dyDescent="0.35">
@@ -2932,43 +2936,43 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="BX4">
-        <v>0.11829092654824752</v>
+        <v>9.4632741238598016E-3</v>
       </c>
       <c r="BY4">
-        <v>7.3620496397117678</v>
+        <v>0.58896397117694144</v>
       </c>
       <c r="BZ4">
-        <v>6.6088070456365084</v>
+        <v>0.52870456365092067</v>
       </c>
       <c r="CA4">
-        <v>12.581107491856677</v>
+        <v>1.0064885993485342</v>
       </c>
       <c r="CB4">
-        <v>14.799223300970873</v>
+        <v>1.1839378640776699</v>
       </c>
       <c r="CC4">
-        <v>19.908237105465744</v>
+        <v>1.5926589684372596</v>
       </c>
       <c r="CD4">
-        <v>11.587990762124711</v>
+        <v>0.92703926096997691</v>
       </c>
       <c r="CE4">
-        <v>5.0433532934131726</v>
+        <v>0.40346826347305381</v>
       </c>
       <c r="CF4">
-        <v>14.021116138763198</v>
+        <v>1.1216892911010559</v>
       </c>
       <c r="CG4">
-        <v>23.079207920792076</v>
+        <v>1.8463366336633662</v>
       </c>
       <c r="CH4">
-        <v>8.843734643734642</v>
+        <v>0.70749877149877138</v>
       </c>
       <c r="CI4">
-        <v>5.0461916461916445</v>
+        <v>0.40369533169533156</v>
       </c>
       <c r="CJ4">
-        <v>4.7366093366093356</v>
+        <v>0.37892874692874684</v>
       </c>
       <c r="CK4">
         <v>347.91925465838511</v>
@@ -3118,43 +3122,43 @@
         <v>0.5245683930942896</v>
       </c>
       <c r="EK4">
-        <v>-1.9631079593529623</v>
+        <v>-1.9631079593529654</v>
       </c>
       <c r="EL4">
-        <v>0.10620104799092031</v>
+        <v>0.10620104799092038</v>
       </c>
       <c r="EM4">
-        <v>-0.40256269103254821</v>
+        <v>-0.4025626910325481</v>
       </c>
       <c r="EN4">
-        <v>-0.1188559834838389</v>
+        <v>-0.11885598348383819</v>
       </c>
       <c r="EO4">
-        <v>-0.28275175209684045</v>
+        <v>-0.28275175209683906</v>
       </c>
       <c r="EP4">
-        <v>1.1460921852208148</v>
+        <v>1.146092185220815</v>
       </c>
       <c r="EQ4">
-        <v>5.11299618704497E-2</v>
+        <v>5.1129961870449908E-2</v>
       </c>
       <c r="ER4">
-        <v>-0.86264240817413973</v>
+        <v>-0.86264240817413873</v>
       </c>
       <c r="ES4">
-        <v>0.45725171469089981</v>
+        <v>0.45725171469089992</v>
       </c>
       <c r="ET4">
-        <v>1.349253296375609</v>
+        <v>1.3492532963756085</v>
       </c>
       <c r="EU4">
-        <v>-0.40817492803209005</v>
+        <v>-0.40817492803209038</v>
       </c>
       <c r="EV4">
-        <v>-0.91570739250418187</v>
+        <v>-0.91570739250417954</v>
       </c>
       <c r="EW4">
-        <v>-0.79056681843936505</v>
+        <v>-0.79056681843936372</v>
       </c>
       <c r="EX4">
         <v>-1.1263738855650605</v>
@@ -3197,7 +3201,7 @@
       </c>
       <c r="FK4">
         <f t="shared" si="1"/>
-        <v>-0.83673407378790188</v>
+        <v>-0.83673407378790499</v>
       </c>
       <c r="FL4">
         <f t="shared" si="0"/>
@@ -3209,43 +3213,43 @@
       </c>
       <c r="FN4">
         <f t="shared" si="0"/>
-        <v>-1.7163630195582231</v>
+        <v>-1.7163630195582225</v>
       </c>
       <c r="FO4">
         <f t="shared" si="0"/>
-        <v>1.2835987691883912</v>
+        <v>1.2835987691883926</v>
       </c>
       <c r="FP4">
         <f t="shared" si="0"/>
-        <v>-0.14574628146595936</v>
+        <v>-0.14574628146595914</v>
       </c>
       <c r="FQ4">
         <f t="shared" si="0"/>
-        <v>-0.16223781180007535</v>
+        <v>-0.16223781180007513</v>
       </c>
       <c r="FR4">
         <f t="shared" si="0"/>
-        <v>-0.84400792406970038</v>
+        <v>-0.84400792406969938</v>
       </c>
       <c r="FS4">
         <f t="shared" si="0"/>
-        <v>1.7987245123520013E-2</v>
+        <v>1.7987245123520124E-2</v>
       </c>
       <c r="FT4">
         <f t="shared" si="0"/>
-        <v>0.3306394826575958</v>
+        <v>0.33063948265759535</v>
       </c>
       <c r="FU4">
         <f t="shared" si="0"/>
-        <v>-0.48017884770468483</v>
+        <v>-0.48017884770468516</v>
       </c>
       <c r="FV4">
         <f t="shared" si="0"/>
-        <v>1.2994222869826011</v>
+        <v>1.2994222869826033</v>
       </c>
       <c r="FW4">
         <f t="shared" si="0"/>
-        <v>-1.8523859399617357</v>
+        <v>-1.8523859399617344</v>
       </c>
     </row>
     <row r="5" spans="1:179" x14ac:dyDescent="0.35">
@@ -3475,43 +3479,43 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="BX5">
-        <v>10.656937109937587</v>
+        <v>0.85255496879500703</v>
       </c>
       <c r="BY5">
-        <v>7.7028022417934352</v>
+        <v>0.61622417934347484</v>
       </c>
       <c r="BZ5">
-        <v>9.9804643714971988</v>
+        <v>0.79843714971977597</v>
       </c>
       <c r="CA5">
-        <v>16.156351791530945</v>
+        <v>1.2925081433224757</v>
       </c>
       <c r="CB5">
-        <v>25.825242718446603</v>
+        <v>2.0660194174757285</v>
       </c>
       <c r="CC5">
-        <v>23.400153964588142</v>
+        <v>1.8720123171670515</v>
       </c>
       <c r="CD5">
-        <v>12.51916859122402</v>
+        <v>1.0015334872979216</v>
       </c>
       <c r="CE5">
-        <v>6.1801197604790401</v>
+        <v>0.4944095808383232</v>
       </c>
       <c r="CF5">
-        <v>18.126093514328808</v>
+        <v>1.4500874811463047</v>
       </c>
       <c r="CG5">
-        <v>13.202970297029701</v>
+        <v>1.0562376237623761</v>
       </c>
       <c r="CH5">
-        <v>13.415233415233416</v>
+        <v>1.0732186732186733</v>
       </c>
       <c r="CI5">
-        <v>14.096314496314495</v>
+        <v>1.1277051597051597</v>
       </c>
       <c r="CJ5">
-        <v>31.195577395577391</v>
+        <v>2.4956461916461912</v>
       </c>
       <c r="CK5">
         <v>349.50310559006203</v>
@@ -3661,43 +3665,43 @@
         <v>0.57104913678618863</v>
       </c>
       <c r="EK5">
-        <v>3.1928597231327385</v>
+        <v>3.1928597231327416</v>
       </c>
       <c r="EL5">
         <v>0.19335343770392585</v>
       </c>
       <c r="EM5">
-        <v>0.36988365880467172</v>
+        <v>0.369883658804672</v>
       </c>
       <c r="EN5">
-        <v>0.66269573975703133</v>
+        <v>0.66269573975703067</v>
       </c>
       <c r="EO5">
-        <v>1.7841214030843588</v>
+        <v>1.784121403084352</v>
       </c>
       <c r="EP5">
-        <v>1.6179165557338557</v>
+        <v>1.6179165557338564</v>
       </c>
       <c r="EQ5">
-        <v>0.1923542355323879</v>
+        <v>0.19235423553238803</v>
       </c>
       <c r="ER5">
-        <v>-0.53306008910596181</v>
+        <v>-0.53306008910596114</v>
       </c>
       <c r="ES5">
-        <v>1.1058986065682899</v>
+        <v>1.105898606568289</v>
       </c>
       <c r="ET5">
-        <v>5.0039347423790514E-2</v>
+        <v>5.003934742379039E-2</v>
       </c>
       <c r="EU5">
-        <v>0.15605960020365414</v>
+        <v>0.15605960020365425</v>
       </c>
       <c r="EV5">
-        <v>0.72322196101860858</v>
+        <v>0.72322196101860836</v>
       </c>
       <c r="EW5">
-        <v>2.3197754633605787</v>
+        <v>2.3197754633605778</v>
       </c>
       <c r="EX5">
         <v>-0.91934805227537242</v>
@@ -3740,7 +3744,7 @@
       </c>
       <c r="FK5">
         <f t="shared" si="1"/>
-        <v>4.1122077754081108</v>
+        <v>4.1122077754081143</v>
       </c>
       <c r="FL5">
         <f t="shared" si="0"/>
@@ -3748,47 +3752,47 @@
       </c>
       <c r="FM5">
         <f t="shared" si="0"/>
-        <v>1.8342934218549281</v>
+        <v>1.8342934218549285</v>
       </c>
       <c r="FN5">
         <f t="shared" si="0"/>
-        <v>-0.72501036598586766</v>
+        <v>-0.72501036598586832</v>
       </c>
       <c r="FO5">
         <f t="shared" si="0"/>
-        <v>2.7934752194363126</v>
+        <v>2.7934752194363055</v>
       </c>
       <c r="FP5">
         <f t="shared" si="0"/>
-        <v>2.8395223660553652</v>
+        <v>2.8395223660553661</v>
       </c>
       <c r="FQ5">
         <f t="shared" si="0"/>
-        <v>-0.85957684077335506</v>
+        <v>-0.85957684077335494</v>
       </c>
       <c r="FR5">
         <f t="shared" si="0"/>
-        <v>3.0700538187612967</v>
+        <v>3.0700538187612971</v>
       </c>
       <c r="FS5">
         <f t="shared" si="0"/>
-        <v>2.291313630321099</v>
+        <v>2.2913136303210981</v>
       </c>
       <c r="FT5">
         <f t="shared" si="0"/>
-        <v>1.5434493365638644</v>
+        <v>1.5434493365638642</v>
       </c>
       <c r="FU5">
         <f t="shared" si="0"/>
-        <v>-0.24921960481065894</v>
+        <v>-0.24921960481065883</v>
       </c>
       <c r="FV5">
         <f t="shared" si="0"/>
-        <v>1.1316983781906771</v>
+        <v>1.1316983781906766</v>
       </c>
       <c r="FW5">
         <f t="shared" si="0"/>
-        <v>1.2117731578862869</v>
+        <v>1.211773157886286</v>
       </c>
     </row>
     <row r="6" spans="1:179" x14ac:dyDescent="0.35">
@@ -4012,43 +4016,43 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="BX6">
-        <v>3.8820931349015835</v>
+        <v>0.31056745079212666</v>
       </c>
       <c r="BY6">
-        <v>5.2278622898318661</v>
+        <v>0.41822898318654927</v>
       </c>
       <c r="BZ6">
-        <v>6.8509207365892708</v>
+        <v>0.54807365892714166</v>
       </c>
       <c r="CA6">
-        <v>15.16612377850163</v>
+        <v>1.2132899022801305</v>
       </c>
       <c r="CB6">
-        <v>14.375145631067962</v>
+        <v>1.150011650485437</v>
       </c>
       <c r="CC6">
-        <v>15.191993841416476</v>
+        <v>1.2153595073133181</v>
       </c>
       <c r="CD6">
-        <v>16.450808314087762</v>
+        <v>1.3160646651270209</v>
       </c>
       <c r="CE6">
-        <v>7.6287425149700585</v>
+        <v>0.61029940119760473</v>
       </c>
       <c r="CF6">
-        <v>16.84898944193062</v>
+        <v>1.3479191553544496</v>
       </c>
       <c r="CG6">
-        <v>17.860396039603959</v>
+        <v>1.4288316831683168</v>
       </c>
       <c r="CH6">
-        <v>7.8737100737100727</v>
+        <v>0.62989680589680586</v>
       </c>
       <c r="CI6">
-        <v>9.3390663390663384</v>
+        <v>0.74712530712530711</v>
       </c>
       <c r="CJ6">
-        <v>7.3886977886977885</v>
+        <v>0.59109582309582309</v>
       </c>
       <c r="CK6">
         <v>344.22360248447205</v>
@@ -4198,43 +4202,43 @@
         <v>0.27224435590969465</v>
       </c>
       <c r="EK6">
-        <v>-0.12169092989378343</v>
+        <v>-0.12169092989378448</v>
       </c>
       <c r="EL6">
-        <v>-0.43964812968526851</v>
+        <v>-0.43964812968526773</v>
       </c>
       <c r="EM6">
-        <v>-0.34709446910274783</v>
+        <v>-0.34709446910274772</v>
       </c>
       <c r="EN6">
-        <v>0.44623097676028917</v>
+        <v>0.44623097676028878</v>
       </c>
       <c r="EO6">
-        <v>-0.36224687344996309</v>
+        <v>-0.36224687344996154</v>
       </c>
       <c r="EP6">
-        <v>0.50883803541678108</v>
+        <v>0.50883803541678085</v>
       </c>
       <c r="EQ6">
-        <v>0.7886345021050154</v>
+        <v>0.78863450210501496</v>
       </c>
       <c r="ER6">
-        <v>-0.11306138162084979</v>
+        <v>-0.11306138162084914</v>
       </c>
       <c r="ES6">
-        <v>0.90409735131754654</v>
+        <v>0.90409735131754598</v>
       </c>
       <c r="ET6">
-        <v>0.66272129387685874</v>
+        <v>0.66272129387686396</v>
       </c>
       <c r="EU6">
-        <v>-0.52789963605502432</v>
+        <v>-0.52789963605502477</v>
       </c>
       <c r="EV6">
-        <v>-0.13829050417410091</v>
+        <v>-0.13829050417409988</v>
       </c>
       <c r="EW6">
-        <v>-0.47880474105146098</v>
+        <v>-0.47880474105145981</v>
       </c>
       <c r="EX6">
         <v>-1.6094341632410316</v>
@@ -4274,27 +4278,27 @@
       </c>
       <c r="FK6">
         <f t="shared" si="1"/>
-        <v>1.4877432333472482</v>
+        <v>1.4877432333472471</v>
       </c>
       <c r="FL6">
         <f t="shared" si="0"/>
-        <v>0.78401777006652629</v>
+        <v>0.78401777006652718</v>
       </c>
       <c r="FM6">
         <f t="shared" si="0"/>
-        <v>0.21107456263803753</v>
+        <v>0.21107456263803764</v>
       </c>
       <c r="FN6">
         <f t="shared" si="0"/>
-        <v>-1.1213044978381697</v>
+        <v>-1.1213044978381701</v>
       </c>
       <c r="FO6">
         <f t="shared" si="0"/>
-        <v>0.32882311151154331</v>
+        <v>0.32882311151154486</v>
       </c>
       <c r="FP6">
         <f t="shared" si="0"/>
-        <v>1.0601920385360817</v>
+        <v>1.0601920385360812</v>
       </c>
       <c r="FQ6">
         <f t="shared" si="0"/>
@@ -4302,23 +4306,23 @@
       </c>
       <c r="FR6">
         <f t="shared" si="0"/>
-        <v>-1.8339536766954214</v>
+        <v>-1.8339536766954208</v>
       </c>
       <c r="FS6">
         <f t="shared" si="0"/>
-        <v>2.2015592366786443</v>
+        <v>2.2015592366786434</v>
       </c>
       <c r="FU6">
         <f t="shared" si="0"/>
-        <v>-0.48881179394704788</v>
+        <v>-0.48881179394704832</v>
       </c>
       <c r="FV6">
         <f t="shared" si="0"/>
-        <v>-0.15425515060944217</v>
+        <v>-0.15425515060944114</v>
       </c>
       <c r="FW6">
         <f t="shared" si="0"/>
-        <v>0.39906986340708306</v>
+        <v>0.39906986340708422</v>
       </c>
     </row>
     <row r="7" spans="1:179" x14ac:dyDescent="0.35">
@@ -4545,43 +4549,43 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="BX7">
-        <v>3.860585693710993</v>
+        <v>0.30884685549687946</v>
       </c>
       <c r="BY7">
-        <v>5.4430744595676535</v>
+        <v>0.43544595676541231</v>
       </c>
       <c r="BZ7">
-        <v>5.3159609120521178</v>
+        <v>0.42527687296416944</v>
       </c>
       <c r="CA7">
-        <v>6.952442996742672</v>
+        <v>0.55619543973941377</v>
       </c>
       <c r="CB7">
-        <v>11.243495145631067</v>
+        <v>0.8994796116504854</v>
       </c>
       <c r="CC7">
-        <v>5.8802155504234026</v>
+        <v>0.47041724403387219</v>
       </c>
       <c r="CD7">
-        <v>6.6931736526946102</v>
+        <v>0.53545389221556883</v>
       </c>
       <c r="CE7">
-        <v>5.0936526946107774</v>
+        <v>0.40749221556886223</v>
       </c>
       <c r="CF7">
-        <v>5.6185822021116145</v>
+        <v>0.44948657616892917</v>
       </c>
       <c r="CG7">
-        <v>12.475247524752474</v>
+        <v>0.99801980198019791</v>
       </c>
       <c r="CH7">
-        <v>3.9626535626535611</v>
+        <v>0.3170122850122849</v>
       </c>
       <c r="CI7">
-        <v>5.3454545454545439</v>
+        <v>0.42763636363636354</v>
       </c>
       <c r="CJ7">
-        <v>5.634398034398032</v>
+        <v>0.45075184275184255</v>
       </c>
       <c r="CK7">
         <v>356.36645962732922</v>
@@ -4740,43 +4744,43 @@
         <v>0.27003098716246132</v>
       </c>
       <c r="EK7">
-        <v>-0.13221331291926441</v>
+        <v>-0.13221331291926533</v>
       </c>
       <c r="EL7">
-        <v>-0.38460451512968669</v>
+        <v>-0.38460451512968585</v>
       </c>
       <c r="EM7">
-        <v>-0.69875360851657708</v>
+        <v>-0.69875360851657686</v>
       </c>
       <c r="EN7">
-        <v>-1.3492872678863748</v>
+        <v>-1.3492872678863714</v>
       </c>
       <c r="EO7">
-        <v>-0.94928776959610273</v>
+        <v>-0.94928776959609862</v>
       </c>
       <c r="EP7">
-        <v>-0.74936028595132986</v>
+        <v>-0.74936028595133075</v>
       </c>
       <c r="EQ7">
-        <v>-0.69122769462136069</v>
+        <v>-0.69122769462135991</v>
       </c>
       <c r="ER7">
-        <v>-0.84805911971979553</v>
+        <v>-0.84805911971979453</v>
       </c>
       <c r="ES7">
-        <v>-0.87047241707788126</v>
+        <v>-0.87047241707787926</v>
       </c>
       <c r="ET7">
-        <v>-4.569220670950129E-2</v>
+        <v>-4.5692206709501366E-2</v>
       </c>
       <c r="EU7">
-        <v>-1.0106194694666428</v>
+        <v>-1.0106194694666435</v>
       </c>
       <c r="EV7">
-        <v>-0.86151246519270985</v>
+        <v>-0.86151246519270763</v>
       </c>
       <c r="EW7">
-        <v>-0.68502868329248723</v>
+        <v>-0.6850286832924859</v>
       </c>
       <c r="EX7">
         <v>-2.2236108019987905E-2</v>
@@ -4819,55 +4823,55 @@
       </c>
       <c r="FK7">
         <f t="shared" si="1"/>
-        <v>-0.10997720489927651</v>
+        <v>-0.10997720489927743</v>
       </c>
       <c r="FL7">
         <f t="shared" si="0"/>
-        <v>0.97222606970925862</v>
+        <v>0.9722260697092594</v>
       </c>
       <c r="FM7">
         <f t="shared" si="0"/>
-        <v>0.12595681478582144</v>
+        <v>0.12595681478582166</v>
       </c>
       <c r="FN7">
         <f t="shared" si="0"/>
-        <v>-2.9467943039607589</v>
+        <v>-2.9467943039607558</v>
       </c>
       <c r="FO7">
         <f t="shared" si="0"/>
-        <v>-0.1388613478631765</v>
+        <v>-0.13886134786317239</v>
       </c>
       <c r="FP7">
         <f t="shared" si="0"/>
-        <v>-0.97996672456794487</v>
+        <v>-0.97996672456794576</v>
       </c>
       <c r="FQ7">
         <f t="shared" si="0"/>
-        <v>-0.6697977435540271</v>
+        <v>-0.66979774355402633</v>
       </c>
       <c r="FR7">
         <f t="shared" si="0"/>
-        <v>1.9643607976115449</v>
+        <v>1.9643607976115458</v>
       </c>
       <c r="FS7">
         <f t="shared" si="0"/>
-        <v>-1.0856431634286838</v>
+        <v>-1.0856431634286818</v>
       </c>
       <c r="FT7">
         <f t="shared" si="0"/>
-        <v>-0.85497070352267046</v>
+        <v>-0.85497070352267057</v>
       </c>
       <c r="FU7">
         <f t="shared" si="0"/>
-        <v>-3.008213926669157</v>
+        <v>-3.0082139266691579</v>
       </c>
       <c r="FV7">
         <f t="shared" si="0"/>
-        <v>-1.6556190615749689</v>
+        <v>-1.6556190615749666</v>
       </c>
       <c r="FW7">
         <f t="shared" si="0"/>
-        <v>0.88559368044494602</v>
+        <v>0.88559368044494735</v>
       </c>
     </row>
     <row r="8" spans="1:179" x14ac:dyDescent="0.35">
@@ -5091,43 +5095,43 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="BX8">
-        <v>4.5488238118098892</v>
+        <v>0.36390590494479114</v>
       </c>
       <c r="BY8">
-        <v>6.8598879103282631</v>
+        <v>0.54879103282626107</v>
       </c>
       <c r="BZ8">
-        <v>7.5361563517915311</v>
+        <v>0.60289250814332251</v>
       </c>
       <c r="CA8">
-        <v>18.710097719869708</v>
+        <v>1.4968078175895767</v>
       </c>
       <c r="CB8">
-        <v>9.9712621359223288</v>
+        <v>0.79770097087378633</v>
       </c>
       <c r="CC8">
-        <v>9.0186297151655133</v>
+        <v>0.72149037721324105</v>
       </c>
       <c r="CD8">
-        <v>8.3027544910179625</v>
+        <v>0.66422035928143697</v>
       </c>
       <c r="CE8">
-        <v>13.62443113772455</v>
+        <v>1.0899544910179639</v>
       </c>
       <c r="CF8">
-        <v>6.9869079939668177</v>
+        <v>0.55895263951734542</v>
       </c>
       <c r="CG8">
-        <v>6.3831683168316822</v>
+        <v>0.51065346534653455</v>
       </c>
       <c r="CH8">
-        <v>5.7479115479115466</v>
+        <v>0.45983292383292373</v>
       </c>
       <c r="CI8">
-        <v>6.2329238329238308</v>
+        <v>0.4986339066339065</v>
       </c>
       <c r="CJ8">
-        <v>20.494348894348892</v>
+        <v>1.6395479115479115</v>
       </c>
       <c r="CK8">
         <v>355.31055900621118</v>
@@ -5283,43 +5287,43 @@
         <v>5.7459052678176192</v>
       </c>
       <c r="EK8">
-        <v>0.20450294389612853</v>
+        <v>0.20450294389612789</v>
       </c>
       <c r="EL8">
-        <v>-2.2234052638770783E-2</v>
+        <v>-2.2234052638770482E-2</v>
       </c>
       <c r="EM8">
-        <v>-0.19010705947435974</v>
+        <v>-0.19010705947435955</v>
       </c>
       <c r="EN8">
-        <v>1.2209469706433675</v>
+        <v>1.2209469706433655</v>
       </c>
       <c r="EO8">
-        <v>-1.187773133655472</v>
+        <v>-1.1877731336554669</v>
       </c>
       <c r="EP8">
-        <v>-0.32530085171244794</v>
+        <v>-0.3253008517124486</v>
       </c>
       <c r="EQ8">
-        <v>-0.44711547707397886</v>
+        <v>-0.44711547707397836</v>
       </c>
       <c r="ER8">
-        <v>1.6252666021369746</v>
+        <v>1.6252666021369739</v>
       </c>
       <c r="ES8">
-        <v>-0.65425678645208463</v>
+        <v>-0.65425678645208296</v>
       </c>
       <c r="ET8">
-        <v>-0.84710207416820194</v>
+        <v>-0.84710207416820171</v>
       </c>
       <c r="EU8">
-        <v>-0.79027506002017844</v>
+        <v>-0.79027506002017911</v>
       </c>
       <c r="EV8">
-        <v>-0.70079647385524135</v>
+        <v>-0.70079647385523935</v>
       </c>
       <c r="EW8">
-        <v>1.0618094156903211</v>
+        <v>1.0618094156903208</v>
       </c>
       <c r="EX8">
         <v>-0.16025333021312568</v>
@@ -5359,51 +5363,51 @@
       </c>
       <c r="FK8">
         <f t="shared" si="1"/>
-        <v>0.36475627410925421</v>
+        <v>0.3647562741092536</v>
       </c>
       <c r="FL8">
         <f t="shared" si="0"/>
-        <v>-0.39654437393270808</v>
+        <v>-0.39654437393270781</v>
       </c>
       <c r="FM8">
         <f t="shared" si="0"/>
-        <v>0.79452819876499747</v>
+        <v>0.79452819876499758</v>
       </c>
       <c r="FN8">
         <f t="shared" si="0"/>
-        <v>-0.28664538100323655</v>
+        <v>-0.28664538100323855</v>
       </c>
       <c r="FO8">
         <f t="shared" si="0"/>
-        <v>-1.7698384742557538</v>
+        <v>-1.7698384742557487</v>
       </c>
       <c r="FP8">
         <f t="shared" si="0"/>
-        <v>-0.6117616075959087</v>
+        <v>-0.61176160759590936</v>
       </c>
       <c r="FQ8">
         <f t="shared" si="0"/>
-        <v>2.3583446387422877</v>
+        <v>2.3583446387422882</v>
       </c>
       <c r="FR8">
         <f t="shared" si="0"/>
-        <v>2.9090114710988781</v>
+        <v>2.9090114710988777</v>
       </c>
       <c r="FS8">
         <f t="shared" si="0"/>
-        <v>-0.53328694797801413</v>
+        <v>-0.53328694797801246</v>
       </c>
       <c r="FT8">
         <f t="shared" si="0"/>
-        <v>-1.7087144002075871</v>
+        <v>-1.7087144002075869</v>
       </c>
       <c r="FU8">
         <f t="shared" si="0"/>
-        <v>-0.71415663065201629</v>
+        <v>-0.71415663065201695</v>
       </c>
       <c r="FV8">
         <f t="shared" si="0"/>
-        <v>-1.2826825384337956</v>
+        <v>-1.2826825384337934</v>
       </c>
     </row>
     <row r="9" spans="1:179" x14ac:dyDescent="0.35">
@@ -5633,43 +5637,43 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="BX9">
-        <v>4.0111377820451271</v>
+        <v>0.32089102256361018</v>
       </c>
       <c r="BY9">
-        <v>5.4341072858286621</v>
+        <v>0.43472858286629296</v>
       </c>
       <c r="BZ9">
-        <v>5.2221498371335509</v>
+        <v>0.41777198697068407</v>
       </c>
       <c r="CA9">
-        <v>18.376547231270358</v>
+        <v>1.4701237785016286</v>
       </c>
       <c r="CB9">
-        <v>10.775922330097085</v>
+        <v>0.86207378640776688</v>
       </c>
       <c r="CC9">
-        <v>11.475904541955352</v>
+        <v>0.91807236335642817</v>
       </c>
       <c r="CD9">
-        <v>29.639760479041918</v>
+        <v>2.3711808383233537</v>
       </c>
       <c r="CE9">
-        <v>6.5925748502993997</v>
+        <v>0.527405988023952</v>
       </c>
       <c r="CF9">
-        <v>16.575324283559574</v>
+        <v>1.326025942684766</v>
       </c>
       <c r="CG9">
-        <v>6.3207920792079202</v>
+        <v>0.50566336633663367</v>
       </c>
       <c r="CH9">
-        <v>22.774938574938574</v>
+        <v>1.821995085995086</v>
       </c>
       <c r="CI9">
-        <v>6.2948402948402933</v>
+        <v>0.50358722358722352</v>
       </c>
       <c r="CJ9">
-        <v>3.735626535626535</v>
+        <v>0.2988501228501228</v>
       </c>
       <c r="CK9">
         <v>356.89440993788816</v>
@@ -5828,43 +5832,43 @@
         <v>0.52899513058875602</v>
       </c>
       <c r="EK9">
-        <v>-5.8556631740896974E-2</v>
+        <v>-5.8556631740897765E-2</v>
       </c>
       <c r="EL9">
-        <v>-0.38689799906950267</v>
+        <v>-0.38689799906950195</v>
       </c>
       <c r="EM9">
-        <v>-0.72024571622258637</v>
+        <v>-0.72024571622258615</v>
       </c>
       <c r="EN9">
-        <v>1.1480325241602538</v>
+        <v>1.1480325241602516</v>
       </c>
       <c r="EO9">
-        <v>-1.0369362367290336</v>
+        <v>-1.0369362367290289</v>
       </c>
       <c r="EP9">
-        <v>6.723705315247944E-3</v>
+        <v>6.7237053152475129E-3</v>
       </c>
       <c r="EQ9">
-        <v>2.7888971067885029</v>
+        <v>2.7888971067885016</v>
       </c>
       <c r="ER9">
-        <v>-0.41347712378033957</v>
+        <v>-0.41347712378033885</v>
       </c>
       <c r="ES9">
-        <v>0.86085422519238652</v>
+        <v>0.86085422519238608</v>
       </c>
       <c r="ET9">
-        <v>-0.85530763595105552</v>
+        <v>-0.85530763595105519</v>
       </c>
       <c r="EU9">
-        <v>1.3112756659143079</v>
+        <v>1.3112756659143092</v>
       </c>
       <c r="EV9">
-        <v>-0.68958373027355735</v>
+        <v>-0.68958373027355535</v>
       </c>
       <c r="EW9">
-        <v>-0.90823577371806807</v>
+        <v>-0.90823577371806652</v>
       </c>
       <c r="EX9">
         <v>4.6772503076569841E-2</v>
@@ -5907,55 +5911,55 @@
       </c>
       <c r="FK9">
         <f t="shared" si="1"/>
-        <v>-0.10532913481746681</v>
+        <v>-0.10532913481746761</v>
       </c>
       <c r="FL9">
         <f t="shared" si="0"/>
-        <v>-0.89437300545057852</v>
+        <v>-0.89437300545057774</v>
       </c>
       <c r="FM9">
         <f t="shared" si="0"/>
-        <v>-0.1087684061694737</v>
+        <v>-0.10876840616947347</v>
       </c>
       <c r="FN9">
         <f t="shared" si="0"/>
-        <v>-0.17973045863079462</v>
+        <v>-0.17973045863079684</v>
       </c>
       <c r="FO9">
         <f t="shared" si="0"/>
-        <v>-1.4598596616340918</v>
+        <v>-1.4598596616340871</v>
       </c>
       <c r="FP9">
         <f t="shared" si="0"/>
-        <v>0.39051475663399621</v>
+        <v>0.39051475663399576</v>
       </c>
       <c r="FQ9">
         <f t="shared" si="0"/>
-        <v>2.4749017368017521</v>
+        <v>2.4749017368017507</v>
       </c>
       <c r="FR9">
         <f t="shared" si="0"/>
-        <v>-0.71112023589026463</v>
+        <v>-0.71112023589026385</v>
       </c>
       <c r="FS9">
         <f t="shared" si="0"/>
-        <v>0.53363661723330247</v>
+        <v>0.53363661723330202</v>
       </c>
       <c r="FT9">
         <f t="shared" si="0"/>
-        <v>-1.4552508158593858</v>
+        <v>-1.4552508158593855</v>
       </c>
       <c r="FU9">
         <f t="shared" si="0"/>
-        <v>0.20241530295637244</v>
+        <v>0.20241530295637378</v>
       </c>
       <c r="FV9">
         <f t="shared" si="0"/>
-        <v>-1.9788715675311357</v>
+        <v>-1.9788715675311335</v>
       </c>
       <c r="FW9">
         <f t="shared" si="0"/>
-        <v>-0.21509390506722914</v>
+        <v>-0.21509390506722759</v>
       </c>
     </row>
     <row r="10" spans="1:179" x14ac:dyDescent="0.35">
@@ -6167,40 +6171,40 @@
         <v>0</v>
       </c>
       <c r="BX10">
-        <v>5.7639942390782517</v>
+        <v>0.46111953912626014</v>
       </c>
       <c r="BY10">
-        <v>3.2012810248198562</v>
+        <v>0.25610248198558849</v>
       </c>
       <c r="CA10">
-        <v>12.424755700325733</v>
+        <v>0.99398045602605867</v>
       </c>
       <c r="CB10">
-        <v>8.6555339805825238</v>
+        <v>0.69244271844660188</v>
       </c>
       <c r="CC10">
-        <v>8.0270977675134727</v>
+        <v>0.64216782140107787</v>
       </c>
       <c r="CD10">
-        <v>4.3693413173652687</v>
+        <v>0.34954730538922152</v>
       </c>
       <c r="CE10">
-        <v>4.5001197604790413</v>
+        <v>0.3600095808383233</v>
       </c>
       <c r="CF10">
-        <v>4.2603921568627445</v>
+        <v>0.34083137254901957</v>
       </c>
       <c r="CG10">
-        <v>6.3207920792079193</v>
+        <v>0.50566336633663356</v>
       </c>
       <c r="CH10">
-        <v>6.5115479115479102</v>
+        <v>0.52092383292383282</v>
       </c>
       <c r="CI10">
-        <v>13.229484029484027</v>
+        <v>1.0583587223587221</v>
       </c>
       <c r="CJ10">
-        <v>26.190663390663389</v>
+        <v>2.095253071253071</v>
       </c>
       <c r="CK10">
         <v>350.55900621118013</v>
@@ -6341,37 +6345,40 @@
         <v>0.7990175848358062</v>
       </c>
       <c r="EL10">
-        <v>-0.95797550008366683</v>
+        <v>-0.95797550008366539</v>
+      </c>
+      <c r="EM10">
+        <v>-1.9166397118570977</v>
       </c>
       <c r="EN10">
-        <v>-0.15303463027279826</v>
+        <v>-0.15303463027279732</v>
       </c>
       <c r="EO10">
-        <v>-1.4344118434946485</v>
+        <v>-1.4344118434946422</v>
       </c>
       <c r="EP10">
-        <v>-0.45927567296923755</v>
+        <v>-0.45927567296923821</v>
       </c>
       <c r="EQ10">
-        <v>-1.0436647087053934</v>
+        <v>-1.0436647087053923</v>
       </c>
       <c r="ER10">
-        <v>-1.0201419234810565</v>
+        <v>-1.0201419234810556</v>
       </c>
       <c r="ES10">
-        <v>-1.0850864504397832</v>
+        <v>-1.0850864504397812</v>
       </c>
       <c r="ET10">
-        <v>-0.85530763595105563</v>
+        <v>-0.8553076359510553</v>
       </c>
       <c r="EU10">
-        <v>-0.69602369412978327</v>
+        <v>-0.69602369412978393</v>
       </c>
       <c r="EV10">
-        <v>0.56624355087503442</v>
+        <v>0.56624355087503397</v>
       </c>
       <c r="EW10">
-        <v>1.7314306869670641</v>
+        <v>1.7314306869670633</v>
       </c>
       <c r="EX10">
         <v>-0.78133083008222715</v>
@@ -6415,31 +6422,31 @@
       </c>
       <c r="FL10">
         <f t="shared" si="0"/>
-        <v>-1.9315269042697567</v>
+        <v>-1.9315269042697554</v>
       </c>
       <c r="FN10">
         <f t="shared" si="0"/>
-        <v>1.0098072124151052</v>
+        <v>1.0098072124151061</v>
       </c>
       <c r="FO10">
         <f t="shared" si="0"/>
-        <v>-2.1756190997901497</v>
+        <v>-2.1756190997901435</v>
       </c>
       <c r="FP10">
         <f t="shared" si="0"/>
-        <v>-0.80159074611954395</v>
+        <v>-0.80159074611954462</v>
       </c>
       <c r="FQ10">
         <f t="shared" si="0"/>
-        <v>-1.2570324823759185</v>
+        <v>-1.2570324823759174</v>
       </c>
       <c r="FR10">
         <f t="shared" si="0"/>
-        <v>-2.2666178242340744</v>
+        <v>-2.2666178242340735</v>
       </c>
       <c r="FS10">
         <f t="shared" si="0"/>
-        <v>-2.1966320896569016</v>
+        <v>-2.1966320896568998</v>
       </c>
       <c r="FT10">
         <f t="shared" si="0"/>
@@ -6447,15 +6454,15 @@
       </c>
       <c r="FU10">
         <f t="shared" si="0"/>
-        <v>-2.1011287551692464</v>
+        <v>-2.1011287551692472</v>
       </c>
       <c r="FV10">
         <f t="shared" si="0"/>
-        <v>-0.29860322277513418</v>
+        <v>-0.29860322277513462</v>
       </c>
       <c r="FW10">
         <f t="shared" si="0"/>
-        <v>1.1314434049639615</v>
+        <v>1.1314434049639606</v>
       </c>
     </row>
     <row r="11" spans="1:179" x14ac:dyDescent="0.35">
@@ -6662,40 +6669,40 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="BX11">
-        <v>7.8394623139702357</v>
+        <v>0.62715698511761886</v>
       </c>
       <c r="BY11">
-        <v>6.6088070456365093</v>
+        <v>0.52870456365092078</v>
       </c>
       <c r="BZ11">
-        <v>8.2241042345276867</v>
+        <v>0.6579283387622149</v>
       </c>
       <c r="CA11">
-        <v>14.56156351791531</v>
+        <v>1.1649250814332248</v>
       </c>
       <c r="CB11">
-        <v>14.549126213592231</v>
+        <v>1.1639300970873785</v>
       </c>
       <c r="CD11">
-        <v>17.034730538922155</v>
+        <v>1.3627784431137724</v>
       </c>
       <c r="CE11">
-        <v>10.234251497005985</v>
+        <v>0.81874011976047889</v>
       </c>
       <c r="CF11">
-        <v>10.098582202111615</v>
+        <v>0.80788657616892923</v>
       </c>
       <c r="CG11">
-        <v>22.756930693069304</v>
+        <v>1.8205544554455444</v>
       </c>
       <c r="CH11">
-        <v>8.7302211302211301</v>
+        <v>0.69841769041769042</v>
       </c>
       <c r="CI11">
-        <v>19.947420147420146</v>
+        <v>1.5957936117936118</v>
       </c>
       <c r="CJ11">
-        <v>-3.0958230958231268E-2</v>
+        <v>-2.4766584766585014E-3</v>
       </c>
       <c r="CK11">
         <v>348.9751552795031</v>
@@ -6827,40 +6834,43 @@
         <v>1.7197875166002659</v>
       </c>
       <c r="EK11">
-        <v>1.8144275467947257</v>
+        <v>1.8144275467947268</v>
       </c>
       <c r="EL11">
-        <v>-8.6451602953616674E-2</v>
+        <v>-8.6451602953616272E-2</v>
       </c>
       <c r="EM11">
-        <v>-3.249826963029253E-2</v>
+        <v>-3.2498269630292516E-2</v>
       </c>
       <c r="EN11">
-        <v>0.31407354250964625</v>
+        <v>0.31407354250964603</v>
       </c>
       <c r="EO11">
-        <v>-0.32963349033073369</v>
+        <v>-0.32963349033073225</v>
+      </c>
+      <c r="EP11">
+        <v>-1.5438892259263788</v>
       </c>
       <c r="EQ11">
-        <v>0.8771933031205682</v>
+        <v>0.87719330312056776</v>
       </c>
       <c r="ER11">
-        <v>0.64235296031417755</v>
+        <v>0.64235296031417777</v>
       </c>
       <c r="ES11">
-        <v>-0.16256642643638386</v>
+        <v>-0.16256642643638289</v>
       </c>
       <c r="ET11">
-        <v>1.3068578938308655</v>
+        <v>1.3068578938308648</v>
       </c>
       <c r="EU11">
-        <v>-0.42218526620498642</v>
+        <v>-0.42218526620498681</v>
       </c>
       <c r="EV11">
-        <v>1.7828262294877333</v>
+        <v>1.7828262294877308</v>
       </c>
       <c r="EW11">
-        <v>-1.3510107085296827</v>
+        <v>-1.3510107085296805</v>
       </c>
       <c r="EX11">
         <v>-0.98835666337193007</v>
@@ -6903,11 +6913,11 @@
       </c>
       <c r="FK11">
         <f t="shared" si="1"/>
-        <v>2.8027842101666556</v>
+        <v>2.8027842101666569</v>
       </c>
       <c r="FL11">
         <f t="shared" si="0"/>
-        <v>-0.72709129442184273</v>
+        <v>-0.72709129442184239</v>
       </c>
       <c r="FM11">
         <f t="shared" si="0"/>
@@ -6919,35 +6929,35 @@
       </c>
       <c r="FO11">
         <f t="shared" si="0"/>
-        <v>-1.8267648461785442</v>
+        <v>-1.8267648461785428</v>
       </c>
       <c r="FQ11">
         <f t="shared" si="0"/>
-        <v>1.0663359147149463</v>
+        <v>1.0663359147149458</v>
       </c>
       <c r="FR11">
         <f t="shared" si="0"/>
-        <v>0.34415497522843808</v>
+        <v>0.3441549752284383</v>
       </c>
       <c r="FS11">
         <f t="shared" si="0"/>
-        <v>-1.1060417732410661</v>
+        <v>-1.106041773241065</v>
       </c>
       <c r="FT11">
         <f t="shared" si="0"/>
-        <v>0.81158237237495212</v>
+        <v>0.81158237237495146</v>
       </c>
       <c r="FU11">
         <f t="shared" si="0"/>
-        <v>-1.1237091693008228</v>
+        <v>-1.1237091693008232</v>
       </c>
       <c r="FV11">
         <f t="shared" si="0"/>
-        <v>2.474263355731408</v>
+        <v>2.4742633557314058</v>
       </c>
       <c r="FW11">
         <f t="shared" si="0"/>
-        <v>-0.98115112754233313</v>
+        <v>-0.98115112754233091</v>
       </c>
     </row>
     <row r="12" spans="1:179" x14ac:dyDescent="0.35">
@@ -7172,43 +7182,43 @@
         <v>0</v>
       </c>
       <c r="BX12">
-        <v>3.3766682669227079</v>
+        <v>0.27013346135381666</v>
       </c>
       <c r="BY12">
-        <v>4.6449959967974381</v>
+        <v>0.37159967974379504</v>
       </c>
       <c r="BZ12">
-        <v>11.007166123778504</v>
+        <v>0.88057328990228034</v>
       </c>
       <c r="CA12">
-        <v>12.56026058631922</v>
+        <v>1.0048208469055377</v>
       </c>
       <c r="CB12">
-        <v>14.918834951456308</v>
+        <v>1.1935067961165047</v>
       </c>
       <c r="CC12">
-        <v>35.824480369515008</v>
+        <v>2.8659584295612008</v>
       </c>
       <c r="CD12">
-        <v>8.825868263473053</v>
+        <v>0.7060694610778443</v>
       </c>
       <c r="CE12">
-        <v>8.3228742514970051</v>
+        <v>0.66582994011976038</v>
       </c>
       <c r="CF12">
-        <v>8.4667269984917048</v>
+        <v>0.67733815987933643</v>
       </c>
       <c r="CG12">
-        <v>13.483663366336632</v>
+        <v>1.0786930693069305</v>
       </c>
       <c r="CH12">
-        <v>21.980343980343982</v>
+        <v>1.7584275184275187</v>
       </c>
       <c r="CI12">
-        <v>15.6029484029484</v>
+        <v>1.248235872235872</v>
       </c>
       <c r="CJ12">
-        <v>10.917936117936119</v>
+        <v>0.87343488943488956</v>
       </c>
       <c r="CK12">
         <v>353.72670807453409</v>
@@ -7367,43 +7377,43 @@
         <v>5.1615759185480306</v>
       </c>
       <c r="EK12">
-        <v>-0.36896693099258698</v>
+        <v>-0.36896693099258804</v>
       </c>
       <c r="EL12">
-        <v>-0.58872458577330344</v>
+        <v>-0.58872458577330256</v>
       </c>
       <c r="EM12">
-        <v>0.60510092564798068</v>
+        <v>0.6051009256479809</v>
       </c>
       <c r="EN12">
-        <v>-0.12341313638903302</v>
+        <v>-0.12341313638903192</v>
       </c>
       <c r="EO12">
-        <v>-0.26033005120237018</v>
+        <v>-0.26033005120236891</v>
       </c>
       <c r="EP12">
-        <v>3.2966793160037144</v>
+        <v>3.2966793160037158</v>
       </c>
       <c r="EQ12">
-        <v>-0.36777900637107963</v>
+        <v>-0.36777900637107902</v>
       </c>
       <c r="ER12">
-        <v>8.8187999049099811E-2</v>
+        <v>8.8187999049100047E-2</v>
       </c>
       <c r="ES12">
-        <v>-0.4204235859234452</v>
+        <v>-0.42042358592344381</v>
       </c>
       <c r="ET12">
-        <v>8.6964375446631728E-2</v>
+        <v>8.6964375446631562E-2</v>
       </c>
       <c r="EU12">
-        <v>1.213203298704032</v>
+        <v>1.2132032987040335</v>
       </c>
       <c r="EV12">
-        <v>0.99606538817291546</v>
+        <v>0.99606538817291435</v>
       </c>
       <c r="EW12">
-        <v>-6.3930692543043927E-2</v>
+        <v>-6.3930692543043025E-2</v>
       </c>
       <c r="EX12">
         <v>-0.36727916350283607</v>
@@ -7446,55 +7456,55 @@
       </c>
       <c r="FK12">
         <f t="shared" si="1"/>
-        <v>-1.6877674897509132E-3</v>
+        <v>-1.6877674897519679E-3</v>
       </c>
       <c r="FL12">
         <f t="shared" si="0"/>
-        <v>0.50177662889135299</v>
+        <v>0.50177662889135388</v>
       </c>
       <c r="FM12">
         <f t="shared" si="0"/>
-        <v>1.1099616790764464</v>
+        <v>1.1099616790764468</v>
       </c>
       <c r="FN12">
         <f t="shared" si="0"/>
-        <v>-3.0925550793460169E-2</v>
+        <v>-3.0925550793459072E-2</v>
       </c>
       <c r="FO12">
         <f t="shared" si="0"/>
-        <v>0.35116897591152452</v>
+        <v>0.35116897591152579</v>
       </c>
       <c r="FP12">
         <f t="shared" si="0"/>
-        <v>3.8480333191230152</v>
+        <v>3.848033319123016</v>
       </c>
       <c r="FQ12">
         <f t="shared" si="0"/>
-        <v>-0.11155133056588284</v>
+        <v>-0.11155133056588223</v>
       </c>
       <c r="FR12">
         <f t="shared" si="0"/>
-        <v>-0.32209432715119701</v>
+        <v>-0.32209432715119679</v>
       </c>
       <c r="FS12">
         <f t="shared" si="0"/>
-        <v>-1.7000395175529861</v>
+        <v>-1.7000395175529848</v>
       </c>
       <c r="FT12">
         <f t="shared" si="0"/>
-        <v>-1.0363170967238033</v>
+        <v>-1.0363170967238036</v>
       </c>
       <c r="FU12">
         <f t="shared" si="0"/>
-        <v>0.25246528478685826</v>
+        <v>0.25246528478685981</v>
       </c>
       <c r="FV12">
         <f t="shared" si="0"/>
-        <v>1.8289828689523935</v>
+        <v>1.8289828689523924</v>
       </c>
       <c r="FW12">
         <f t="shared" si="0"/>
-        <v>-0.61773479059422542</v>
+        <v>-0.61773479059422454</v>
       </c>
     </row>
     <row r="13" spans="1:179" x14ac:dyDescent="0.35">
@@ -7706,43 +7716,43 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="BX13">
-        <v>3.7638022083533365</v>
+        <v>0.30110417666826694</v>
       </c>
       <c r="BY13">
-        <v>0.24211369095276214</v>
+        <v>1.9369095276220973E-2</v>
       </c>
       <c r="BZ13">
-        <v>5.0136807817589579</v>
+        <v>0.40109446254071662</v>
       </c>
       <c r="CA13">
-        <v>14.175895765472314</v>
+        <v>1.134071661237785</v>
       </c>
       <c r="CB13">
-        <v>12.015533980582523</v>
+        <v>0.96124271844660192</v>
       </c>
       <c r="CC13">
-        <v>6.5527328714395692</v>
+        <v>0.52421862971516553</v>
       </c>
       <c r="CD13">
-        <v>11.240239520958081</v>
+        <v>0.89921916167664651</v>
       </c>
       <c r="CE13">
-        <v>9.0270658682634703</v>
+        <v>0.72216526946107762</v>
       </c>
       <c r="CF13">
-        <v>13.301478129713423</v>
+        <v>1.0641182503770739</v>
       </c>
       <c r="CG13">
-        <v>17.714851485148515</v>
+        <v>1.4171881188118811</v>
       </c>
       <c r="CH13">
-        <v>8.5651105651105652</v>
+        <v>0.68520884520884529</v>
       </c>
       <c r="CI13">
-        <v>8.843734643734642</v>
+        <v>0.70749877149877138</v>
       </c>
       <c r="CJ13">
-        <v>5.0461916461916445</v>
+        <v>0.40369533169533156</v>
       </c>
       <c r="CK13">
         <v>352.14285714285717</v>
@@ -7889,43 +7899,43 @@
         <v>2.9083665338645419</v>
       </c>
       <c r="EK13">
-        <v>-0.17956403653392872</v>
+        <v>-0.17956403653392961</v>
       </c>
       <c r="EL13">
-        <v>-1.714825200222921</v>
+        <v>-1.7148252002229185</v>
       </c>
       <c r="EM13">
-        <v>-0.76800595556927342</v>
+        <v>-0.76800595556927331</v>
       </c>
       <c r="EN13">
-        <v>0.22976621376354658</v>
+        <v>0.22976621376354639</v>
       </c>
       <c r="EO13">
-        <v>-0.80456588200451995</v>
+        <v>-0.80456588200451629</v>
       </c>
       <c r="EP13">
-        <v>-0.65849040718585516</v>
+        <v>-0.65849040718585605</v>
       </c>
       <c r="EQ13">
-        <v>-1.6106800500070388E-3</v>
+        <v>-1.6106800500067429E-3</v>
       </c>
       <c r="ER13">
-        <v>0.29235403740991761</v>
+        <v>0.29235403740991778</v>
       </c>
       <c r="ES13">
-        <v>0.34353830895436965</v>
+        <v>0.34353830895436976</v>
       </c>
       <c r="ET13">
-        <v>0.64357498305020044</v>
+        <v>0.6435749830502</v>
       </c>
       <c r="EU13">
-        <v>-0.44256393991101778</v>
+        <v>-0.44256393991101806</v>
       </c>
       <c r="EV13">
-        <v>-0.22799245282757197</v>
+        <v>-0.22799245282757083</v>
       </c>
       <c r="EW13">
-        <v>-0.75417435804388988</v>
+        <v>-0.75417435804388855</v>
       </c>
       <c r="EX13">
         <v>-0.57430499679252422</v>
@@ -7965,31 +7975,31 @@
       </c>
       <c r="FK13">
         <f t="shared" si="1"/>
-        <v>0.39474096025859551</v>
+        <v>0.39474096025859462</v>
       </c>
       <c r="FM13">
         <f t="shared" si="0"/>
-        <v>-0.26314520214080761</v>
+        <v>-0.2631452021408075</v>
       </c>
       <c r="FN13">
         <f t="shared" si="0"/>
-        <v>0.28261104909643842</v>
+        <v>0.28261104909643825</v>
       </c>
       <c r="FO13">
         <f t="shared" si="0"/>
-        <v>-0.15328137596681723</v>
+        <v>-0.15328137596681357</v>
       </c>
       <c r="FP13">
         <f t="shared" si="0"/>
-        <v>-5.1282086799701365E-2</v>
+        <v>-5.1282086799702253E-2</v>
       </c>
       <c r="FQ13">
         <f t="shared" si="0"/>
-        <v>-0.75165896740707261</v>
+        <v>-0.75165896740707228</v>
       </c>
       <c r="FR13">
         <f t="shared" si="0"/>
-        <v>-0.28605480046222942</v>
+        <v>-0.28605480046222925</v>
       </c>
       <c r="FS13">
         <f t="shared" si="0"/>
@@ -7997,19 +8007,19 @@
       </c>
       <c r="FT13">
         <f t="shared" si="0"/>
-        <v>3.1313277274882632</v>
+        <v>3.1313277274882627</v>
       </c>
       <c r="FU13">
         <f t="shared" si="0"/>
-        <v>-0.25535374876227507</v>
+        <v>-0.25535374876227535</v>
       </c>
       <c r="FV13">
         <f t="shared" si="0"/>
-        <v>-1.0928392264777407</v>
+        <v>-1.0928392264777393</v>
       </c>
       <c r="FW13">
         <f t="shared" si="0"/>
-        <v>-1.6774439277104765</v>
+        <v>-1.6774439277104751</v>
       </c>
     </row>
     <row r="14" spans="1:179" x14ac:dyDescent="0.35">
@@ -8239,43 +8249,43 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="BX14">
-        <v>2.8604896783485354</v>
+        <v>0.22883917426788283</v>
       </c>
       <c r="BY14">
-        <v>4.1787029623698952</v>
+        <v>0.3342962369895916</v>
       </c>
       <c r="BZ14">
-        <v>6.97328990228013</v>
+        <v>0.55786319218241043</v>
       </c>
       <c r="CA14">
-        <v>6.9837133550488595</v>
+        <v>0.55869706840390876</v>
       </c>
       <c r="CB14">
-        <v>18.528932038834949</v>
+        <v>1.482314563106796</v>
       </c>
       <c r="CC14">
-        <v>5.4060046189376454</v>
+        <v>0.43248036951501162</v>
       </c>
       <c r="CD14">
-        <v>11.552095808383232</v>
+        <v>0.92416766467065858</v>
       </c>
       <c r="CE14">
-        <v>9.2383233532934117</v>
+        <v>0.73906586826347298</v>
       </c>
       <c r="CF14">
-        <v>6.0848265460030175</v>
+        <v>0.48678612368024143</v>
       </c>
       <c r="CG14">
-        <v>6.9861386138613852</v>
+        <v>0.55889108910891083</v>
       </c>
       <c r="CH14">
-        <v>6.7179361179361177</v>
+        <v>0.53743488943488937</v>
       </c>
       <c r="CI14">
-        <v>13.415233415233416</v>
+        <v>1.0732186732186733</v>
       </c>
       <c r="CJ14">
-        <v>14.096314496314495</v>
+        <v>1.1277051597051597</v>
       </c>
       <c r="CK14">
         <v>343.16770186335407</v>
@@ -8434,43 +8444,43 @@
         <v>1.4718902169101375</v>
       </c>
       <c r="EK14">
-        <v>-0.62150412360413188</v>
+        <v>-0.62150412360413343</v>
       </c>
       <c r="EL14">
-        <v>-0.70798575064373159</v>
+        <v>-0.70798575064373048</v>
       </c>
       <c r="EM14">
-        <v>-0.31905970571041498</v>
+        <v>-0.31905970571041475</v>
       </c>
       <c r="EN14">
-        <v>-1.3424515385285833</v>
+        <v>-1.34245153852858</v>
       </c>
       <c r="EO14">
-        <v>0.41639764852165162</v>
+        <v>0.41639764852165007</v>
       </c>
       <c r="EP14">
-        <v>-0.81343520046544637</v>
+        <v>-0.81343520046544737</v>
       </c>
       <c r="EQ14">
-        <v>4.5686062099798398E-2</v>
+        <v>4.5686062099798662E-2</v>
       </c>
       <c r="ER14">
-        <v>0.35360384891816343</v>
+        <v>0.35360384891816377</v>
       </c>
       <c r="ES14">
-        <v>-0.79679894293872089</v>
+        <v>-0.796798942938719</v>
       </c>
       <c r="ET14">
-        <v>-0.76778164360061718</v>
+        <v>-0.76778164360061696</v>
       </c>
       <c r="EU14">
-        <v>-0.67055035199724389</v>
+        <v>-0.67055035199724455</v>
       </c>
       <c r="EV14">
-        <v>0.59988178162008665</v>
+        <v>0.59988178162008621</v>
       </c>
       <c r="EW14">
-        <v>0.30969856751716757</v>
+        <v>0.30969856751716823</v>
       </c>
       <c r="EX14">
         <v>-1.747451385434162</v>
@@ -8513,55 +8523,55 @@
       </c>
       <c r="FK14">
         <f t="shared" si="1"/>
-        <v>1.1259472618300301</v>
+        <v>1.1259472618300286</v>
       </c>
       <c r="FL14">
         <f t="shared" si="0"/>
-        <v>-0.21672561887123953</v>
+        <v>-0.21672561887123842</v>
       </c>
       <c r="FM14">
         <f t="shared" si="0"/>
-        <v>-0.4005900137174796</v>
+        <v>-0.40059001371747938</v>
       </c>
       <c r="FN14">
         <f t="shared" si="0"/>
-        <v>-1.5671059550344411</v>
+        <v>-1.5671059550344379</v>
       </c>
       <c r="FO14">
         <f t="shared" si="0"/>
-        <v>0.63004188639748304</v>
+        <v>0.63004188639748149</v>
       </c>
       <c r="FP14">
         <f t="shared" si="0"/>
-        <v>-0.93233300454835488</v>
+        <v>-0.93233300454835588</v>
       </c>
       <c r="FQ14">
         <f t="shared" si="0"/>
-        <v>-1.1404151426275819</v>
+        <v>-1.1404151426275815</v>
       </c>
       <c r="FR14">
         <f t="shared" si="0"/>
-        <v>-0.56105801229767704</v>
+        <v>-0.56105801229767671</v>
       </c>
       <c r="FS14">
         <f t="shared" si="0"/>
-        <v>-0.67582910446465039</v>
+        <v>-0.6758291044646485</v>
       </c>
       <c r="FT14">
         <f t="shared" si="0"/>
-        <v>-0.1640467513061149</v>
+        <v>-0.16404675130611468</v>
       </c>
       <c r="FU14">
         <f t="shared" si="0"/>
-        <v>-0.63146250988926744</v>
+        <v>-0.63146250988926811</v>
       </c>
       <c r="FV14">
         <f t="shared" si="0"/>
-        <v>0.15947607157733573</v>
+        <v>0.15947607157733529</v>
       </c>
       <c r="FW14">
         <f t="shared" si="0"/>
-        <v>-0.1517391626301613</v>
+        <v>-0.15173916263016063</v>
       </c>
     </row>
     <row r="15" spans="1:179" x14ac:dyDescent="0.35">
@@ -8785,43 +8795,43 @@
         <v>3</v>
       </c>
       <c r="BX15">
-        <v>5.290830532885261</v>
+        <v>0.42326644263082086</v>
       </c>
       <c r="BY15">
-        <v>7.0123298638911127</v>
+        <v>0.56098638911128906</v>
       </c>
       <c r="BZ15">
-        <v>7.1713355048859935</v>
+        <v>0.57370684039087949</v>
       </c>
       <c r="CA15">
-        <v>17.011074918566777</v>
+        <v>1.3608859934853421</v>
       </c>
       <c r="CB15">
-        <v>14.679611650485437</v>
+        <v>1.1743689320388351</v>
       </c>
       <c r="CC15">
-        <v>4.8541955350269443</v>
+        <v>0.38833564280215555</v>
       </c>
       <c r="CD15">
-        <v>6.9949700598802398</v>
+        <v>0.5595976047904192</v>
       </c>
       <c r="CE15">
-        <v>5.8481437125748492</v>
+        <v>0.46785149700598794</v>
       </c>
       <c r="CF15">
-        <v>9.460030165912519</v>
+        <v>0.75680241327300157</v>
       </c>
       <c r="CG15">
-        <v>8.3272277227722746</v>
+        <v>0.66617821782178199</v>
       </c>
       <c r="CH15">
-        <v>11.248157248157248</v>
+        <v>0.89985257985257994</v>
       </c>
       <c r="CI15">
-        <v>7.8737100737100727</v>
+        <v>0.62989680589680586</v>
       </c>
       <c r="CJ15">
-        <v>9.3390663390663384</v>
+        <v>0.74712530712530711</v>
       </c>
       <c r="CK15">
         <v>356.89440993788816</v>
@@ -8971,43 +8981,43 @@
         <v>0.24347056219566182</v>
       </c>
       <c r="EK15">
-        <v>0.56752515827522376</v>
+        <v>0.56752515827522332</v>
       </c>
       <c r="EL15">
-        <v>1.6755174338099716E-2</v>
+        <v>1.6755174338100032E-2</v>
       </c>
       <c r="EM15">
-        <v>-0.27368747833106216</v>
+        <v>-0.273687478331062</v>
       </c>
       <c r="EN15">
-        <v>0.84953900887000944</v>
+        <v>0.84953900887000799</v>
       </c>
       <c r="EO15">
-        <v>-0.30517345299131077</v>
+        <v>-0.30517345299130921</v>
       </c>
       <c r="EP15">
-        <v>-0.88799510099096413</v>
+        <v>-0.88799510099096524</v>
       </c>
       <c r="EQ15">
-        <v>-0.64545665383122641</v>
+        <v>-0.64545665383122564</v>
       </c>
       <c r="ER15">
-        <v>-0.62930979290463307</v>
+        <v>-0.62930979290463229</v>
       </c>
       <c r="ES15">
-        <v>-0.2634670540617558</v>
+        <v>-0.26346705406175464</v>
       </c>
       <c r="ET15">
-        <v>-0.59136206526926527</v>
+        <v>-0.59136206526926505</v>
       </c>
       <c r="EU15">
-        <v>-0.11141049218800782</v>
+        <v>-0.1114104921880078</v>
       </c>
       <c r="EV15">
-        <v>-0.40365876894061892</v>
+        <v>-0.40365876894061742</v>
       </c>
       <c r="EW15">
-        <v>-0.24953224055996745</v>
+        <v>-0.24953224055996642</v>
       </c>
       <c r="EX15">
         <v>4.6772503076569841E-2</v>
@@ -9050,43 +9060,43 @@
       </c>
       <c r="FK15">
         <f t="shared" si="1"/>
-        <v>0.52075265519865388</v>
+        <v>0.52075265519865344</v>
       </c>
       <c r="FL15">
         <f t="shared" si="0"/>
-        <v>0.44143296356702849</v>
+        <v>0.44143296356702882</v>
       </c>
       <c r="FM15">
         <f t="shared" si="0"/>
-        <v>-0.24860122971348772</v>
+        <v>-0.24860122971348755</v>
       </c>
       <c r="FN15">
         <f t="shared" si="0"/>
-        <v>1.0213120949909442</v>
+        <v>1.0213120949909429</v>
       </c>
       <c r="FO15">
         <f t="shared" si="0"/>
-        <v>0.66439488443683903</v>
+        <v>0.66439488443684058</v>
       </c>
       <c r="FP15">
         <f t="shared" si="0"/>
-        <v>-0.39249541513851693</v>
+        <v>-0.39249541513851804</v>
       </c>
       <c r="FQ15">
         <f t="shared" si="0"/>
-        <v>-0.89236695960716306</v>
+        <v>-0.89236695960716228</v>
       </c>
       <c r="FR15">
         <f t="shared" si="0"/>
-        <v>-1.2637608013340587</v>
+        <v>-1.263760801334058</v>
       </c>
       <c r="FS15">
         <f t="shared" si="0"/>
-        <v>2.1544634473822279</v>
+        <v>2.1544634473822293</v>
       </c>
       <c r="FT15">
         <f t="shared" si="0"/>
-        <v>-0.92963609904654576</v>
+        <v>-0.92963609904654554</v>
       </c>
       <c r="FU15">
         <f t="shared" si="0"/>
@@ -9094,11 +9104,11 @@
       </c>
       <c r="FV15">
         <f t="shared" si="0"/>
-        <v>-0.20740288357226333</v>
+        <v>-0.20740288357226183</v>
       </c>
       <c r="FW15">
         <f t="shared" si="0"/>
-        <v>-1.0468597367484613</v>
+        <v>-1.0468597367484604</v>
       </c>
     </row>
     <row r="16" spans="1:179" x14ac:dyDescent="0.35">
@@ -9322,43 +9332,43 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="BX16">
-        <v>3.1723475756120978</v>
+        <v>0.25378780604896783</v>
       </c>
       <c r="BY16">
-        <v>21.171497197758207</v>
+        <v>1.6937197758206566</v>
       </c>
       <c r="BZ16">
-        <v>6.806514657980455</v>
+        <v>0.54452117263843636</v>
       </c>
       <c r="CA16">
-        <v>13.71726384364821</v>
+        <v>1.0973811074918569</v>
       </c>
       <c r="CB16">
-        <v>16.636893203883496</v>
+        <v>1.3309514563106797</v>
       </c>
       <c r="CC16">
-        <v>8.234026173979986</v>
+        <v>0.65872209391839887</v>
       </c>
       <c r="CD16">
-        <v>8.5944910179640708</v>
+        <v>0.68755928143712564</v>
       </c>
       <c r="CE16">
-        <v>7.1896229260935147</v>
+        <v>0.57516983408748124</v>
       </c>
       <c r="CF16">
-        <v>20.32555052790347</v>
+        <v>1.6260440422322777</v>
       </c>
       <c r="CG16">
-        <v>6.6638613861386116</v>
+        <v>0.53310891089108892</v>
       </c>
       <c r="CH16">
-        <v>5.6653562653562632</v>
+        <v>0.45322850122850106</v>
       </c>
       <c r="CI16">
-        <v>3.9626535626535611</v>
+        <v>0.3170122850122849</v>
       </c>
       <c r="CJ16">
-        <v>5.6153987167736013</v>
+        <v>0.44923189734188812</v>
       </c>
       <c r="CK16">
         <v>363.22981366459618</v>
@@ -9508,43 +9518,43 @@
         <v>0.6640106241699868</v>
       </c>
       <c r="EK16">
-        <v>-0.46892956973465694</v>
+        <v>-0.46892956973465821</v>
       </c>
       <c r="EL16">
-        <v>3.6381663153074397</v>
+        <v>3.6381663153074357</v>
       </c>
       <c r="EM16">
         <v>-0.3572678971877648</v>
       </c>
       <c r="EN16">
-        <v>0.12950884984926597</v>
+        <v>0.1295088498492665</v>
       </c>
       <c r="EO16">
-        <v>6.1727107100026317E-2</v>
+        <v>6.1727107100026171E-2</v>
       </c>
       <c r="EP16">
-        <v>-0.43131571027216831</v>
+        <v>-0.43131571027216908</v>
       </c>
       <c r="EQ16">
-        <v>-0.40287013764351581</v>
+        <v>-0.40287013764351531</v>
       </c>
       <c r="ER16">
-        <v>-0.2403751761803882</v>
+        <v>-0.24037517618038745</v>
       </c>
       <c r="ES16">
-        <v>1.4534452128334596</v>
+        <v>1.4534452128334583</v>
       </c>
       <c r="ET16">
-        <v>-0.81017704614536101</v>
+        <v>-0.81017704614536079</v>
       </c>
       <c r="EU16">
-        <v>-0.80046439687319426</v>
+        <v>-0.80046439687319482</v>
       </c>
       <c r="EV16">
-        <v>-1.1119304051836494</v>
+        <v>-1.1119304051836467</v>
       </c>
       <c r="EW16">
-        <v>-0.68726211812641236</v>
+        <v>-0.68726211812641103</v>
       </c>
       <c r="EX16">
         <v>0.8748758362353668</v>
@@ -9587,11 +9597,11 @@
       </c>
       <c r="FK16">
         <f t="shared" si="1"/>
-        <v>-1.3438054059700237</v>
+        <v>-1.3438054059700251</v>
       </c>
       <c r="FL16">
         <f t="shared" si="0"/>
-        <v>1.0000563475320541</v>
+        <v>1.0000563475320501</v>
       </c>
       <c r="FM16">
         <f t="shared" si="0"/>
@@ -9599,27 +9609,27 @@
       </c>
       <c r="FN16">
         <f t="shared" si="0"/>
-        <v>1.0148514406984199</v>
+        <v>1.0148514406984204</v>
       </c>
       <c r="FO16">
         <f t="shared" si="0"/>
-        <v>-0.59990919134786291</v>
+        <v>-0.59990919134786302</v>
       </c>
       <c r="FP16">
         <f t="shared" si="0"/>
-        <v>-1.0529023697567335</v>
+        <v>-1.0529023697567341</v>
       </c>
       <c r="FQ16">
         <f t="shared" si="0"/>
-        <v>-0.85103563605190857</v>
+        <v>-0.85103563605190802</v>
       </c>
       <c r="FR16">
         <f t="shared" si="0"/>
-        <v>-0.48253099070884897</v>
+        <v>-0.48253099070884825</v>
       </c>
       <c r="FS16">
         <f t="shared" si="0"/>
-        <v>0.95815731246193914</v>
+        <v>0.9581573124619378</v>
       </c>
       <c r="FT16">
         <f t="shared" si="0"/>
@@ -9627,15 +9637,15 @@
       </c>
       <c r="FU16">
         <f t="shared" si="0"/>
-        <v>-0.65028479298465125</v>
+        <v>-0.6502847929846518</v>
       </c>
       <c r="FV16">
         <f t="shared" si="0"/>
-        <v>-2.0475173561017117</v>
+        <v>-2.047517356101709</v>
       </c>
       <c r="FW16">
         <f t="shared" si="0"/>
-        <v>-1.7529298383114429</v>
+        <v>-1.7529298383114416</v>
       </c>
     </row>
     <row r="17" spans="1:179" x14ac:dyDescent="0.35">
@@ -9865,43 +9875,43 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="BX17">
-        <v>3.011041766682669</v>
+        <v>0.24088334133461353</v>
       </c>
       <c r="BY17">
-        <v>4.9588470776621296</v>
+        <v>0.39670776621297038</v>
       </c>
       <c r="BZ17">
-        <v>4.3778501628664497</v>
+        <v>0.350228013029316</v>
       </c>
       <c r="CA17">
-        <v>8.5141747572815536</v>
+        <v>0.68113398058252428</v>
       </c>
       <c r="CB17">
-        <v>14.473009708737864</v>
+        <v>1.1578407766990291</v>
       </c>
       <c r="CC17">
-        <v>7.208006158583526</v>
+        <v>0.57664049268668205</v>
       </c>
       <c r="CD17">
-        <v>9.9626347305389196</v>
+        <v>0.79701077844311363</v>
       </c>
       <c r="CE17">
-        <v>21.440482654600302</v>
+        <v>1.7152386123680241</v>
       </c>
       <c r="CF17">
-        <v>7.9092609351432888</v>
+        <v>0.63274087481146313</v>
       </c>
       <c r="CG17">
-        <v>23.650990099009899</v>
+        <v>1.892079207920792</v>
       </c>
       <c r="CH17">
-        <v>6.552825552825551</v>
+        <v>0.52422604422604413</v>
       </c>
       <c r="CI17">
-        <v>5.7479115479115466</v>
+        <v>0.45983292383292373</v>
       </c>
       <c r="CJ17">
-        <v>6.313473877176901</v>
+        <v>0.50507791017415204</v>
       </c>
       <c r="CK17">
         <v>359.53416149068323</v>
@@ -10060,43 +10070,43 @@
         <v>1.2881806108897744</v>
       </c>
       <c r="EK17">
-        <v>-0.54784744242576466</v>
+        <v>-0.547847442425766</v>
       </c>
       <c r="EL17">
-        <v>-0.50845264787974631</v>
+        <v>-0.50845264787974542</v>
       </c>
       <c r="EM17">
-        <v>-0.91367468557666909</v>
+        <v>-0.91367468557666887</v>
       </c>
       <c r="EN17">
-        <v>-1.0078912550879306</v>
+        <v>-1.007891255087928</v>
       </c>
       <c r="EO17">
-        <v>-0.34390184544539643</v>
+        <v>-0.34390184544539504</v>
       </c>
       <c r="EP17">
-        <v>-0.5699505253118029</v>
+        <v>-0.56995052531180379</v>
       </c>
       <c r="EQ17">
-        <v>-0.1953747527282414</v>
+        <v>-0.1953747527282409</v>
       </c>
       <c r="ER17">
-        <v>3.8913717869048829</v>
+        <v>3.8913717869048803</v>
       </c>
       <c r="ES17">
-        <v>-0.50851143543765864</v>
+        <v>-0.5085114354376572</v>
       </c>
       <c r="ET17">
-        <v>1.4244709460517671</v>
+        <v>1.4244709460517664</v>
       </c>
       <c r="EU17">
-        <v>-0.69092902570327552</v>
+        <v>-0.69092902570327608</v>
       </c>
       <c r="EV17">
-        <v>-0.78862963191176472</v>
+        <v>-0.78862963191176261</v>
       </c>
       <c r="EW17">
-        <v>-0.60520099305011776</v>
+        <v>-0.60520099305011654</v>
       </c>
       <c r="EX17">
         <v>0.39181555855941058</v>
@@ -10136,51 +10146,51 @@
       </c>
       <c r="FK17">
         <f t="shared" si="1"/>
-        <v>-0.93966300098517519</v>
+        <v>-0.93966300098517652</v>
       </c>
       <c r="FL17">
         <f t="shared" si="0"/>
-        <v>-1.4154217095222612</v>
+        <v>-1.4154217095222603</v>
       </c>
       <c r="FM17">
         <f t="shared" si="0"/>
-        <v>-1.1551298285207001</v>
+        <v>-1.1551298285206999</v>
       </c>
       <c r="FN17">
         <f t="shared" si="0"/>
-        <v>0.51173533996408027</v>
+        <v>0.51173533996408294</v>
       </c>
       <c r="FO17">
         <f t="shared" si="0"/>
-        <v>-1.5227493699027599</v>
+        <v>-1.5227493699027586</v>
       </c>
       <c r="FP17">
         <f t="shared" si="0"/>
-        <v>-0.85641128119526355</v>
+        <v>-0.85641128119526444</v>
       </c>
       <c r="FQ17">
         <f t="shared" si="0"/>
-        <v>-0.57645518692580633</v>
+        <v>-0.57645518692580588</v>
       </c>
       <c r="FR17">
         <f t="shared" si="0"/>
-        <v>4.377764189621109</v>
+        <v>4.3777641896211064</v>
       </c>
       <c r="FS17">
         <f t="shared" si="0"/>
-        <v>-0.55561188937602468</v>
+        <v>-0.55561188937602324</v>
       </c>
       <c r="FU17">
         <f t="shared" si="0"/>
-        <v>-1.910881150441782</v>
+        <v>-1.9108811504417826</v>
       </c>
       <c r="FV17">
         <f t="shared" si="0"/>
-        <v>-2.6438388873125556</v>
+        <v>-2.6438388873125538</v>
       </c>
       <c r="FW17">
         <f t="shared" si="0"/>
-        <v>-1.4472518599047028</v>
+        <v>-1.4472518599047017</v>
       </c>
     </row>
     <row r="18" spans="1:179" x14ac:dyDescent="0.35">
@@ -10404,43 +10414,43 @@
         <v>3</v>
       </c>
       <c r="BX18">
-        <v>8.1835813730196829</v>
+        <v>0.65468650984157462</v>
       </c>
       <c r="BY18">
-        <v>5.7300240192153717</v>
+        <v>0.45840192153722975</v>
       </c>
       <c r="BZ18">
-        <v>5.388925081433225</v>
+        <v>0.43111400651465803</v>
       </c>
       <c r="CA18">
-        <v>6.121941747572814</v>
+        <v>0.48975533980582514</v>
       </c>
       <c r="CB18">
-        <v>8.2858252427184453</v>
+        <v>0.66286601941747569</v>
       </c>
       <c r="CC18">
-        <v>7.5873749037721341</v>
+        <v>0.60698999230177075</v>
       </c>
       <c r="CD18">
-        <v>5.1540119760479035</v>
+        <v>0.41232095808383229</v>
       </c>
       <c r="CE18">
-        <v>7.5849170437405737</v>
+        <v>0.60679336349924595</v>
       </c>
       <c r="CF18">
-        <v>9.2877224736048269</v>
+        <v>0.74301779788838618</v>
       </c>
       <c r="CG18">
-        <v>5.1876237623762362</v>
+        <v>0.41500990099009893</v>
       </c>
       <c r="CH18">
-        <v>5.1906633906633903</v>
+        <v>0.41525307125307126</v>
       </c>
       <c r="CI18">
-        <v>22.774938574938574</v>
+        <v>1.821995085995086</v>
       </c>
       <c r="CJ18">
-        <v>14.844362969752517</v>
+        <v>1.1875490375802014</v>
       </c>
       <c r="CK18">
         <v>353.72670807453409</v>
@@ -10599,43 +10609,43 @@
         <v>6.713147410358566</v>
       </c>
       <c r="EK18">
-        <v>1.9827856752024218</v>
+        <v>1.9827856752024229</v>
       </c>
       <c r="EL18">
-        <v>-0.31121302905557718</v>
+        <v>-0.31121302905557652</v>
       </c>
       <c r="EM18">
-        <v>-0.68203752474523671</v>
+        <v>-0.68203752474523649</v>
       </c>
       <c r="EN18">
-        <v>-1.5308356120097497</v>
+        <v>-1.5308356120097457</v>
       </c>
       <c r="EO18">
-        <v>-1.5037152826230122</v>
+        <v>-1.5037152826230056</v>
       </c>
       <c r="EP18">
-        <v>-0.51869059370050929</v>
+        <v>-0.51869059370051007</v>
       </c>
       <c r="EQ18">
-        <v>-0.92466000265104464</v>
+        <v>-0.92466000265104364</v>
       </c>
       <c r="ER18">
-        <v>-0.12576768573918931</v>
+        <v>-0.12576768573918864</v>
       </c>
       <c r="ES18">
-        <v>-0.29069420754796721</v>
+        <v>-0.29069420754796604</v>
       </c>
       <c r="ET18">
-        <v>-1.0043753416728958</v>
+        <v>-1.0043753416728955</v>
       </c>
       <c r="EU18">
-        <v>-0.85905308377803424</v>
+        <v>-0.8590530837780348</v>
       </c>
       <c r="EV18">
-        <v>2.2948748530512959</v>
+        <v>2.2948748530512928</v>
       </c>
       <c r="EW18">
-        <v>0.39763422663224668</v>
+        <v>0.39763422663224712</v>
       </c>
       <c r="EX18">
         <v>-0.36727916350283607</v>
@@ -10675,51 +10685,51 @@
       </c>
       <c r="FK18">
         <f t="shared" si="1"/>
-        <v>2.3500648387052578</v>
+        <v>2.3500648387052587</v>
       </c>
       <c r="FL18">
         <f t="shared" ref="FL18:FL37" si="2">EL18-EY18</f>
-        <v>-1.4179291183287936</v>
+        <v>-1.417929118328793</v>
       </c>
       <c r="FM18">
         <f t="shared" ref="FM18:FM36" si="3">EM18-EZ18</f>
-        <v>-0.55033471950301549</v>
+        <v>-0.55033471950301527</v>
       </c>
       <c r="FN18">
         <f t="shared" ref="FN18:FN36" si="4">EN18-FA18</f>
-        <v>-0.4472792698472039</v>
+        <v>-0.4472792698471999</v>
       </c>
       <c r="FP18">
         <f t="shared" ref="FP18:FP37" si="5">EP18-FC18</f>
-        <v>-0.91685998411767655</v>
+        <v>-0.91685998411767744</v>
       </c>
       <c r="FQ18">
         <f t="shared" ref="FQ18:FQ37" si="6">EQ18-FD18</f>
-        <v>-0.73551739105666658</v>
+        <v>-0.73551739105666558</v>
       </c>
       <c r="FR18">
         <f t="shared" ref="FR18:FR37" si="7">ER18-FE18</f>
-        <v>-0.14375481803851409</v>
+        <v>-0.14375481803851342</v>
       </c>
       <c r="FS18">
         <f t="shared" ref="FS18:FS36" si="8">ES18-FF18</f>
-        <v>-0.95405240033192418</v>
+        <v>-0.95405240033192307</v>
       </c>
       <c r="FT18">
         <f t="shared" ref="FT18:FT37" si="9">ET18-FG18</f>
-        <v>-1.7613200092598591</v>
+        <v>-1.7613200092598587</v>
       </c>
       <c r="FU18">
         <f t="shared" ref="FU18:FU37" si="10">EU18-FH18</f>
-        <v>-1.1902711142719664</v>
+        <v>-1.1902711142719671</v>
       </c>
       <c r="FV18">
         <f t="shared" ref="FV18:FV37" si="11">EV18-FI18</f>
-        <v>2.6326110929554547</v>
+        <v>2.6326110929554516</v>
       </c>
       <c r="FW18">
         <f t="shared" ref="FW18:FW36" si="12">EW18-FJ18</f>
-        <v>0.94200785042643975</v>
+        <v>0.9420078504264402</v>
       </c>
     </row>
     <row r="19" spans="1:179" x14ac:dyDescent="0.35">
@@ -10934,43 +10944,43 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="BX19">
-        <v>2.3658185309649546</v>
+        <v>0.18926548247719638</v>
       </c>
       <c r="BY19">
-        <v>11.334507606084868</v>
+        <v>0.90676060848678941</v>
       </c>
       <c r="BZ19">
-        <v>16.573289902280131</v>
+        <v>1.3258631921824104</v>
       </c>
       <c r="CA19">
-        <v>6.1001941747572808</v>
+        <v>0.48801553398058245</v>
       </c>
       <c r="CB19">
-        <v>15.49514563106796</v>
+        <v>1.2396116504854369</v>
       </c>
       <c r="CC19">
-        <v>5.7508852963818331</v>
+        <v>0.46007082371054664</v>
       </c>
       <c r="CD19">
-        <v>6.8440718562874245</v>
+        <v>0.54752574850299396</v>
       </c>
       <c r="CE19">
-        <v>6.4801206636500757</v>
+        <v>0.51840965309200604</v>
       </c>
       <c r="CF19">
-        <v>5.5577677224736046</v>
+        <v>0.44462141779788839</v>
       </c>
       <c r="CG19">
-        <v>12.121782178217821</v>
+        <v>0.96974257425742572</v>
       </c>
       <c r="CH19">
-        <v>8.1420147420147408</v>
+        <v>0.65136117936117932</v>
       </c>
       <c r="CI19">
-        <v>6.5115479115479102</v>
+        <v>0.52092383292383282</v>
       </c>
       <c r="CJ19">
-        <v>9.0749770852428959</v>
+        <v>0.72599816681943163</v>
       </c>
       <c r="CK19">
         <v>352.67080745341616</v>
@@ -11129,43 +11139,43 @@
         <v>5.1018149623727318</v>
       </c>
       <c r="EK19">
-        <v>-0.86351893319019513</v>
+        <v>-0.8635189331901969</v>
       </c>
       <c r="EL19">
-        <v>1.122214433329374</v>
+        <v>1.1222144333293727</v>
       </c>
       <c r="EM19">
         <v>1.8802993162045254</v>
       </c>
       <c r="EN19">
-        <v>-1.5355896516181295</v>
+        <v>-1.5355896516181258</v>
       </c>
       <c r="EO19">
-        <v>-0.15229821961992071</v>
+        <v>-0.15229821961991977</v>
       </c>
       <c r="EP19">
-        <v>-0.76683526263699786</v>
+        <v>-0.76683526263699886</v>
       </c>
       <c r="EQ19">
-        <v>-0.66834217422629361</v>
+        <v>-0.66834217422629283</v>
       </c>
       <c r="ER19">
-        <v>-0.44608092825433487</v>
+        <v>-0.44608092825433426</v>
       </c>
       <c r="ES19">
-        <v>-0.88008200066125009</v>
+        <v>-0.8800820006612482</v>
       </c>
       <c r="ET19">
-        <v>-9.2190390145671625E-2</v>
+        <v>-9.2190390145671555E-2</v>
       </c>
       <c r="EU19">
-        <v>-0.49478429128272339</v>
+        <v>-0.49478429128272372</v>
       </c>
       <c r="EV19">
-        <v>-0.65033912773766378</v>
+        <v>-0.650339127737662</v>
       </c>
       <c r="EW19">
-        <v>-0.28057683649830534</v>
+        <v>-0.28057683649830439</v>
       </c>
       <c r="EX19">
         <v>-0.50529638569595903</v>
@@ -11208,11 +11218,11 @@
       </c>
       <c r="FK19">
         <f t="shared" si="1"/>
-        <v>-0.3582225474942361</v>
+        <v>-0.35822254749423788</v>
       </c>
       <c r="FL19">
         <f t="shared" si="2"/>
-        <v>2.0129686203633286</v>
+        <v>2.0129686203633277</v>
       </c>
       <c r="FM19">
         <f t="shared" si="3"/>
@@ -11220,43 +11230,43 @@
       </c>
       <c r="FN19">
         <f t="shared" si="4"/>
-        <v>-0.2934623084048682</v>
+        <v>-0.29346230840486442</v>
       </c>
       <c r="FO19">
         <f t="shared" ref="FO19:FO37" si="13">EO19-FB19</f>
-        <v>-1.2913602651534761</v>
+        <v>-1.2913602651534752</v>
       </c>
       <c r="FP19">
         <f t="shared" si="5"/>
-        <v>-1.2208589703210109</v>
+        <v>-1.2208589703210118</v>
       </c>
       <c r="FQ19">
         <f t="shared" si="6"/>
-        <v>-1.4854755257941779</v>
+        <v>-1.4854755257941772</v>
       </c>
       <c r="FR19">
         <f t="shared" si="7"/>
-        <v>-0.80032108389735301</v>
+        <v>-0.80032108389735246</v>
       </c>
       <c r="FS19">
         <f t="shared" si="8"/>
-        <v>-1.5434401934452071</v>
+        <v>-1.5434401934452051</v>
       </c>
       <c r="FT19">
         <f t="shared" si="9"/>
-        <v>-0.11646144856569116</v>
+        <v>-0.11646144856569107</v>
       </c>
       <c r="FU19">
         <f t="shared" si="10"/>
-        <v>-0.5297576236951278</v>
+        <v>-0.52975762369512813</v>
       </c>
       <c r="FV19">
         <f t="shared" si="11"/>
-        <v>-2.9642178761898563E-2</v>
+        <v>-2.9642178761896787E-2</v>
       </c>
       <c r="FW19">
         <f t="shared" si="12"/>
-        <v>-0.22816029003109389</v>
+        <v>-0.22816029003109295</v>
       </c>
     </row>
     <row r="20" spans="1:179" x14ac:dyDescent="0.35">
@@ -11486,43 +11496,43 @@
         <v>0</v>
       </c>
       <c r="BX20">
-        <v>2.6346615458473353</v>
+        <v>0.21077292366778683</v>
       </c>
       <c r="BY20">
-        <v>4.8333066453162523</v>
+        <v>0.38666453162530018</v>
       </c>
       <c r="BZ20">
-        <v>17.094462540716613</v>
+        <v>1.367557003257329</v>
       </c>
       <c r="CA20">
-        <v>16.8</v>
+        <v>1.3440000000000001</v>
       </c>
       <c r="CB20">
-        <v>18.104854368932038</v>
+        <v>1.4483883495145631</v>
       </c>
       <c r="CC20">
-        <v>6.9234795996920715</v>
+        <v>0.55387836797536572</v>
       </c>
       <c r="CD20">
-        <v>7.9204790419161668</v>
+        <v>0.6336383233532934</v>
       </c>
       <c r="CE20">
-        <v>5.2638310708898945</v>
+        <v>0.42110648567119158</v>
       </c>
       <c r="CF20">
-        <v>6.0746907993966808</v>
+        <v>0.48597526395173446</v>
       </c>
       <c r="CG20">
-        <v>5.7282178217821773</v>
+        <v>0.45825742574257422</v>
       </c>
       <c r="CH20">
-        <v>8.3896805896805891</v>
+        <v>0.67117444717444719</v>
       </c>
       <c r="CI20">
-        <v>8.7302211302211301</v>
+        <v>0.69841769041769042</v>
       </c>
       <c r="CJ20">
-        <v>13.263428047662693</v>
+        <v>1.0610742438130154</v>
       </c>
       <c r="CK20">
         <v>355.83850931677017</v>
@@ -11681,43 +11691,43 @@
         <v>5.6916099773242639</v>
       </c>
       <c r="EK20">
-        <v>-0.73198914537168258</v>
+        <v>-0.73198914537168425</v>
       </c>
       <c r="EL20">
-        <v>-0.54056142303716936</v>
+        <v>-0.54056142303716848</v>
       </c>
       <c r="EM20">
-        <v>1.9996999145712433</v>
+        <v>1.9996999145712431</v>
       </c>
       <c r="EN20">
-        <v>0.80339783570491408</v>
+        <v>0.80339783570491297</v>
       </c>
       <c r="EO20">
-        <v>0.33690252716852898</v>
+        <v>0.33690252716852759</v>
       </c>
       <c r="EP20">
-        <v>-0.60839547402027283</v>
+        <v>-0.60839547402027372</v>
       </c>
       <c r="EQ20">
-        <v>-0.50509212874148202</v>
+        <v>-0.50509212874148124</v>
       </c>
       <c r="ER20">
-        <v>-0.79871936038110058</v>
+        <v>-0.7987193603810997</v>
       </c>
       <c r="ES20">
-        <v>-0.79840054020261597</v>
+        <v>-0.79840054020261408</v>
       </c>
       <c r="ET20">
-        <v>-0.93326047288816461</v>
+        <v>-0.93326047288816427</v>
       </c>
       <c r="EU20">
-        <v>-0.46421628072367621</v>
+        <v>-0.46421628072367654</v>
       </c>
       <c r="EV20">
-        <v>-0.24854914939399206</v>
+        <v>-0.24854914939399095</v>
       </c>
       <c r="EW20">
-        <v>0.21178991395946206</v>
+        <v>0.21178991395946262</v>
       </c>
       <c r="EX20">
         <v>-9.1244719116560513E-2</v>
@@ -11760,55 +11770,55 @@
       </c>
       <c r="FK20">
         <f t="shared" si="1"/>
-        <v>-0.64074442625512207</v>
+        <v>-0.64074442625512373</v>
       </c>
       <c r="FL20">
         <f t="shared" si="2"/>
-        <v>0.41677510654033678</v>
+        <v>0.41677510654033767</v>
       </c>
       <c r="FM20">
         <f t="shared" si="3"/>
-        <v>2.1847109981257842</v>
+        <v>2.1847109981257837</v>
       </c>
       <c r="FN20">
         <f t="shared" si="4"/>
-        <v>0.6183861694617373</v>
+        <v>0.61838616946173619</v>
       </c>
       <c r="FO20">
         <f t="shared" si="13"/>
-        <v>-0.88173047621264267</v>
+        <v>-0.88173047621264411</v>
       </c>
       <c r="FP20">
         <f t="shared" si="5"/>
-        <v>-1.7885253061733479</v>
+        <v>-1.7885253061733488</v>
       </c>
       <c r="FQ20">
         <f t="shared" si="6"/>
-        <v>-0.85263003083364453</v>
+        <v>-0.85263003083364364</v>
       </c>
       <c r="FR20">
         <f t="shared" si="7"/>
-        <v>-1.265043857138676</v>
+        <v>-1.2650438571386751</v>
       </c>
       <c r="FS20">
         <f t="shared" si="8"/>
-        <v>-2.5262039182653186</v>
+        <v>-2.5262039182653164</v>
       </c>
       <c r="FT20">
         <f t="shared" si="9"/>
-        <v>-2.0042081158323839</v>
+        <v>-2.0042081158323835</v>
       </c>
       <c r="FU20">
         <f t="shared" si="10"/>
-        <v>-0.49918961313608057</v>
+        <v>-0.4991896131360809</v>
       </c>
       <c r="FV20">
         <f t="shared" si="11"/>
-        <v>-0.68895485943674295</v>
+        <v>-0.68895485943674184</v>
       </c>
       <c r="FW20">
         <f t="shared" si="12"/>
-        <v>0.57727005508929574</v>
+        <v>0.57727005508929641</v>
       </c>
     </row>
     <row r="21" spans="1:179" x14ac:dyDescent="0.35">
@@ -12038,43 +12048,43 @@
         <v>2</v>
       </c>
       <c r="BX21">
-        <v>5.9683149303888623</v>
+        <v>0.47746519443110902</v>
       </c>
       <c r="BY21">
-        <v>7.7835068054443548</v>
+        <v>0.62268054443554843</v>
       </c>
       <c r="BZ21">
-        <v>23.369381107491854</v>
+        <v>1.8695504885993484</v>
       </c>
       <c r="CA21">
-        <v>10.395339805825241</v>
+        <v>0.83162718446601935</v>
       </c>
       <c r="CB21">
-        <v>13.092038834951454</v>
+        <v>1.0473631067961164</v>
       </c>
       <c r="CC21">
-        <v>5.8715935334872995</v>
+        <v>0.46972748267898395</v>
       </c>
       <c r="CD21">
-        <v>4.80191616766467</v>
+        <v>0.38415329341317361</v>
       </c>
       <c r="CE21">
-        <v>7.8687179487179488</v>
+        <v>0.6294974358974359</v>
       </c>
       <c r="CF21">
-        <v>8.334962292609351</v>
+        <v>0.66679698340874805</v>
       </c>
       <c r="CG21">
-        <v>16.550495049504949</v>
+        <v>1.3240396039603959</v>
       </c>
       <c r="CH21">
-        <v>8.3380835380835361</v>
+        <v>0.66704668304668291</v>
       </c>
       <c r="CI21">
-        <v>21.980343980343982</v>
+        <v>1.7584275184275187</v>
       </c>
       <c r="CJ21">
-        <v>6.6317140239999999</v>
+        <v>0.53053712192000002</v>
       </c>
       <c r="CK21">
         <v>355.31055900621118</v>
@@ -12233,43 +12243,43 @@
         <v>1.149659863945578</v>
       </c>
       <c r="EK21">
-        <v>0.89898022357787644</v>
+        <v>0.89898022357787666</v>
       </c>
       <c r="EL21">
-        <v>0.21399479316226885</v>
+        <v>0.21399479316226891</v>
       </c>
       <c r="EM21">
-        <v>3.437283118906524</v>
+        <v>3.4372831189065236</v>
       </c>
       <c r="EN21">
-        <v>-0.59666682896304635</v>
+        <v>-0.59666682896304435</v>
       </c>
       <c r="EO21">
-        <v>-0.60277057395428468</v>
+        <v>-0.6027705739542818</v>
       </c>
       <c r="EP21">
-        <v>-0.7505252843970408</v>
+        <v>-0.7505252843970418</v>
       </c>
       <c r="EQ21">
-        <v>-0.97805955023953439</v>
+        <v>-0.97805955023953339</v>
       </c>
       <c r="ER21">
-        <v>-4.3485384909610791E-2</v>
+        <v>-4.3485384909610396E-2</v>
       </c>
       <c r="ES21">
-        <v>-0.44124435035407761</v>
+        <v>-0.44124435035407639</v>
       </c>
       <c r="ET21">
-        <v>0.49040449643693335</v>
+        <v>0.49040449643693296</v>
       </c>
       <c r="EU21">
-        <v>-0.47058461625681119</v>
+        <v>-0.47058461625681158</v>
       </c>
       <c r="EV21">
-        <v>2.1509779770863537</v>
+        <v>2.1509779770863506</v>
       </c>
       <c r="EW21">
-        <v>-0.56779077424551061</v>
+        <v>-0.56779077424550939</v>
       </c>
       <c r="EX21">
         <v>-0.16025333021312568</v>
@@ -12312,7 +12322,7 @@
       </c>
       <c r="FK21">
         <f t="shared" si="1"/>
-        <v>1.059233553791002</v>
+        <v>1.0592335537910023</v>
       </c>
       <c r="FL21">
         <f t="shared" si="2"/>
@@ -12320,47 +12330,47 @@
       </c>
       <c r="FM21">
         <f t="shared" si="3"/>
-        <v>3.9954521506473095</v>
+        <v>3.9954521506473091</v>
       </c>
       <c r="FN21">
         <f t="shared" si="4"/>
-        <v>-0.58346474389282676</v>
+        <v>-0.58346474389282477</v>
       </c>
       <c r="FO21">
         <f t="shared" si="13"/>
-        <v>-0.55629948199120816</v>
+        <v>-0.55629948199120527</v>
       </c>
       <c r="FP21">
         <f t="shared" si="5"/>
-        <v>2.5935445820647947</v>
+        <v>2.5935445820647933</v>
       </c>
       <c r="FQ21">
         <f t="shared" si="6"/>
-        <v>-1.9964480944398701</v>
+        <v>-1.9964480944398693</v>
       </c>
       <c r="FR21">
         <f t="shared" si="7"/>
-        <v>-0.56585205222447921</v>
+        <v>-0.56585205222447876</v>
       </c>
       <c r="FS21">
         <f t="shared" si="8"/>
-        <v>-0.80397943983872977</v>
+        <v>-0.80397943983872855</v>
       </c>
       <c r="FT21">
         <f t="shared" si="9"/>
-        <v>1.3034747056362694</v>
+        <v>1.303474705636269</v>
       </c>
       <c r="FU21">
         <f t="shared" si="10"/>
-        <v>-2.4160314286740314E-2</v>
+        <v>-2.4160314286740703E-2</v>
       </c>
       <c r="FV21">
         <f t="shared" si="11"/>
-        <v>1.6398320897756933</v>
+        <v>1.6398320897756902</v>
       </c>
       <c r="FW21">
         <f t="shared" si="12"/>
-        <v>-0.51537422777829922</v>
+        <v>-0.515374227778298</v>
       </c>
     </row>
     <row r="22" spans="1:179" x14ac:dyDescent="0.35">
@@ -12590,43 +12600,43 @@
         <v>2</v>
       </c>
       <c r="BX22">
-        <v>4.6886221795487275</v>
+        <v>0.37508977436389823</v>
       </c>
       <c r="BY22">
-        <v>5.7389911929543622</v>
+        <v>0.459119295436349</v>
       </c>
       <c r="BZ22">
-        <v>7.5465798045602597</v>
+        <v>0.60372638436482073</v>
       </c>
       <c r="CA22">
-        <v>10.79766990291262</v>
+        <v>0.86381359223300969</v>
       </c>
       <c r="CB22">
-        <v>9.2644660194174762</v>
+        <v>0.74115728155339811</v>
       </c>
       <c r="CC22">
-        <v>6.9838337182448047</v>
+        <v>0.55870669745958434</v>
       </c>
       <c r="CD22">
-        <v>9.3188023952095804</v>
+        <v>0.7455041916167664</v>
       </c>
       <c r="CE22">
-        <v>7.1490799396681766</v>
+        <v>0.57192639517345412</v>
       </c>
       <c r="CF22">
-        <v>11.608808446455505</v>
+        <v>0.92870467571644044</v>
       </c>
       <c r="CG22">
-        <v>6.1024752475247519</v>
+        <v>0.48819801980198019</v>
       </c>
       <c r="CH22">
-        <v>4.8398034398034397</v>
+        <v>0.38718427518427517</v>
       </c>
       <c r="CI22">
-        <v>8.5651105651105652</v>
+        <v>0.68520884520884529</v>
       </c>
       <c r="CJ22">
-        <v>6.2826764436296969</v>
+        <v>0.50261411549037571</v>
       </c>
       <c r="CK22">
         <v>358.47826086956525</v>
@@ -12785,43 +12795,43 @@
         <v>0.2244897959183674</v>
       </c>
       <c r="EK22">
-        <v>0.27289843356175525</v>
+        <v>0.27289843356175486</v>
       </c>
       <c r="EL22">
-        <v>-0.30891954511576142</v>
+        <v>-0.30891954511576075</v>
       </c>
       <c r="EM22">
-        <v>-0.18771904750702564</v>
+        <v>-0.18771904750702562</v>
       </c>
       <c r="EN22">
-        <v>-0.50871709620801309</v>
+        <v>-0.50871709620801131</v>
       </c>
       <c r="EO22">
-        <v>-1.3202650025773435</v>
+        <v>-1.3202650025773377</v>
       </c>
       <c r="EP22">
-        <v>-0.60024048490029436</v>
+        <v>-0.60024048490029525</v>
       </c>
       <c r="EQ22">
-        <v>-0.29301963974719386</v>
+        <v>-0.29301963974719347</v>
       </c>
       <c r="ER22">
-        <v>-0.25212979058461338</v>
+        <v>-0.25212979058461288</v>
       </c>
       <c r="ES22">
-        <v>7.6071565883939735E-2</v>
+        <v>7.6071565883940317E-2</v>
       </c>
       <c r="ET22">
-        <v>-0.88402710219104308</v>
+        <v>-0.88402710219104275</v>
       </c>
       <c r="EU22">
-        <v>-0.90235776540335089</v>
+        <v>-0.90235776540335177</v>
       </c>
       <c r="EV22">
-        <v>-0.27844979894514899</v>
+        <v>-0.27844979894514765</v>
       </c>
       <c r="EW22">
-        <v>-0.60882133680348371</v>
+        <v>-0.60882133680348249</v>
       </c>
       <c r="EX22">
         <v>0.25379833636628024</v>
@@ -12864,11 +12874,11 @@
       </c>
       <c r="FK22">
         <f t="shared" si="1"/>
-        <v>1.9100097195475008E-2</v>
+        <v>1.9100097195474619E-2</v>
       </c>
       <c r="FL22">
         <f t="shared" si="2"/>
-        <v>4.9175901569604108E-2</v>
+        <v>4.9175901569604774E-2</v>
       </c>
       <c r="FM22">
         <f t="shared" si="3"/>
@@ -12876,43 +12886,43 @@
       </c>
       <c r="FN22">
         <f t="shared" si="4"/>
-        <v>-0.85229976350190517</v>
+        <v>-0.8522997635019034</v>
       </c>
       <c r="FO22">
         <f t="shared" si="13"/>
-        <v>-1.2737939106142668</v>
+        <v>-1.2737939106142611</v>
       </c>
       <c r="FP22">
         <f t="shared" si="5"/>
-        <v>-0.88670124078375512</v>
+        <v>-0.88670124078375601</v>
       </c>
       <c r="FQ22">
         <f t="shared" si="6"/>
-        <v>0.43280348553372922</v>
+        <v>0.4328034855337296</v>
       </c>
       <c r="FR22">
         <f t="shared" si="7"/>
-        <v>-0.94262296957132496</v>
+        <v>-0.94262296957132441</v>
       </c>
       <c r="FS22">
         <f t="shared" si="8"/>
-        <v>8.6171917827918693E-2</v>
+        <v>8.6171917827919275E-2</v>
       </c>
       <c r="FT22">
         <f t="shared" si="9"/>
-        <v>-1.8623063765490944E-2</v>
+        <v>-1.8623063765490611E-2</v>
       </c>
       <c r="FU22">
         <f t="shared" si="10"/>
-        <v>-0.30781111439251374</v>
+        <v>-0.30781111439251463</v>
       </c>
       <c r="FV22">
         <f t="shared" si="11"/>
-        <v>-1.2847769271311207</v>
+        <v>-1.2847769271311194</v>
       </c>
       <c r="FW22">
         <f t="shared" si="12"/>
-        <v>-1.1825319796615272</v>
+        <v>-1.1825319796615261</v>
       </c>
     </row>
     <row r="23" spans="1:179" x14ac:dyDescent="0.35">
@@ -13136,40 +13146,40 @@
         <v>1</v>
       </c>
       <c r="BX23">
-        <v>5.9790686509841571</v>
+        <v>0.47832549207873259</v>
       </c>
       <c r="BY23">
-        <v>4.2683746997598071</v>
+        <v>0.3414699759807846</v>
       </c>
       <c r="BZ23">
-        <v>8.9328990228013048</v>
+        <v>0.7146319218241044</v>
       </c>
       <c r="CA23">
-        <v>15.429902912621358</v>
+        <v>1.2343922330097088</v>
       </c>
       <c r="CC23">
-        <v>7.1907621247113171</v>
+        <v>0.57526096997690535</v>
       </c>
       <c r="CD23">
-        <v>19.559760479041916</v>
+        <v>1.5647808383233532</v>
       </c>
       <c r="CE23">
-        <v>11.172971342383107</v>
+        <v>0.89383770739064861</v>
       </c>
       <c r="CF23">
-        <v>17.538220211161388</v>
+        <v>1.403057616892911</v>
       </c>
       <c r="CG23">
-        <v>10.749504950495048</v>
+        <v>0.85996039603960384</v>
       </c>
       <c r="CH23">
-        <v>9.7621621621621593</v>
+        <v>0.78097297297297275</v>
       </c>
       <c r="CI23">
-        <v>6.7179361179361177</v>
+        <v>0.53743488943488937</v>
       </c>
       <c r="CJ23">
-        <v>5.2150320806599444</v>
+        <v>0.41720256645279558</v>
       </c>
       <c r="CK23">
         <v>368.50931677018633</v>
@@ -13325,40 +13335,43 @@
         <v>0.41043083900226757</v>
       </c>
       <c r="EK23">
-        <v>0.90424141509061673</v>
+        <v>0.90424141509061695</v>
       </c>
       <c r="EL23">
-        <v>-0.68505091124557249</v>
+        <v>-0.68505091124557116</v>
       </c>
       <c r="EM23">
-        <v>0.12988654414844411</v>
+        <v>0.12988654414844425</v>
       </c>
       <c r="EN23">
-        <v>0.50389334037696309</v>
+        <v>0.50389334037696276</v>
+      </c>
+      <c r="EO23">
+        <v>-3.0569276536763259</v>
       </c>
       <c r="EP23">
-        <v>-0.57228052220322523</v>
+        <v>-0.57228052220322612</v>
       </c>
       <c r="EQ23">
-        <v>1.2601443443980238</v>
+        <v>1.2601443443980229</v>
       </c>
       <c r="ER23">
-        <v>0.91451568903476932</v>
+        <v>0.91451568903476921</v>
       </c>
       <c r="ES23">
-        <v>1.0130059652623922</v>
+        <v>1.0130059652623913</v>
       </c>
       <c r="ET23">
-        <v>-0.27271274936845069</v>
+        <v>-0.27271274936845064</v>
       </c>
       <c r="EU23">
-        <v>-0.29481855554229064</v>
+        <v>-0.29481855554229086</v>
       </c>
       <c r="EV23">
-        <v>-0.61296331579871743</v>
+        <v>-0.61296331579871577</v>
       </c>
       <c r="EW23">
-        <v>-0.73432658692016961</v>
+        <v>-0.73432658692016817</v>
       </c>
       <c r="EX23">
         <v>1.5649619472010483</v>
@@ -13398,51 +13411,51 @@
       </c>
       <c r="FK23">
         <f t="shared" si="1"/>
-        <v>-0.66072053211043158</v>
+        <v>-0.66072053211043136</v>
       </c>
       <c r="FL23">
         <f t="shared" si="2"/>
-        <v>-0.2603731220166437</v>
+        <v>-0.26037312201664237</v>
       </c>
       <c r="FM23">
         <f t="shared" si="3"/>
-        <v>-0.48472654698183915</v>
+        <v>-0.48472654698183903</v>
       </c>
       <c r="FN23">
         <f t="shared" si="4"/>
-        <v>0.71530917676057026</v>
+        <v>0.71530917676056993</v>
       </c>
       <c r="FP23">
         <f t="shared" si="5"/>
-        <v>0.37005370178403296</v>
+        <v>0.37005370178403207</v>
       </c>
       <c r="FQ23">
         <f t="shared" si="6"/>
-        <v>1.449286955992402</v>
+        <v>1.4492869559924011</v>
       </c>
       <c r="FR23">
         <f t="shared" si="7"/>
-        <v>0.56027553339175118</v>
+        <v>0.56027553339175107</v>
       </c>
       <c r="FS23">
         <f t="shared" si="8"/>
-        <v>1.3959417586350022</v>
+        <v>1.3959417586350014</v>
       </c>
       <c r="FT23">
         <f t="shared" si="9"/>
-        <v>-0.45398529546709815</v>
+        <v>-0.45398529546709809</v>
       </c>
       <c r="FU23">
         <f t="shared" si="10"/>
-        <v>-0.47791423699545665</v>
+        <v>-0.47791423699545688</v>
       </c>
       <c r="FV23">
         <f t="shared" si="11"/>
-        <v>-0.69966813950196827</v>
+        <v>-0.6996681395019666</v>
       </c>
       <c r="FW23">
         <f t="shared" si="12"/>
-        <v>-1.6211008244408407</v>
+        <v>-1.6211008244408391</v>
       </c>
     </row>
     <row r="24" spans="1:179" x14ac:dyDescent="0.35">
@@ -13672,43 +13685,43 @@
         <v>9.3333333333333339</v>
       </c>
       <c r="BX24">
-        <v>2.7206913106096975</v>
+        <v>0.21765530484877579</v>
       </c>
       <c r="BY24">
-        <v>4.2952762209767812</v>
+        <v>0.3436220976781425</v>
       </c>
       <c r="BZ24">
-        <v>4.2319218241042336</v>
+        <v>0.3385537459283387</v>
       </c>
       <c r="CA24">
-        <v>15.451650485436893</v>
+        <v>1.2361320388349515</v>
       </c>
       <c r="CB24">
-        <v>19.311844660194172</v>
+        <v>1.5449475728155337</v>
       </c>
       <c r="CC24">
-        <v>8.742725173210161</v>
+        <v>0.6994180138568129</v>
       </c>
       <c r="CD24">
-        <v>11.32071856287425</v>
+        <v>0.90565748502994003</v>
       </c>
       <c r="CE24">
-        <v>5.1320663650075407</v>
+        <v>0.41056530920060325</v>
       </c>
       <c r="CF24">
-        <v>6.0544193061840126</v>
+        <v>0.48435354449472101</v>
       </c>
       <c r="CG24">
-        <v>4.3455445544554445</v>
+        <v>0.34764356435643556</v>
       </c>
       <c r="CH24">
-        <v>10.236855036855035</v>
+        <v>0.81894840294840276</v>
       </c>
       <c r="CI24">
-        <v>11.248157248157248</v>
+        <v>0.89985257985257994</v>
       </c>
       <c r="CJ24">
-        <v>19.40238313473877</v>
+        <v>1.5521906507791017</v>
       </c>
       <c r="CK24">
         <v>367.45341614906829</v>
@@ -13867,40 +13880,40 @@
         <v>7.0181405895691604</v>
       </c>
       <c r="EK24">
-        <v>-0.68989961326975846</v>
+        <v>-0.68989961326976001</v>
       </c>
       <c r="EL24">
-        <v>-0.67817045942612453</v>
+        <v>-0.67817045942612342</v>
       </c>
       <c r="EM24">
-        <v>-0.94710685311935028</v>
+        <v>-0.94710685311935006</v>
       </c>
       <c r="EN24">
-        <v>0.50864737998534348</v>
+        <v>0.50864737998534293</v>
       </c>
       <c r="EO24">
-        <v>0.56315787255818639</v>
+        <v>0.56315787255818395</v>
       </c>
       <c r="EP24">
-        <v>-0.36258080197520703</v>
+        <v>-0.3625808019752077</v>
       </c>
       <c r="EQ24">
-        <v>1.0594930827362218E-2</v>
+        <v>1.0594930827362565E-2</v>
       </c>
       <c r="ER24">
-        <v>-0.83692185719483381</v>
+        <v>-0.83692185719483292</v>
       </c>
       <c r="ES24">
-        <v>-0.80160373473040525</v>
+        <v>-0.80160373473040347</v>
       </c>
       <c r="ET24">
-        <v>-1.1151504257414193</v>
+        <v>-1.1151504257414189</v>
       </c>
       <c r="EU24">
-        <v>-0.23622986863745032</v>
+        <v>-0.23622986863745055</v>
       </c>
       <c r="EV24">
-        <v>0.20743575626115152</v>
+        <v>0.20743575626115199</v>
       </c>
       <c r="EW24">
         <v>0.93344510213040577</v>
@@ -13946,11 +13959,11 @@
       </c>
       <c r="FK24">
         <f t="shared" si="1"/>
-        <v>-2.1168443382776689</v>
+        <v>-2.1168443382776707</v>
       </c>
       <c r="FL24">
         <f t="shared" si="2"/>
-        <v>-1.1190631232636252</v>
+        <v>-1.1190631232636239</v>
       </c>
       <c r="FM24">
         <f t="shared" si="3"/>
@@ -13958,39 +13971,39 @@
       </c>
       <c r="FN24">
         <f t="shared" si="4"/>
-        <v>1.1561334692584244</v>
+        <v>1.1561334692584238</v>
       </c>
       <c r="FO24">
         <f t="shared" si="13"/>
-        <v>0.3255087509023441</v>
+        <v>0.32550875090234166</v>
       </c>
       <c r="FP24">
         <f t="shared" si="5"/>
-        <v>-0.25806133699070999</v>
+        <v>-0.25806133699071065</v>
       </c>
       <c r="FQ24">
         <f t="shared" si="6"/>
-        <v>0.5351628634758292</v>
+        <v>0.53516286347582953</v>
       </c>
       <c r="FR24">
         <f t="shared" si="7"/>
-        <v>-0.12636077224948605</v>
+        <v>-0.12636077224948516</v>
       </c>
       <c r="FS24">
         <f t="shared" si="8"/>
-        <v>-1.9100097070723268</v>
+        <v>-1.910009707072325</v>
       </c>
       <c r="FT24">
         <f t="shared" si="9"/>
-        <v>-1.2964229718400668</v>
+        <v>-1.2964229718400664</v>
       </c>
       <c r="FU24">
         <f t="shared" si="10"/>
-        <v>0.76565324223548592</v>
+        <v>0.7656532422354857</v>
       </c>
       <c r="FV24">
         <f t="shared" si="11"/>
-        <v>-0.2329699537815994</v>
+        <v>-0.23296995378159893</v>
       </c>
       <c r="FW24">
         <f t="shared" si="12"/>
@@ -14224,43 +14237,43 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="BX25">
-        <v>3.0540566490638499</v>
+        <v>0.244324531925108</v>
       </c>
       <c r="BY25">
-        <v>12.276060848678943</v>
+        <v>0.98208486789431548</v>
       </c>
       <c r="BZ25">
-        <v>11.611726384364822</v>
+        <v>0.92893811074918575</v>
       </c>
       <c r="CA25">
-        <v>15.538640776699028</v>
+        <v>1.2430912621359222</v>
       </c>
       <c r="CB25">
-        <v>13.700970873786405</v>
+        <v>1.0960776699029124</v>
       </c>
       <c r="CC25">
-        <v>21.718860662047732</v>
+        <v>1.7375088529638185</v>
       </c>
       <c r="CD25">
-        <v>31.460598802395204</v>
+        <v>2.5168479041916165</v>
       </c>
       <c r="CE25">
-        <v>13.960301659125189</v>
+        <v>1.1168241327300152</v>
       </c>
       <c r="CF25">
-        <v>18.265841584158412</v>
+        <v>1.461267326732673</v>
       </c>
       <c r="CG25">
-        <v>26.333168316831681</v>
+        <v>2.1066534653465347</v>
       </c>
       <c r="CH25">
-        <v>23.507616707616705</v>
+        <v>1.8806093366093364</v>
       </c>
       <c r="CI25">
-        <v>5.6653562653562632</v>
+        <v>0.45322850122850106</v>
       </c>
       <c r="CJ25">
-        <v>18.899358386801097</v>
+        <v>1.5119486709440879</v>
       </c>
       <c r="CK25">
         <v>369.56521739130432</v>
@@ -14410,43 +14423,43 @@
         <v>5.4240362811791378</v>
       </c>
       <c r="EK25">
-        <v>-0.5268026763748026</v>
+        <v>-0.52680267637480394</v>
       </c>
       <c r="EL25">
-        <v>1.3630302470100457</v>
+        <v>1.3630302470100442</v>
       </c>
       <c r="EM25">
         <v>0.74360561975337303</v>
       </c>
       <c r="EN25">
-        <v>0.52766353841886382</v>
+        <v>0.52766353841886326</v>
       </c>
       <c r="EO25">
-        <v>-0.48862373303697998</v>
+        <v>-0.4886237330369777</v>
       </c>
       <c r="EP25">
-        <v>1.3907418588201699</v>
+        <v>1.3907418588201701</v>
       </c>
       <c r="EQ25">
-        <v>3.0650490528889778</v>
+        <v>3.065049052888976</v>
       </c>
       <c r="ER25">
-        <v>1.7226454293252742</v>
+        <v>1.7226454293252738</v>
       </c>
       <c r="ES25">
-        <v>1.1279808600979691</v>
+        <v>1.1279808600979682</v>
       </c>
       <c r="ET25">
-        <v>1.7773101027144715</v>
+        <v>1.7773101027144711</v>
       </c>
       <c r="EU25">
-        <v>1.4017060304848219</v>
+        <v>1.4017060304848232</v>
       </c>
       <c r="EV25">
-        <v>-0.80357995668734339</v>
+        <v>-0.80357995668734128</v>
       </c>
       <c r="EW25">
-        <v>0.8743128208254286</v>
+        <v>0.87431282082542883</v>
       </c>
       <c r="EX25">
         <v>1.7029791693941787</v>
@@ -14489,11 +14502,11 @@
       </c>
       <c r="FK25">
         <f t="shared" si="1"/>
-        <v>-2.2297818457689811</v>
+        <v>-2.2297818457689829</v>
       </c>
       <c r="FL25">
         <f t="shared" si="2"/>
-        <v>1.1884669533468339</v>
+        <v>1.1884669533468322</v>
       </c>
       <c r="FM25">
         <f t="shared" si="3"/>
@@ -14501,27 +14514,27 @@
       </c>
       <c r="FN25">
         <f t="shared" si="4"/>
-        <v>1.8887191324201593</v>
+        <v>1.8887191324201589</v>
       </c>
       <c r="FO25">
         <f t="shared" si="13"/>
-        <v>-0.32038683523722766</v>
+        <v>-0.32038683523722539</v>
       </c>
       <c r="FP25">
         <f t="shared" si="5"/>
-        <v>2.0538044964731692</v>
+        <v>2.0538044964731696</v>
       </c>
       <c r="FQ25">
         <f t="shared" si="6"/>
-        <v>3.0864790039563115</v>
+        <v>3.0864790039563097</v>
       </c>
       <c r="FR25">
         <f t="shared" si="7"/>
-        <v>2.2650800025987787</v>
+        <v>2.2650800025987783</v>
       </c>
       <c r="FS25">
         <f t="shared" si="8"/>
-        <v>0.98894703547048557</v>
+        <v>0.98894703547048468</v>
       </c>
       <c r="FT25">
         <f t="shared" si="9"/>
@@ -14529,15 +14542,15 @@
       </c>
       <c r="FU25">
         <f t="shared" si="10"/>
-        <v>0.92236565095012801</v>
+        <v>0.92236565095012935</v>
       </c>
       <c r="FV25">
         <f t="shared" si="11"/>
-        <v>-1.3854660212658976</v>
+        <v>-1.3854660212658954</v>
       </c>
       <c r="FW25">
         <f t="shared" si="12"/>
-        <v>0.971452737958726</v>
+        <v>0.97145273795872622</v>
       </c>
     </row>
     <row r="26" spans="1:179" x14ac:dyDescent="0.35">
@@ -14749,43 +14762,43 @@
         <v>7.666666666666667</v>
       </c>
       <c r="BX26">
-        <v>7.4308209313490163</v>
+        <v>0.59446567450792132</v>
       </c>
       <c r="BY26">
-        <v>5.7300240192153726</v>
+        <v>0.45840192153722981</v>
       </c>
       <c r="BZ26">
-        <v>5.7850162866449519</v>
+        <v>0.46280130293159616</v>
       </c>
       <c r="CA26">
-        <v>18.224466019417477</v>
+        <v>1.4579572815533981</v>
       </c>
       <c r="CB26">
-        <v>23.509126213592232</v>
+        <v>1.8807300970873786</v>
       </c>
       <c r="CC26">
-        <v>24.288221709006933</v>
+        <v>1.9430577367205546</v>
       </c>
       <c r="CD26">
-        <v>7.7192814371257468</v>
+        <v>0.61754251497005974</v>
       </c>
       <c r="CE26">
-        <v>9.4093514328808467</v>
+        <v>0.75274811463046776</v>
       </c>
       <c r="CF26">
-        <v>0.37425742574257381</v>
+        <v>2.9940594059405905E-2</v>
       </c>
       <c r="CG26">
-        <v>10.947029702970298</v>
+        <v>0.87576237623762387</v>
       </c>
       <c r="CH26">
-        <v>19.183783783783781</v>
+        <v>1.5347027027027025</v>
       </c>
       <c r="CI26">
-        <v>6.552825552825551</v>
+        <v>0.52422604422604413</v>
       </c>
       <c r="CJ26">
-        <v>13.786984417965169</v>
+        <v>1.1029587534372136</v>
       </c>
       <c r="CK26">
         <v>364.81366459627327</v>
@@ -14944,43 +14957,43 @@
         <v>4.8616780045351469</v>
       </c>
       <c r="EK26">
-        <v>1.6145022693105864</v>
+        <v>1.614502269310587</v>
       </c>
       <c r="EL26">
-        <v>-0.31121302905557696</v>
+        <v>-0.31121302905557635</v>
       </c>
       <c r="EM26">
-        <v>-0.59129306998653108</v>
+        <v>-0.59129306998653097</v>
       </c>
       <c r="EN26">
-        <v>1.1147874300538154</v>
+        <v>1.1147874300538132</v>
       </c>
       <c r="EO26">
-        <v>1.3499557403096096</v>
+        <v>1.3499557403096039</v>
       </c>
       <c r="EP26">
-        <v>1.7379113956421117</v>
+        <v>1.7379113956421124</v>
       </c>
       <c r="EQ26">
-        <v>-0.53560615593490479</v>
+        <v>-0.53560615593490424</v>
       </c>
       <c r="ER26">
-        <v>0.40318996245095962</v>
+        <v>0.40318996245095984</v>
       </c>
       <c r="ES26">
-        <v>-1.6991529809308443</v>
+        <v>-1.6991529809308412</v>
       </c>
       <c r="ET26">
-        <v>-0.24672847038941401</v>
+        <v>-0.2467284703894139</v>
       </c>
       <c r="EU26">
-        <v>0.86803951280812508</v>
+        <v>0.86803951280812586</v>
       </c>
       <c r="EV26">
-        <v>-0.64286396534987467</v>
+        <v>-0.64286396534987278</v>
       </c>
       <c r="EW26">
-        <v>0.27333575776668312</v>
+        <v>0.27333575776668384</v>
       </c>
       <c r="EX26">
         <v>1.0819016695250772</v>
@@ -15023,55 +15036,55 @@
       </c>
       <c r="FK26">
         <f t="shared" si="1"/>
-        <v>0.53260059978550922</v>
+        <v>0.53260059978550989</v>
       </c>
       <c r="FL26">
         <f t="shared" si="2"/>
-        <v>-1.351346775785242</v>
+        <v>-1.3513467757852413</v>
       </c>
       <c r="FM26">
         <f t="shared" si="3"/>
-        <v>-0.93936476955520121</v>
+        <v>-0.9393647695552011</v>
       </c>
       <c r="FN26">
         <f t="shared" si="4"/>
-        <v>1.9604872706402883</v>
+        <v>1.9604872706402861</v>
       </c>
       <c r="FO26">
         <f t="shared" si="13"/>
-        <v>2.4923190848027943</v>
+        <v>2.4923190848027885</v>
       </c>
       <c r="FP26">
         <f t="shared" si="5"/>
-        <v>1.6190135915592032</v>
+        <v>1.6190135915592039</v>
       </c>
       <c r="FQ26">
         <f t="shared" si="6"/>
-        <v>-1.721707360662285</v>
+        <v>-1.7217073606622844</v>
       </c>
       <c r="FR26">
         <f t="shared" si="7"/>
-        <v>0.27311848903707037</v>
+        <v>0.27311848903707059</v>
       </c>
       <c r="FS26">
         <f t="shared" si="8"/>
-        <v>-2.5092906001298623</v>
+        <v>-2.5092906001298592</v>
       </c>
       <c r="FT26">
         <f t="shared" si="9"/>
-        <v>-0.6373363333929104</v>
+        <v>-0.63733633339291029</v>
       </c>
       <c r="FU26">
         <f t="shared" si="10"/>
-        <v>0.3886991332734312</v>
+        <v>0.38869913327343197</v>
       </c>
       <c r="FV26">
         <f t="shared" si="11"/>
-        <v>-0.58808843451732229</v>
+        <v>-0.5880884345173204</v>
       </c>
       <c r="FW26">
         <f t="shared" si="12"/>
-        <v>0.28102893356779823</v>
+        <v>0.28102893356779896</v>
       </c>
     </row>
     <row r="27" spans="1:179" x14ac:dyDescent="0.35">
@@ -15301,43 +15314,43 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="BX27">
-        <v>3.6455112818050885</v>
+        <v>0.29164090254440711</v>
       </c>
       <c r="BY27">
-        <v>3.2819855884707767</v>
+        <v>0.26255884707766214</v>
       </c>
       <c r="BZ27">
-        <v>11.080130293159611</v>
+        <v>0.88641042345276888</v>
       </c>
       <c r="CA27">
-        <v>14.222912621359223</v>
+        <v>1.1378330097087379</v>
       </c>
       <c r="CB27">
-        <v>15.915506481036964</v>
+        <v>1.2732405184829572</v>
       </c>
       <c r="CC27">
-        <v>9.9066974595842971</v>
+        <v>0.79253579676674379</v>
       </c>
       <c r="CD27">
-        <v>8.8158083832335308</v>
+        <v>0.70526467065868248</v>
       </c>
       <c r="CE27">
-        <v>8.0207541478129727</v>
+        <v>0.64166033182503779</v>
       </c>
       <c r="CF27">
-        <v>9.4292079207920771</v>
+        <v>0.75433663366336623</v>
       </c>
       <c r="CG27">
-        <v>12.038613861386139</v>
+        <v>0.96308910891089117</v>
       </c>
       <c r="CH27">
-        <v>7.0481572481572465</v>
+        <v>0.56385257985257975</v>
       </c>
       <c r="CI27">
-        <v>5.1906633906633903</v>
+        <v>0.41525307125307126</v>
       </c>
       <c r="CJ27">
-        <v>6.0362969752520623</v>
+        <v>0.482903758020165</v>
       </c>
       <c r="CK27">
         <v>366.92546583850924</v>
@@ -15496,43 +15509,43 @@
         <v>0.78004535147392295</v>
       </c>
       <c r="EK27">
-        <v>-0.23743714317407444</v>
+        <v>-0.23743714317407538</v>
       </c>
       <c r="EL27">
-        <v>-0.93733414462532361</v>
+        <v>-0.93733414462532216</v>
       </c>
       <c r="EM27">
-        <v>0.62181700941932105</v>
+        <v>0.62181700941932116</v>
       </c>
       <c r="EN27">
-        <v>0.24004414211186373</v>
+        <v>0.24004414211186395</v>
       </c>
       <c r="EO27">
-        <v>-7.3499831607559046E-2</v>
+        <v>-7.3499831607558547E-2</v>
       </c>
       <c r="EP27">
-        <v>-0.20530601180419289</v>
+        <v>-0.20530601180419347</v>
       </c>
       <c r="EQ27">
-        <v>-0.36930470773075097</v>
+        <v>-0.36930470773075041</v>
       </c>
       <c r="ER27">
-        <v>5.9441910623527459E-4</v>
+        <v>5.9441910623558001E-4</v>
       </c>
       <c r="ES27">
-        <v>-0.26833742280411771</v>
+        <v>-0.26833742280411654</v>
       </c>
       <c r="ET27">
-        <v>-0.10313113918947618</v>
+        <v>-0.10313113918947617</v>
       </c>
       <c r="EU27">
-        <v>-0.62979300458518128</v>
+        <v>-0.62979300458518184</v>
       </c>
       <c r="EV27">
-        <v>-0.88954432414691931</v>
+        <v>-0.88954432414691698</v>
       </c>
       <c r="EW27">
-        <v>-0.6377840868304111</v>
+        <v>-0.63778408683040977</v>
       </c>
       <c r="EX27">
         <v>1.3579361139113379</v>
@@ -15575,39 +15588,39 @@
       </c>
       <c r="FK27">
         <f t="shared" si="1"/>
-        <v>-1.5953732570854124</v>
+        <v>-1.5953732570854133</v>
       </c>
       <c r="FL27">
         <f t="shared" si="2"/>
-        <v>-1.8443032062678384</v>
+        <v>-1.8443032062678371</v>
       </c>
       <c r="FM27">
         <f t="shared" si="3"/>
-        <v>-9.9412638335601322E-2</v>
+        <v>-9.9412638335601211E-2</v>
       </c>
       <c r="FN27">
         <f t="shared" si="4"/>
-        <v>1.3236004842744096</v>
+        <v>1.3236004842744098</v>
       </c>
       <c r="FO27">
         <f t="shared" si="13"/>
-        <v>-0.35173755520895555</v>
+        <v>-0.351737555208955</v>
       </c>
       <c r="FP27">
         <f t="shared" si="5"/>
-        <v>-4.493222955284254E-2</v>
+        <v>-4.4932229552843123E-2</v>
       </c>
       <c r="FQ27">
         <f t="shared" si="6"/>
-        <v>-0.14661956403096582</v>
+        <v>-0.14661956403096527</v>
       </c>
       <c r="FR27">
         <f t="shared" si="7"/>
-        <v>0.65511333349429723</v>
+        <v>0.65511333349429757</v>
       </c>
       <c r="FS27">
         <f t="shared" si="8"/>
-        <v>1.0839705182829376</v>
+        <v>1.0839705182829387</v>
       </c>
       <c r="FT27">
         <f t="shared" si="9"/>
@@ -15615,15 +15628,15 @@
       </c>
       <c r="FU27">
         <f t="shared" si="10"/>
-        <v>0.11287599546641747</v>
+        <v>0.11287599546641691</v>
       </c>
       <c r="FV27">
         <f t="shared" si="11"/>
-        <v>-0.76402861604645733</v>
+        <v>-0.764028616046455</v>
       </c>
       <c r="FW27">
         <f t="shared" si="12"/>
-        <v>-1.4351115830189052</v>
+        <v>-1.4351115830189038</v>
       </c>
     </row>
     <row r="28" spans="1:179" x14ac:dyDescent="0.35">
@@ -15853,43 +15866,43 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="BX28">
-        <v>2.0539606337013923</v>
+        <v>0.16431685069611138</v>
       </c>
       <c r="BY28">
-        <v>11.262770216172939</v>
+        <v>0.90102161729383512</v>
       </c>
       <c r="BZ28">
-        <v>4.3570032573289899</v>
+        <v>0.34856026058631917</v>
       </c>
       <c r="CA28">
-        <v>7.8182524271844667</v>
+        <v>0.6254601941747574</v>
       </c>
       <c r="CB28">
-        <v>20.077196351416227</v>
+        <v>1.6061757081132981</v>
       </c>
       <c r="CC28">
-        <v>8.8289453425712097</v>
+        <v>0.70631562740569676</v>
       </c>
       <c r="CD28">
-        <v>6.3913772455089806</v>
+        <v>0.51131017964071845</v>
       </c>
       <c r="CE28">
-        <v>4.8279939668174965</v>
+        <v>0.38623951734539974</v>
       </c>
       <c r="CF28">
-        <v>9.1069306930693052</v>
+        <v>0.72855445544554442</v>
       </c>
       <c r="CG28">
-        <v>4.116831683168316</v>
+        <v>0.32934653465346531</v>
       </c>
       <c r="CH28">
-        <v>4.313513513513513</v>
+        <v>0.34508108108108104</v>
       </c>
       <c r="CI28">
-        <v>8.1420147420147408</v>
+        <v>0.65136117936117932</v>
       </c>
       <c r="CJ28">
-        <v>8.2331805682859738</v>
+        <v>0.65865444546287788</v>
       </c>
       <c r="CK28">
         <v>369.03726708074532</v>
@@ -16048,43 +16061,43 @@
         <v>2.8276643990929706</v>
       </c>
       <c r="EK28">
-        <v>-1.0160934870596701</v>
+        <v>-1.0160934870596721</v>
       </c>
       <c r="EL28">
-        <v>1.1038665618108467</v>
+        <v>1.1038665618108454</v>
       </c>
       <c r="EM28">
-        <v>-0.91845070951133789</v>
+        <v>-0.91845070951133778</v>
       </c>
       <c r="EN28">
-        <v>-1.160020522556096</v>
+        <v>-1.1600205225560927</v>
       </c>
       <c r="EO28">
-        <v>0.70662622727123736</v>
+        <v>0.70662622727123436</v>
       </c>
       <c r="EP28">
-        <v>-0.35093081751809463</v>
+        <v>-0.35093081751809541</v>
       </c>
       <c r="EQ28">
-        <v>-0.73699873541149485</v>
+        <v>-0.73699873541149408</v>
       </c>
       <c r="ER28">
-        <v>-0.9250814652265249</v>
+        <v>-0.9250814652265239</v>
       </c>
       <c r="ES28">
-        <v>-0.31926197194525258</v>
+        <v>-0.31926197194525147</v>
       </c>
       <c r="ET28">
-        <v>-1.1452374856118823</v>
+        <v>-1.1452374856118819</v>
       </c>
       <c r="EU28">
-        <v>-0.96731478784132596</v>
+        <v>-0.96731478784132685</v>
       </c>
       <c r="EV28">
-        <v>-0.3550702134199889</v>
+        <v>-0.35507021341998746</v>
       </c>
       <c r="EW28">
-        <v>-0.37953289909030785</v>
+        <v>-0.3795328990903068</v>
       </c>
       <c r="EX28">
         <v>1.6339705582976134</v>
@@ -16127,11 +16140,11 @@
       </c>
       <c r="FK28">
         <f t="shared" si="1"/>
-        <v>-2.6500640453572837</v>
+        <v>-2.6500640453572855</v>
       </c>
       <c r="FL28">
         <f t="shared" si="2"/>
-        <v>2.7270265168240808</v>
+        <v>2.727026516824079</v>
       </c>
       <c r="FM28">
         <f t="shared" si="3"/>
@@ -16139,43 +16152,43 @@
       </c>
       <c r="FN28">
         <f t="shared" si="4"/>
-        <v>-1.3846749390619539</v>
+        <v>-1.3846749390619504</v>
       </c>
       <c r="FO28">
         <f t="shared" si="13"/>
-        <v>0.30662269783315638</v>
+        <v>0.30662269783315338</v>
       </c>
       <c r="FP28">
         <f t="shared" si="5"/>
-        <v>-1.3076433806037642</v>
+        <v>-1.3076433806037651</v>
       </c>
       <c r="FQ28">
         <f t="shared" si="6"/>
-        <v>-1.3864194264523346</v>
+        <v>-1.386419426452334</v>
       </c>
       <c r="FR28">
         <f t="shared" si="7"/>
-        <v>-1.7837011558850868</v>
+        <v>-1.7837011558850857</v>
       </c>
       <c r="FS28">
         <f t="shared" si="8"/>
-        <v>0.95847888085607513</v>
+        <v>0.95847888085607624</v>
       </c>
       <c r="FT28">
         <f t="shared" si="9"/>
-        <v>-2.3731866162347344</v>
+        <v>-2.3731866162347339</v>
       </c>
       <c r="FU28">
         <f t="shared" si="10"/>
-        <v>-2.462264228584754E-3</v>
+        <v>-2.4622642285856422E-3</v>
       </c>
       <c r="FV28">
         <f t="shared" si="11"/>
-        <v>-1.7333973515830103E-2</v>
+        <v>-1.733397351582866E-2</v>
       </c>
       <c r="FW28">
         <f t="shared" si="12"/>
-        <v>2.2221157753440095</v>
+        <v>2.2221157753440104</v>
       </c>
     </row>
     <row r="29" spans="1:179" x14ac:dyDescent="0.35">
@@ -16393,43 +16406,43 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="BX29">
-        <v>3.2476236197791639</v>
+        <v>0.25980988958233314</v>
       </c>
       <c r="BY29">
-        <v>15.836028823058445</v>
+        <v>1.2668823058446756</v>
       </c>
       <c r="BZ29">
-        <v>16.020846905537461</v>
+        <v>1.2816677524429969</v>
       </c>
       <c r="CA29">
-        <v>24.542135922330097</v>
+        <v>1.9633708737864077</v>
       </c>
       <c r="CB29">
-        <v>15.076716274603935</v>
+        <v>1.2061373019683148</v>
       </c>
       <c r="CC29">
-        <v>13.389992301770594</v>
+        <v>1.0711993841416476</v>
       </c>
       <c r="CD29">
-        <v>22.678323353293411</v>
+        <v>1.8142658682634729</v>
       </c>
       <c r="CE29">
-        <v>6.3888989441930626</v>
+        <v>0.51111191553544499</v>
       </c>
       <c r="CF29">
-        <v>18.411386138613857</v>
+        <v>1.4729108910891087</v>
       </c>
       <c r="CG29">
-        <v>30.366831683168311</v>
+        <v>2.4293465346534648</v>
       </c>
       <c r="CH29">
-        <v>28.914987714987713</v>
+        <v>2.3131990171990173</v>
       </c>
       <c r="CI29">
-        <v>8.3896805896805891</v>
+        <v>0.67117444717444719</v>
       </c>
       <c r="CJ29">
-        <v>6.1697525206232804</v>
+        <v>0.49358020164986244</v>
       </c>
       <c r="CK29">
         <v>367.98136645962728</v>
@@ -16585,43 +16598,43 @@
         <v>0.60317460317460314</v>
       </c>
       <c r="EK29">
-        <v>-0.43210122914547366</v>
+        <v>-0.43210122914547477</v>
       </c>
       <c r="EL29">
-        <v>2.2735433711169661</v>
+        <v>2.2735433711169635</v>
       </c>
       <c r="EM29">
         <v>1.7537346819358051</v>
       </c>
       <c r="EN29">
-        <v>2.4958359362882541</v>
+        <v>2.4958359362882492</v>
       </c>
       <c r="EO29">
-        <v>-0.23073454114902164</v>
+        <v>-0.23073454114902064</v>
       </c>
       <c r="EP29">
-        <v>0.26535336026313733</v>
+        <v>0.26535336026313716</v>
       </c>
       <c r="EQ29">
-        <v>1.733111765896076</v>
+        <v>1.7331117658960749</v>
       </c>
       <c r="ER29">
-        <v>-0.47252881066384217</v>
+        <v>-0.4725288106638415</v>
       </c>
       <c r="ES29">
-        <v>1.1509790435810621</v>
+        <v>1.1509790435810614</v>
       </c>
       <c r="ET29">
-        <v>2.3079364313390029</v>
+        <v>2.3079364313390021</v>
       </c>
       <c r="EU29">
-        <v>2.0691075943573498</v>
+        <v>2.069107594357352</v>
       </c>
       <c r="EV29">
-        <v>-0.31021923909325338</v>
+        <v>-0.310219239093252</v>
       </c>
       <c r="EW29">
-        <v>-0.62209593056582557</v>
+        <v>-0.62209593056582424</v>
       </c>
       <c r="EX29">
         <v>1.4959533361044757</v>
@@ -16661,11 +16674,11 @@
       </c>
       <c r="FK29">
         <f t="shared" si="1"/>
-        <v>-1.9280545652499494</v>
+        <v>-1.9280545652499503</v>
       </c>
       <c r="FL29">
         <f t="shared" si="2"/>
-        <v>4.2961973813916394</v>
+        <v>4.2961973813916359</v>
       </c>
       <c r="FM29">
         <f t="shared" si="3"/>
@@ -16673,39 +16686,39 @@
       </c>
       <c r="FN29">
         <f t="shared" si="4"/>
-        <v>2.5883235218838267</v>
+        <v>2.5883235218838219</v>
       </c>
       <c r="FO29">
         <f t="shared" si="13"/>
-        <v>3.3063563181321851</v>
+        <v>3.306356318132186</v>
       </c>
       <c r="FQ29">
         <f t="shared" si="6"/>
-        <v>1.352031331698502</v>
+        <v>1.3520313316985009</v>
       </c>
       <c r="FR29">
         <f t="shared" si="7"/>
-        <v>-0.15426291961946642</v>
+        <v>-0.15426291961946575</v>
       </c>
       <c r="FS29">
         <f t="shared" si="8"/>
-        <v>1.2356464838107615</v>
+        <v>1.2356464838107608</v>
       </c>
       <c r="FT29">
         <f t="shared" si="9"/>
-        <v>4.4293523711936036</v>
+        <v>4.4293523711936027</v>
       </c>
       <c r="FU29">
         <f t="shared" si="10"/>
-        <v>3.4783271650923853</v>
+        <v>3.478327165092387</v>
       </c>
       <c r="FV29">
         <f t="shared" si="11"/>
-        <v>0.94713930529363433</v>
+        <v>0.94713930529363577</v>
       </c>
       <c r="FW29">
         <f t="shared" si="12"/>
-        <v>-0.21189241876989551</v>
+        <v>-0.21189241876989418</v>
       </c>
     </row>
     <row r="30" spans="1:179" x14ac:dyDescent="0.35">
@@ -16917,43 +16930,43 @@
         <v>8</v>
       </c>
       <c r="BX30">
-        <v>2.935765722515602</v>
+        <v>0.23486125780124817</v>
       </c>
       <c r="BY30">
-        <v>5.6672538030424349</v>
+        <v>0.45338030424339482</v>
       </c>
       <c r="BZ30">
-        <v>4.200651465798046</v>
+        <v>0.33605211726384371</v>
       </c>
       <c r="CA30">
-        <v>16.125825242718445</v>
+        <v>1.2900660194174756</v>
       </c>
       <c r="CB30">
-        <v>29.680268843014886</v>
+        <v>2.3744215074411907</v>
       </c>
       <c r="CC30">
-        <v>9.4324865280985399</v>
+        <v>0.75459892224788316</v>
       </c>
       <c r="CD30">
-        <v>9.7916167664670635</v>
+        <v>0.78332934131736509</v>
       </c>
       <c r="CE30">
-        <v>10.159396681749623</v>
+        <v>0.81275173453996985</v>
       </c>
       <c r="CF30">
-        <v>15.115841584158414</v>
+        <v>1.2092673267326732</v>
       </c>
       <c r="CG30">
-        <v>31.915841584158414</v>
+        <v>2.5532673267326733</v>
       </c>
       <c r="CH30">
-        <v>26.046191646191645</v>
+        <v>2.0836953316953317</v>
       </c>
       <c r="CI30">
-        <v>8.3380835380835361</v>
+        <v>0.66704668304668291</v>
       </c>
       <c r="CJ30">
-        <v>-0.22584784601283187</v>
+        <v>-1.8067827681026549E-2</v>
       </c>
       <c r="CK30">
         <v>370.09316770186331</v>
@@ -17103,43 +17116,43 @@
         <v>6.1575918548030106</v>
       </c>
       <c r="EK30">
-        <v>-0.58467578301494838</v>
+        <v>-0.58467578301494982</v>
       </c>
       <c r="EL30">
-        <v>-0.32726741663428827</v>
+        <v>-0.32726741663428749</v>
       </c>
       <c r="EM30">
-        <v>-0.95427088902135304</v>
+        <v>-0.95427088902135282</v>
       </c>
       <c r="EN30">
-        <v>0.65602260784512834</v>
+        <v>0.65602260784512734</v>
       </c>
       <c r="EO30">
-        <v>2.506762068560036</v>
+        <v>2.5067620685600249</v>
       </c>
       <c r="EP30">
-        <v>-0.26938092631830951</v>
+        <v>-0.26938092631831018</v>
       </c>
       <c r="EQ30">
-        <v>-0.22131167584265071</v>
+        <v>-0.22131167584265027</v>
       </c>
       <c r="ER30">
-        <v>0.62065032892913119</v>
+        <v>0.6206503289291313</v>
       </c>
       <c r="ES30">
         <v>0.63023446042816655</v>
       </c>
       <c r="ET30">
-        <v>2.5117078822798677</v>
+        <v>2.5117078822798669</v>
       </c>
       <c r="EU30">
-        <v>1.7150281387150546</v>
+        <v>1.7150281387150563</v>
       </c>
       <c r="EV30">
-        <v>-0.31956319207799017</v>
+        <v>-0.31956319207798889</v>
       </c>
       <c r="EW30">
-        <v>-1.3739206500148184</v>
+        <v>-1.3739206500148164</v>
       </c>
       <c r="EX30">
         <v>1.7719877804907438</v>
@@ -17179,35 +17192,35 @@
       </c>
       <c r="FK30">
         <f t="shared" si="1"/>
-        <v>-2.3566635635056921</v>
+        <v>-2.3566635635056938</v>
       </c>
       <c r="FL30">
         <f t="shared" si="2"/>
-        <v>0.36373974276892918</v>
+        <v>0.36373974276892995</v>
       </c>
       <c r="FM30">
         <f t="shared" si="3"/>
-        <v>-1.8354253717132418</v>
+        <v>-1.8354253717132416</v>
       </c>
       <c r="FN30">
         <f t="shared" si="4"/>
-        <v>0.23315444002587848</v>
+        <v>0.23315444002587749</v>
       </c>
       <c r="FO30">
         <f t="shared" si="13"/>
-        <v>2.715587568305347</v>
+        <v>2.7155875683053359</v>
       </c>
       <c r="FP30">
         <f t="shared" si="5"/>
-        <v>0.50539034586839637</v>
+        <v>0.50539034586839571</v>
       </c>
       <c r="FQ30">
         <f t="shared" si="6"/>
-        <v>-0.16633919266990549</v>
+        <v>-0.16633919266990504</v>
       </c>
       <c r="FR30">
         <f t="shared" si="7"/>
-        <v>9.8283661614262829E-2</v>
+        <v>9.828366161426294E-2</v>
       </c>
       <c r="FS30">
         <f t="shared" si="8"/>
@@ -17215,15 +17228,15 @@
       </c>
       <c r="FT30">
         <f t="shared" si="9"/>
-        <v>3.4817795791578421</v>
+        <v>3.4817795791578412</v>
       </c>
       <c r="FU30">
         <f t="shared" si="10"/>
-        <v>2.0873912661647447</v>
+        <v>2.0873912661647465</v>
       </c>
       <c r="FV30">
         <f t="shared" si="11"/>
-        <v>-0.47700819304913467</v>
+        <v>-0.47700819304913333</v>
       </c>
     </row>
     <row r="31" spans="1:179" x14ac:dyDescent="0.35">
@@ -17453,43 +17466,43 @@
         <v>0</v>
       </c>
       <c r="BX31">
-        <v>3.2583773403744596</v>
+        <v>0.26067018722995677</v>
       </c>
       <c r="BY31">
-        <v>12.186389111289031</v>
+        <v>0.97491112890312259</v>
       </c>
       <c r="BZ31">
-        <v>6.577198697068404</v>
+        <v>0.5261758957654723</v>
       </c>
       <c r="CA31">
-        <v>11.384854368932038</v>
+        <v>0.910788349514563</v>
       </c>
       <c r="CB31">
-        <v>15.388574171867496</v>
+        <v>1.2310859337493998</v>
       </c>
       <c r="CC31">
-        <v>5.8715935334872977</v>
+        <v>0.46972748267898384</v>
       </c>
       <c r="CD31">
-        <v>5.3451497005988013</v>
+        <v>0.42761197604790413</v>
       </c>
       <c r="CE31">
-        <v>2.9326093514328813</v>
+        <v>0.23460874811463051</v>
       </c>
       <c r="CF31">
-        <v>5.1252475247524742</v>
+        <v>0.41001980198019794</v>
       </c>
       <c r="CG31">
-        <v>16.945544554455441</v>
+        <v>1.3556435643564353</v>
       </c>
       <c r="CH31">
-        <v>4.7366093366093356</v>
+        <v>0.37892874692874684</v>
       </c>
       <c r="CI31">
-        <v>4.8398034398034397</v>
+        <v>0.38718427518427517</v>
       </c>
       <c r="CJ31">
-        <v>16.856461961503204</v>
+        <v>1.3485169569202564</v>
       </c>
       <c r="CK31">
         <v>350.71739130434781</v>
@@ -17648,43 +17661,43 @@
         <v>1.3945578231292517</v>
       </c>
       <c r="EK31">
-        <v>-0.42684003763273293</v>
+        <v>-0.42684003763273415</v>
       </c>
       <c r="EL31">
-        <v>1.3400954076118865</v>
+        <v>1.3400954076118852</v>
       </c>
       <c r="EM31">
-        <v>-0.40980416046912038</v>
+        <v>-0.40980416046912027</v>
       </c>
       <c r="EN31">
-        <v>-0.38035802678174851</v>
+        <v>-0.38035802678174724</v>
       </c>
       <c r="EO31">
-        <v>-0.17227548247334978</v>
+        <v>-0.17227548247334884</v>
       </c>
       <c r="EP31">
-        <v>-0.75052528439704103</v>
+        <v>-0.75052528439704191</v>
       </c>
       <c r="EQ31">
-        <v>-0.89567167681729309</v>
+        <v>-0.8956716768172921</v>
       </c>
       <c r="ER31">
-        <v>-1.474609688624068</v>
+        <v>-1.4746096886240667</v>
       </c>
       <c r="ES31">
-        <v>-0.94842656294701644</v>
+        <v>-0.94842656294701444</v>
       </c>
       <c r="ET31">
-        <v>0.54237305439500572</v>
+        <v>0.54237305439500538</v>
       </c>
       <c r="EU31">
-        <v>-0.91509443646962063</v>
+        <v>-0.91509443646962152</v>
       </c>
       <c r="EV31">
-        <v>-0.95308320444312777</v>
+        <v>-0.95308320444312544</v>
       </c>
       <c r="EW31">
-        <v>0.63416335185215456</v>
+        <v>0.634163351852155</v>
       </c>
       <c r="EX31">
         <v>-0.7606282467532598</v>
@@ -17727,55 +17740,55 @@
       </c>
       <c r="FK31">
         <f t="shared" si="1"/>
-        <v>0.33378820912052687</v>
+        <v>0.33378820912052565</v>
       </c>
       <c r="FL31">
         <f t="shared" si="2"/>
-        <v>1.3652791415793881</v>
+        <v>1.3652791415793868</v>
       </c>
       <c r="FM31">
         <f t="shared" si="3"/>
-        <v>-1.8240414262842202</v>
+        <v>-1.8240414262842199</v>
       </c>
       <c r="FN31">
         <f t="shared" si="4"/>
-        <v>-0.96179719565171373</v>
+        <v>-0.9617971956517124</v>
       </c>
       <c r="FO31">
         <f t="shared" si="13"/>
-        <v>-0.45051320607475065</v>
+        <v>-0.45051320607474971</v>
       </c>
       <c r="FP31">
         <f t="shared" si="5"/>
-        <v>-8.7462646744041583E-2</v>
+        <v>-8.7462646744042472E-2</v>
       </c>
       <c r="FQ31">
         <f t="shared" si="6"/>
-        <v>-0.74007159732832661</v>
+        <v>-0.74007159732832561</v>
       </c>
       <c r="FR31">
         <f t="shared" si="7"/>
-        <v>-1.212385968136978</v>
+        <v>-1.2123859681369766</v>
       </c>
       <c r="FS31">
         <f t="shared" si="8"/>
-        <v>-1.3857287407174033</v>
+        <v>-1.3857287407174015</v>
       </c>
       <c r="FT31">
         <f t="shared" si="9"/>
-        <v>1.9778046867891281</v>
+        <v>1.9778046867891279</v>
       </c>
       <c r="FU31">
         <f t="shared" si="10"/>
-        <v>-1.8017712758664088</v>
+        <v>-1.8017712758664097</v>
       </c>
       <c r="FV31">
         <f t="shared" si="11"/>
-        <v>-0.12016572366364975</v>
+        <v>-0.12016572366364742</v>
       </c>
       <c r="FW31">
         <f t="shared" si="12"/>
-        <v>0.4182396743228296</v>
+        <v>0.41823967432283005</v>
       </c>
     </row>
     <row r="32" spans="1:179" x14ac:dyDescent="0.35">
@@ -18005,43 +18018,43 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="BX32">
-        <v>2.6024003840614496</v>
+        <v>0.20819203072491596</v>
       </c>
       <c r="BY32">
-        <v>7.6310648518815052</v>
+        <v>0.61048518815052044</v>
       </c>
       <c r="BZ32">
-        <v>7.4110749185667739</v>
+        <v>0.59288599348534188</v>
       </c>
       <c r="CA32">
-        <v>11.863300970873786</v>
+        <v>0.94906407766990286</v>
       </c>
       <c r="CB32">
-        <v>21.184829572731637</v>
+        <v>1.6947863658185309</v>
       </c>
       <c r="CC32">
-        <v>21.279137798306394</v>
+        <v>1.7023310238645115</v>
       </c>
       <c r="CD32">
-        <v>20.807185628742516</v>
+        <v>1.6645748502994013</v>
       </c>
       <c r="CE32">
-        <v>13.524464555052791</v>
+        <v>1.0819571644042234</v>
       </c>
       <c r="CF32">
-        <v>15.937128712871285</v>
+        <v>1.2749702970297028</v>
       </c>
       <c r="CG32">
-        <v>17.83960396039604</v>
+        <v>1.4271683168316833</v>
       </c>
       <c r="CH32">
-        <v>31.195577395577391</v>
+        <v>2.4956461916461912</v>
       </c>
       <c r="CI32">
-        <v>9.7621621621621593</v>
+        <v>0.78097297297297275</v>
       </c>
       <c r="CJ32">
-        <v>25.110174152153981</v>
+        <v>2.0088139321723184</v>
       </c>
       <c r="CK32">
         <v>352.56521739130432</v>
@@ -18197,43 +18210,43 @@
         <v>7.7573696145124718</v>
       </c>
       <c r="EK32">
-        <v>-0.74777271990990413</v>
+        <v>-0.74777271990990579</v>
       </c>
       <c r="EL32">
-        <v>0.17500556618539836</v>
+        <v>0.17500556618539839</v>
       </c>
       <c r="EM32">
-        <v>-0.21876320308237235</v>
+        <v>-0.21876320308237232</v>
       </c>
       <c r="EN32">
-        <v>-0.27576915539738472</v>
+        <v>-0.27576915539738361</v>
       </c>
       <c r="EO32">
-        <v>0.91425667705034841</v>
+        <v>0.91425667705034441</v>
       </c>
       <c r="EP32">
-        <v>1.3313269380888981</v>
+        <v>1.3313269380888983</v>
       </c>
       <c r="EQ32">
-        <v>1.4493313129972449</v>
+        <v>1.449331312997244</v>
       </c>
       <c r="ER32">
-        <v>1.5962833244798498</v>
+        <v>1.5962833244798496</v>
       </c>
       <c r="ES32">
-        <v>0.76000992436847825</v>
+        <v>0.7600099243684777</v>
       </c>
       <c r="ET32">
-        <v>0.65998610661590784</v>
+        <v>0.65998610661590762</v>
       </c>
       <c r="EU32">
-        <v>2.3505880249219082</v>
+        <v>2.35058802492191</v>
       </c>
       <c r="EV32">
-        <v>-6.1670089699261625E-2</v>
+        <v>-6.1670089699260827E-2</v>
       </c>
       <c r="EW32">
-        <v>1.6044154777542257</v>
+        <v>1.604415477754225</v>
       </c>
       <c r="EX32">
         <v>-0.519098107915278</v>
@@ -18273,11 +18286,11 @@
       </c>
       <c r="FK32">
         <f t="shared" si="1"/>
-        <v>-0.22867461199462613</v>
+        <v>-0.2286746119946278</v>
       </c>
       <c r="FL32">
         <f t="shared" si="2"/>
-        <v>-0.13272241256495193</v>
+        <v>-0.1327224125649519</v>
       </c>
       <c r="FM32">
         <f t="shared" si="3"/>
@@ -18285,39 +18298,39 @@
       </c>
       <c r="FN32">
         <f t="shared" si="4"/>
-        <v>0.29243143335033855</v>
+        <v>0.29243143335033966</v>
       </c>
       <c r="FP32">
         <f t="shared" si="5"/>
-        <v>1.7151179894076463</v>
+        <v>1.7151179894076467</v>
       </c>
       <c r="FQ32">
         <f t="shared" si="6"/>
-        <v>2.7789200161755225</v>
+        <v>2.7789200161755216</v>
       </c>
       <c r="FR32">
         <f t="shared" si="7"/>
-        <v>1.9705913860815043</v>
+        <v>1.9705913860815039</v>
       </c>
       <c r="FS32">
         <f t="shared" si="8"/>
-        <v>3.6782267194557861</v>
+        <v>3.6782267194557852</v>
       </c>
       <c r="FT32">
         <f t="shared" si="9"/>
-        <v>0.70275252318339365</v>
+        <v>0.70275252318339343</v>
       </c>
       <c r="FU32">
         <f t="shared" si="10"/>
-        <v>2.7599817396317934</v>
+        <v>2.7599817396317952</v>
       </c>
       <c r="FV32">
         <f t="shared" si="11"/>
-        <v>-0.64355615427781576</v>
+        <v>-0.64355615427781498</v>
       </c>
       <c r="FW32">
         <f t="shared" si="12"/>
-        <v>1.7015553948875231</v>
+        <v>1.7015553948875224</v>
       </c>
     </row>
     <row r="33" spans="1:179" x14ac:dyDescent="0.35">
@@ -18538,43 +18551,43 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="BX33">
-        <v>2.2905424867978876</v>
+        <v>0.18324339894383102</v>
       </c>
       <c r="BY33">
-        <v>3.5958366693354682</v>
+        <v>0.28766693354683748</v>
       </c>
       <c r="BZ33">
-        <v>6.1811074918566788</v>
+        <v>0.49448859934853434</v>
       </c>
       <c r="CA33">
-        <v>7.5899029126213602</v>
+        <v>0.60719223300970881</v>
       </c>
       <c r="CB33">
-        <v>10.775228036485839</v>
+        <v>0.86201824291886708</v>
       </c>
       <c r="CC33">
-        <v>21.425712086220173</v>
+        <v>1.7140569668976138</v>
       </c>
       <c r="CD33">
-        <v>10.546107784431136</v>
+        <v>0.84368862275449086</v>
       </c>
       <c r="CE33">
-        <v>5.1219306184012074</v>
+        <v>0.4097544494720966</v>
       </c>
       <c r="CF33">
-        <v>9.3772277227722753</v>
+        <v>0.75017821782178207</v>
       </c>
       <c r="CG33">
-        <v>17.777227722772274</v>
+        <v>1.4221782178217819</v>
       </c>
       <c r="CH33">
-        <v>7.3886977886977885</v>
+        <v>0.59109582309582309</v>
       </c>
       <c r="CI33">
-        <v>10.236855036855035</v>
+        <v>0.81894840294840276</v>
       </c>
       <c r="CJ33">
-        <v>19.063611365719524</v>
+        <v>1.5250889092575619</v>
       </c>
       <c r="CK33">
         <v>353.30434782608694</v>
@@ -18730,40 +18743,40 @@
         <v>2.6643990929705215</v>
       </c>
       <c r="EK33">
-        <v>-0.90034727377937884</v>
+        <v>-0.90034727377938062</v>
       </c>
       <c r="EL33">
-        <v>-0.85706220673176636</v>
+        <v>-0.85706220673176492</v>
       </c>
       <c r="EM33">
-        <v>-0.50054861522782557</v>
+        <v>-0.50054861522782534</v>
       </c>
       <c r="EN33">
-        <v>-1.2099379384440876</v>
+        <v>-1.2099379384440845</v>
       </c>
       <c r="EO33">
-        <v>-1.0370663849513944</v>
+        <v>-1.0370663849513899</v>
       </c>
       <c r="EP33">
         <v>1.3511319116659888</v>
       </c>
       <c r="EQ33">
-        <v>-0.1068840738673153</v>
+        <v>-0.10688407386731505</v>
       </c>
       <c r="ER33">
-        <v>-0.83986051079588975</v>
+        <v>-0.83986051079588875</v>
       </c>
       <c r="ES33">
-        <v>-0.27655105976236527</v>
+        <v>-0.2765510597623641</v>
       </c>
       <c r="ET33">
-        <v>0.6517805448330537</v>
+        <v>0.65178054483305325</v>
       </c>
       <c r="EU33">
-        <v>-0.58776199006649144</v>
+        <v>-0.58776199006649188</v>
       </c>
       <c r="EV33">
-        <v>2.4294277760314769E-2</v>
+        <v>2.4294277760315359E-2</v>
       </c>
       <c r="EW33">
         <v>0.89362132084338064</v>
@@ -18806,19 +18819,19 @@
       </c>
       <c r="FK33">
         <f t="shared" si="1"/>
-        <v>-0.47786122139929654</v>
+        <v>-0.47786122139929832</v>
       </c>
       <c r="FL33">
         <f t="shared" si="2"/>
-        <v>-1.7640312683742811</v>
+        <v>-1.7640312683742798</v>
       </c>
       <c r="FM33">
         <f t="shared" si="3"/>
-        <v>-1.5949362111690002</v>
+        <v>-1.594936211169</v>
       </c>
       <c r="FN33">
         <f t="shared" si="4"/>
-        <v>-0.52280909890833005</v>
+        <v>-0.52280909890832694</v>
       </c>
       <c r="FP33">
         <f t="shared" si="5"/>
@@ -18826,27 +18839,27 @@
       </c>
       <c r="FQ33">
         <f t="shared" si="6"/>
-        <v>0.75310917983524073</v>
+        <v>0.75310917983524095</v>
       </c>
       <c r="FR33">
         <f t="shared" si="7"/>
-        <v>-0.68972113142336422</v>
+        <v>-0.68972113142336322</v>
       </c>
       <c r="FS33">
         <f t="shared" si="8"/>
-        <v>0.62835435161033126</v>
+        <v>0.62835435161033248</v>
       </c>
       <c r="FT33">
         <f t="shared" si="9"/>
-        <v>1.5301460908965185</v>
+        <v>1.5301460908965181</v>
       </c>
       <c r="FU33">
         <f t="shared" si="10"/>
-        <v>-1.9558364638457597</v>
+        <v>-1.9558364638457602</v>
       </c>
       <c r="FV33">
         <f t="shared" si="11"/>
-        <v>-1.4772140913009604</v>
+        <v>-1.4772140913009597</v>
       </c>
       <c r="FW33">
         <f t="shared" si="12"/>
@@ -19077,43 +19090,43 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="BX34">
-        <v>3.5379740758521363</v>
+        <v>0.28303792606817091</v>
       </c>
       <c r="BY34">
-        <v>4.4925540432345876</v>
+        <v>0.35940432345876699</v>
       </c>
       <c r="BZ34">
-        <v>10.381758957654725</v>
+        <v>0.83054071661237805</v>
       </c>
       <c r="CA34">
-        <v>15.940970873786409</v>
+        <v>1.2752776699029127</v>
       </c>
       <c r="CB34">
-        <v>21.883821411425828</v>
+        <v>1.7507057129140662</v>
       </c>
       <c r="CC34">
-        <v>4.9145496535796775</v>
+        <v>0.39316397228637423</v>
       </c>
       <c r="CD34">
-        <v>5.3451497005988013</v>
+        <v>0.42761197604790413</v>
       </c>
       <c r="CE34">
-        <v>7.6254600301659128</v>
+        <v>0.61003680241327307</v>
       </c>
       <c r="CF34">
-        <v>9.7826732673267323</v>
+        <v>0.78261386138613864</v>
       </c>
       <c r="CG34">
-        <v>5.3454545454545439</v>
+        <v>0.42763636363636354</v>
       </c>
       <c r="CH34">
-        <v>5.634398034398032</v>
+        <v>0.45075184275184255</v>
       </c>
       <c r="CI34">
-        <v>23.507616707616705</v>
+        <v>1.8806093366093364</v>
       </c>
       <c r="CJ34">
-        <v>4.3835013748854257</v>
+        <v>0.35068010999083404</v>
       </c>
       <c r="CK34">
         <v>352.56521739130432</v>
@@ -19272,43 +19285,43 @@
         <v>0.16780045351473924</v>
       </c>
       <c r="EK34">
-        <v>-0.29004905830147948</v>
+        <v>-0.29004905830148059</v>
       </c>
       <c r="EL34">
-        <v>-0.62771381275017424</v>
+        <v>-0.62771381275017324</v>
       </c>
       <c r="EM34">
-        <v>0.46182020760791936</v>
+        <v>0.46182020760791959</v>
       </c>
       <c r="EN34">
-        <v>0.61561327117389741</v>
+        <v>0.61561327117389664</v>
       </c>
       <c r="EO34">
-        <v>1.0452856016682339</v>
+        <v>1.0452856016682295</v>
       </c>
       <c r="EP34">
-        <v>-0.87984011187098565</v>
+        <v>-0.87984011187098654</v>
       </c>
       <c r="EQ34">
-        <v>-0.89567167681729309</v>
+        <v>-0.8956716768172921</v>
       </c>
       <c r="ER34">
-        <v>-0.11401307133496388</v>
+        <v>-0.11401307133496323</v>
       </c>
       <c r="ES34">
-        <v>-0.21248469148803398</v>
+        <v>-0.2124846914880329</v>
       </c>
       <c r="ET34">
-        <v>-0.98361278382840267</v>
+        <v>-0.98361278382840223</v>
       </c>
       <c r="EU34">
-        <v>-0.8042853981930751</v>
+        <v>-0.80428539819307587</v>
       </c>
       <c r="EV34">
-        <v>2.4275589854345547</v>
+        <v>2.4275589854345512</v>
       </c>
       <c r="EW34">
-        <v>-0.83207586826104984</v>
+        <v>-0.83207586826104829</v>
       </c>
       <c r="EX34">
         <v>-0.519098107915278</v>
@@ -19351,55 +19364,55 @@
       </c>
       <c r="FK34">
         <f t="shared" si="1"/>
-        <v>0.22904904961379852</v>
+        <v>0.22904904961379741</v>
       </c>
       <c r="FL34">
         <f t="shared" si="2"/>
-        <v>-1.4015181893055386</v>
+        <v>-1.4015181893055377</v>
       </c>
       <c r="FM34">
         <f t="shared" si="3"/>
-        <v>-0.84580050158254116</v>
+        <v>-0.84580050158254094</v>
       </c>
       <c r="FN34">
         <f t="shared" si="4"/>
-        <v>1.1838138599216208</v>
+        <v>1.1838138599216199</v>
       </c>
       <c r="FO34">
         <f t="shared" si="13"/>
-        <v>1.0917566936313148</v>
+        <v>1.0917566936313103</v>
       </c>
       <c r="FP34">
         <f t="shared" si="5"/>
-        <v>-1.0545922332207398</v>
+        <v>-1.0545922332207407</v>
       </c>
       <c r="FQ34">
         <f t="shared" si="6"/>
-        <v>-2.1488579457554877</v>
+        <v>-2.1488579457554868</v>
       </c>
       <c r="FR34">
         <f t="shared" si="7"/>
-        <v>-7.5958033077002857E-2</v>
+        <v>-7.5958033077002204E-2</v>
       </c>
       <c r="FS34">
         <f t="shared" si="8"/>
-        <v>0.54328654331320725</v>
+        <v>0.54328654331320836</v>
       </c>
       <c r="FT34">
         <f t="shared" si="9"/>
-        <v>-0.90105593252301319</v>
+        <v>-0.90105593252301275</v>
       </c>
       <c r="FU34">
         <f t="shared" si="10"/>
-        <v>-0.35786109622300422</v>
+        <v>-0.35786109622300499</v>
       </c>
       <c r="FV34">
         <f t="shared" si="11"/>
-        <v>2.9775157571424264</v>
+        <v>2.9775157571424229</v>
       </c>
       <c r="FW34">
         <f t="shared" si="12"/>
-        <v>-1.808296847113898</v>
+        <v>-1.8082968471138963</v>
       </c>
     </row>
     <row r="35" spans="1:179" x14ac:dyDescent="0.35">
@@ -19629,43 +19642,43 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="BX35">
-        <v>3.9466154584733553</v>
+        <v>0.31572923667786845</v>
       </c>
       <c r="BY35">
-        <v>5.4699759807846267</v>
+        <v>0.43759807846277016</v>
       </c>
       <c r="BZ35">
-        <v>7.8592833876221491</v>
+        <v>0.62874267100977199</v>
       </c>
       <c r="CA35">
-        <v>20.399223300970874</v>
+        <v>1.6319378640776701</v>
       </c>
       <c r="CB35">
-        <v>15.517618819011039</v>
+        <v>1.2414095055208831</v>
       </c>
       <c r="CC35">
-        <v>4.7765973826020023</v>
+        <v>0.38212779060816021</v>
       </c>
       <c r="CD35">
-        <v>4.8823952095808369</v>
+        <v>0.39059161676646698</v>
       </c>
       <c r="CE35">
-        <v>5.8111613876319765</v>
+        <v>0.46489291101055813</v>
       </c>
       <c r="CF35">
-        <v>5.7490099009900977</v>
+        <v>0.45992079207920783</v>
       </c>
       <c r="CG35">
-        <v>6.2329238329238308</v>
+        <v>0.4986339066339065</v>
       </c>
       <c r="CH35">
-        <v>20.494348894348892</v>
+        <v>1.6395479115479115</v>
       </c>
       <c r="CI35">
-        <v>19.183783783783781</v>
+        <v>1.5347027027027025</v>
       </c>
       <c r="CJ35">
-        <v>7.463244729605865</v>
+        <v>0.59705957836846923</v>
       </c>
       <c r="CK35">
         <v>356.26086956521738</v>
@@ -19824,43 +19837,43 @@
         <v>0.91609977324263026</v>
       </c>
       <c r="EK35">
-        <v>-9.0123780817340196E-2</v>
+        <v>-9.0123780817340959E-2</v>
       </c>
       <c r="EL35">
-        <v>-0.377724063310239</v>
+        <v>-0.37772406331023822</v>
       </c>
       <c r="EM35">
-        <v>-0.11607868848699497</v>
+        <v>-0.11607868848699467</v>
       </c>
       <c r="EN35">
-        <v>1.5901913908918321</v>
+        <v>1.5901913908918295</v>
       </c>
       <c r="EO35">
-        <v>-0.14808552715927864</v>
+        <v>-0.14808552715927795</v>
       </c>
       <c r="EP35">
-        <v>-0.89848008700236504</v>
+        <v>-0.89848008700236592</v>
       </c>
       <c r="EQ35">
-        <v>-0.96585393936216546</v>
+        <v>-0.96585393936216435</v>
       </c>
       <c r="ER35">
-        <v>-0.64003206592405593</v>
+        <v>-0.64003206592405504</v>
       </c>
       <c r="ES35">
-        <v>-0.8498629194480456</v>
+        <v>-0.84986291944804371</v>
       </c>
       <c r="ET35">
-        <v>-0.86686665828234821</v>
+        <v>-0.86686665828234788</v>
       </c>
       <c r="EU35">
-        <v>1.0297952353497493</v>
+        <v>1.0297952353497504</v>
       </c>
       <c r="EV35">
-        <v>1.6445357253136319</v>
+        <v>1.6445357253136297</v>
       </c>
       <c r="EW35">
-        <v>-0.47004149292445613</v>
+        <v>-0.47004149292445496</v>
       </c>
       <c r="EX35">
         <v>-3.6037830239306887E-2</v>
@@ -19903,55 +19916,55 @@
       </c>
       <c r="FK35">
         <f t="shared" si="1"/>
-        <v>-5.4085950578033309E-2</v>
+        <v>-5.4085950578034073E-2</v>
       </c>
       <c r="FL35">
         <f t="shared" si="2"/>
-        <v>-1.2846931249527538</v>
+        <v>-1.2846931249527529</v>
       </c>
       <c r="FM35">
         <f t="shared" si="3"/>
-        <v>-1.263774562740489</v>
+        <v>-1.2637745627404888</v>
       </c>
       <c r="FN35">
         <f t="shared" si="4"/>
-        <v>2.4358912314783048</v>
+        <v>2.4358912314783021</v>
       </c>
       <c r="FO35">
         <f t="shared" si="13"/>
-        <v>-0.87279787216183702</v>
+        <v>-0.87279787216183635</v>
       </c>
       <c r="FP35">
         <f t="shared" si="5"/>
-        <v>-1.1849408428858257</v>
+        <v>-1.1849408428858266</v>
       </c>
       <c r="FQ35">
         <f t="shared" si="6"/>
-        <v>-0.37420094250287972</v>
+        <v>-0.37420094250287861</v>
       </c>
       <c r="FR35">
         <f t="shared" si="7"/>
-        <v>0.1265711895785705</v>
+        <v>0.12657118957857139</v>
       </c>
       <c r="FS35">
         <f t="shared" si="8"/>
-        <v>-1.2871650972184325</v>
+        <v>-1.2871650972184305</v>
       </c>
       <c r="FT35">
         <f t="shared" si="9"/>
-        <v>-1.8188611101624714</v>
+        <v>-1.8188611101624712</v>
       </c>
       <c r="FU35">
         <f t="shared" si="10"/>
-        <v>4.5497582799156566</v>
+        <v>4.5497582799156575</v>
       </c>
       <c r="FV35">
         <f t="shared" si="11"/>
-        <v>4.5289183468622563</v>
+        <v>4.5289183468622545</v>
       </c>
       <c r="FW35">
         <f t="shared" si="12"/>
-        <v>-0.68596517045378103</v>
+        <v>-0.68596517045377992</v>
       </c>
     </row>
     <row r="36" spans="1:179" x14ac:dyDescent="0.35">
@@ -20181,43 +20194,43 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="BX36">
-        <v>2.6131541046567452</v>
+        <v>0.20905232837253962</v>
       </c>
       <c r="BY36">
-        <v>6.9405924739791827</v>
+        <v>0.55524739791833466</v>
       </c>
       <c r="BZ36">
-        <v>4.7530944625407159</v>
+        <v>0.3802475570032573</v>
       </c>
       <c r="CA36">
-        <v>7.4050485436893201</v>
+        <v>0.59240388349514561</v>
       </c>
       <c r="CB36">
-        <v>26.411137782045124</v>
+        <v>2.1128910225636099</v>
       </c>
       <c r="CC36">
-        <v>5.0611239414934577</v>
+        <v>0.4048899153194766</v>
       </c>
       <c r="CD36">
-        <v>13.181796407185628</v>
+        <v>1.0545437125748502</v>
       </c>
       <c r="CE36">
-        <v>6.8247360482654607</v>
+        <v>0.54597888386123683</v>
       </c>
       <c r="CF36">
-        <v>5.4163366336633647</v>
+        <v>0.43330693069306919</v>
       </c>
       <c r="CG36">
-        <v>6.2948402948402933</v>
+        <v>0.50358722358722352</v>
       </c>
       <c r="CH36">
-        <v>3.735626535626535</v>
+        <v>0.2988501228501228</v>
       </c>
       <c r="CI36">
-        <v>7.0481572481572465</v>
+        <v>0.56385257985257975</v>
       </c>
       <c r="CJ36">
-        <v>5.9336388634280475</v>
+        <v>0.47469110907424383</v>
       </c>
       <c r="CK36">
         <v>354.41304347826082</v>
@@ -20376,43 +20389,43 @@
         <v>1.1950113378684806</v>
       </c>
       <c r="EK36">
-        <v>-0.74251152839716339</v>
+        <v>-0.74251152839716505</v>
       </c>
       <c r="EL36">
-        <v>-1.5926971804277787E-3</v>
+        <v>-1.5926971804274359E-3</v>
       </c>
       <c r="EM36">
-        <v>-0.8277062547526326</v>
+        <v>-0.82770625475263226</v>
       </c>
       <c r="EN36">
-        <v>-1.2503472751153193</v>
+        <v>-1.2503472751153162</v>
       </c>
       <c r="EO36">
-        <v>1.8939498672702311</v>
+        <v>1.8939498672702231</v>
       </c>
       <c r="EP36">
-        <v>-0.86003513829389489</v>
+        <v>-0.860035138293896</v>
       </c>
       <c r="EQ36">
-        <v>0.2928496823665227</v>
+        <v>0.29284968236652276</v>
       </c>
       <c r="ER36">
-        <v>-0.34616670581841785</v>
+        <v>-0.3461667058184173</v>
       </c>
       <c r="ES36">
-        <v>-0.90243019598083019</v>
+        <v>-0.90243019598082819</v>
       </c>
       <c r="ET36">
-        <v>-0.85872157975587926</v>
+        <v>-0.85872157975587882</v>
       </c>
       <c r="EU36">
-        <v>-1.0386401458124359</v>
+        <v>-1.0386401458124368</v>
       </c>
       <c r="EV36">
-        <v>-0.55316201669640375</v>
+        <v>-0.55316201669640208</v>
       </c>
       <c r="EW36">
-        <v>-0.64985189934163101</v>
+        <v>-0.64985189934162957</v>
       </c>
       <c r="EX36">
         <v>-0.27756796907729614</v>
@@ -20455,55 +20468,55 @@
       </c>
       <c r="FK36">
         <f t="shared" si="1"/>
-        <v>-0.46494355931986725</v>
+        <v>-0.46494355931986892</v>
       </c>
       <c r="FL36">
         <f t="shared" si="2"/>
-        <v>-0.11486039356532184</v>
+        <v>-0.1148603935653215</v>
       </c>
       <c r="FM36">
         <f t="shared" si="3"/>
-        <v>-2.0820186856307736</v>
+        <v>-2.0820186856307732</v>
       </c>
       <c r="FN36">
         <f t="shared" si="4"/>
-        <v>-1.5542871921465304</v>
+        <v>-1.5542871921465273</v>
       </c>
       <c r="FO36">
         <f t="shared" si="13"/>
-        <v>1.49394633783215</v>
+        <v>1.493946337832142</v>
       </c>
       <c r="FP36">
         <f t="shared" si="5"/>
-        <v>-1.7050390668458579</v>
+        <v>-1.705039066845859</v>
       </c>
       <c r="FQ36">
         <f t="shared" si="6"/>
-        <v>0.24719456922303759</v>
+        <v>0.24719456922303765</v>
       </c>
       <c r="FR36">
         <f t="shared" si="7"/>
-        <v>-0.92457554369056494</v>
+        <v>-0.92457554369056427</v>
       </c>
       <c r="FS36">
         <f t="shared" si="8"/>
-        <v>-1.936269080037031</v>
+        <v>-1.9362690800370292</v>
       </c>
       <c r="FT36">
         <f t="shared" si="9"/>
-        <v>-1.7311351621601951</v>
+        <v>-1.7311351621601947</v>
       </c>
       <c r="FU36">
         <f t="shared" si="10"/>
-        <v>-0.62924643110255074</v>
+        <v>-0.62924643110255163</v>
       </c>
       <c r="FV36">
         <f t="shared" si="11"/>
-        <v>-0.56912666313174498</v>
+        <v>-0.56912666313174332</v>
       </c>
       <c r="FW36">
         <f t="shared" si="12"/>
-        <v>2.7120940764162147</v>
+        <v>2.712094076416216</v>
       </c>
     </row>
     <row r="37" spans="1:179" x14ac:dyDescent="0.35">
@@ -20694,34 +20707,34 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="BX37">
-        <v>2.8247557003257331</v>
+        <v>0.22598045602605865</v>
       </c>
       <c r="BY37">
-        <v>10.491593274619696</v>
+        <v>0.83932746196957564</v>
       </c>
       <c r="CB37">
-        <v>22.260201632261165</v>
+        <v>1.7808161305808932</v>
       </c>
       <c r="CC37">
-        <v>15.562740569668977</v>
+        <v>1.2450192455735181</v>
       </c>
       <c r="CD37">
-        <v>14.539880239520958</v>
+        <v>1.1631904191616766</v>
       </c>
       <c r="CE37">
-        <v>6.8855505279034688</v>
+        <v>0.55084404223227756</v>
       </c>
       <c r="CG37">
-        <v>13.229484029484027</v>
+        <v>1.0583587223587221</v>
       </c>
       <c r="CH37">
-        <v>26.190663390663389</v>
+        <v>2.095253071253071</v>
       </c>
       <c r="CI37">
-        <v>4.313513513513513</v>
+        <v>0.34508108108108104</v>
       </c>
       <c r="CJ37">
-        <v>0.56461961503208113</v>
+        <v>4.5169569202566491E-2</v>
       </c>
       <c r="CK37">
         <v>362.91304347826087</v>
@@ -20835,34 +20848,43 @@
         <v>3.1606905710491366</v>
       </c>
       <c r="EK37">
-        <v>-0.63898675207899436</v>
+        <v>-0.6389867520789958</v>
       </c>
       <c r="EL37">
-        <v>0.90662694298667734</v>
+        <v>0.90662694298667623</v>
+      </c>
+      <c r="EM37">
+        <v>-1.9166397118570977</v>
+      </c>
+      <c r="EN37">
+        <v>-2.8690977617687605</v>
       </c>
       <c r="EO37">
-        <v>1.1158396380009423</v>
+        <v>1.1158396380009374</v>
       </c>
       <c r="EP37">
-        <v>0.55893296858236308</v>
+        <v>0.55893296858236274</v>
       </c>
       <c r="EQ37">
-        <v>0.49881936592212633</v>
+        <v>0.49881936592212622</v>
       </c>
       <c r="ER37">
-        <v>-0.32853478421207982</v>
+        <v>-0.32853478421207899</v>
+      </c>
+      <c r="ES37">
+        <v>-1.7582911670302235</v>
       </c>
       <c r="ET37">
-        <v>5.3527215208639775E-2</v>
+        <v>5.3527215208639532E-2</v>
       </c>
       <c r="EU37">
-        <v>1.7328594782078319</v>
+        <v>1.7328594782078335</v>
       </c>
       <c r="EV37">
-        <v>-1.0483915248874407</v>
+        <v>-1.048391524887438</v>
       </c>
       <c r="EW37">
-        <v>-1.2809984936784262</v>
+        <v>-1.2809984936784242</v>
       </c>
       <c r="EX37">
         <v>0.83347066957743965</v>
@@ -20896,39 +20918,39 @@
       </c>
       <c r="FK37">
         <f t="shared" si="1"/>
-        <v>-1.4724574216564341</v>
+        <v>-1.4724574216564355</v>
       </c>
       <c r="FL37">
         <f t="shared" si="2"/>
-        <v>1.1209842140543897</v>
+        <v>1.1209842140543886</v>
       </c>
       <c r="FO37">
         <f t="shared" si="13"/>
-        <v>0.87819051634510004</v>
+        <v>0.87819051634509515</v>
       </c>
       <c r="FP37">
         <f t="shared" si="5"/>
-        <v>-0.59299319841615838</v>
+        <v>-0.59299319841615872</v>
       </c>
       <c r="FQ37">
         <f t="shared" si="6"/>
-        <v>-0.21768638932952761</v>
+        <v>-0.21768638932952772</v>
       </c>
       <c r="FR37">
         <f t="shared" si="7"/>
-        <v>-0.17839540483955432</v>
+        <v>-0.17839540483955349</v>
       </c>
       <c r="FT37">
         <f t="shared" si="9"/>
-        <v>-6.2868107175499482E-2</v>
+        <v>-6.2868107175499732E-2</v>
       </c>
       <c r="FU37">
         <f t="shared" si="10"/>
-        <v>3.4012931597642</v>
+        <v>3.4012931597642018</v>
       </c>
       <c r="FV37">
         <f t="shared" si="11"/>
-        <v>-1.1350963485906915</v>
+        <v>-1.1350963485906889</v>
       </c>
     </row>
   </sheetData>

--- a/GreenIguanaMasterSpring2021.xlsx
+++ b/GreenIguanaMasterSpring2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usu-my.sharepoint.com/personal/a02308724_aggies_usu_edu/Documents/Desktop/ASU green iguana 2021/greeniguanaAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="8_{D3E1F204-3744-4711-9BBE-5D795E9D066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39028A04-6B9F-4AD6-AE7C-C013F351694F}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="8_{D3E1F204-3744-4711-9BBE-5D795E9D066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86DEEA17-38A6-485D-9282-C1551794D1E9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1470" windowWidth="25440" windowHeight="15390" xr2:uid="{480D2B5B-0BF7-4EFB-BBDF-5EF1CCA213B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{480D2B5B-0BF7-4EFB-BBDF-5EF1CCA213B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="2" r:id="rId1"/>
@@ -35,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="225">
   <si>
     <t>0324bka</t>
-  </si>
-  <si>
-    <t>na</t>
   </si>
   <si>
     <t>0423bka</t>
@@ -1109,8 +1106,8 @@
   <dimension ref="A1:FY37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <pane xSplit="1" topLeftCell="BH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BO9" sqref="BO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1123,547 +1120,547 @@
   <sheetData>
     <row r="1" spans="1:181" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="CA1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="CB1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="CC1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="CD1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="CF1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CH1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="CK1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CL1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CM1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CN1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CO1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="CP1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="CQ1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="CR1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CS1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="CT1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="CU1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CV1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CW1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="CX1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="CY1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="CZ1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="DA1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DB1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="DC1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="DD1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="DE1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DF1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DG1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DH1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DI1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="DJ1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="DK1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="DL1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="DM1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="DN1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="DO1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DP1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="DQ1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="DR1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="DS1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="DT1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="DU1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="DV1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="DW1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="DX1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="DY1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="EA1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="EB1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="EC1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="ED1" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="EE1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="EF1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="EG1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="EH1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EI1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="EJ1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="EK1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="EL1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="EM1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BQ1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BW1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BX1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BY1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CD1" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CE1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="CF1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="CH1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="CI1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="CK1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CO1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="CP1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="CQ1" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="CR1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="CS1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CT1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="CU1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="CV1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="CW1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="CX1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="CY1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="CZ1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="DA1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="DB1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="DC1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="DD1" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="DE1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="DF1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DG1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="DH1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="DI1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DJ1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="DK1" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="DL1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="DM1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="DN1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="DO1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="DP1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="DQ1" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="DR1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="DS1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="DT1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="DU1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="DV1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="DW1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="DX1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DY1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="DZ1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="EA1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="EB1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="EC1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="ED1" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="EE1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="EF1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="EG1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EH1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="EI1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="EJ1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="EK1" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="EL1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="EM1" s="3" t="s">
+      <c r="EN1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="EN1" s="3" t="s">
+      <c r="EO1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="EO1" s="3" t="s">
+      <c r="EP1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="EP1" s="3" t="s">
+      <c r="EQ1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="EQ1" s="3" t="s">
+      <c r="ER1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="ER1" s="3" t="s">
+      <c r="ES1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="ES1" s="3" t="s">
+      <c r="ET1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="ET1" s="3" t="s">
+      <c r="EU1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="EU1" s="3" t="s">
+      <c r="EV1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="EV1" s="3" t="s">
+      <c r="EW1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="EW1" s="3" t="s">
+      <c r="EX1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="EX1" s="3" t="s">
+      <c r="EY1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="EY1" s="3" t="s">
+      <c r="EZ1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="EZ1" s="3" t="s">
+      <c r="FA1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="FA1" s="3" t="s">
+      <c r="FB1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="FB1" s="3" t="s">
+      <c r="FC1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="FC1" s="3" t="s">
+      <c r="FD1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="FD1" s="3" t="s">
+      <c r="FE1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="FE1" s="3" t="s">
+      <c r="FF1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="FF1" s="3" t="s">
+      <c r="FG1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="FG1" s="3" t="s">
+      <c r="FH1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="FH1" s="3" t="s">
+      <c r="FI1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="FI1" s="3" t="s">
+      <c r="FJ1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="FJ1" s="3" t="s">
+      <c r="FK1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="FK1" s="3" t="s">
+      <c r="FL1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="FL1" s="3" t="s">
+      <c r="FM1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="FM1" s="3" t="s">
+      <c r="FN1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="FN1" s="3" t="s">
+      <c r="FO1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="FO1" s="3" t="s">
+      <c r="FP1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="FP1" s="3" t="s">
+      <c r="FQ1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="FQ1" s="3" t="s">
+      <c r="FR1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="FR1" s="3" t="s">
+      <c r="FS1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="FS1" s="3" t="s">
+      <c r="FT1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="FT1" s="3" t="s">
+      <c r="FU1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="FU1" s="3" t="s">
+      <c r="FV1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="FV1" s="3" t="s">
+      <c r="FW1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="FW1" s="3" t="s">
+      <c r="FX1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="FX1" s="3" t="s">
+      <c r="FY1" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="FY1" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:181" x14ac:dyDescent="0.35">
@@ -1671,19 +1668,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2192,19 +2189,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2747,19 +2744,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3287,19 +3284,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3833,19 +3830,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4366,19 +4363,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4556,9 +4553,6 @@
       </c>
       <c r="BO7">
         <v>0.66666666666666663</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>1</v>
       </c>
       <c r="BQ7" s="9">
         <v>0</v>
@@ -4918,19 +4912,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5457,19 +5451,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -6012,19 +6006,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -6157,9 +6151,6 @@
       </c>
       <c r="BA10">
         <v>2</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>1</v>
       </c>
       <c r="BC10">
         <v>0</v>
@@ -6518,19 +6509,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -7016,19 +7007,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -7566,19 +7557,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -8084,19 +8075,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -8642,19 +8633,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -9182,19 +9173,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -9722,19 +9713,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -10270,19 +10261,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -10812,19 +10803,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -11352,19 +11343,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -11907,19 +11898,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -12462,19 +12453,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -13020,19 +13011,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -13556,19 +13547,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -14111,19 +14102,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -14657,19 +14648,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -15194,19 +15185,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -15749,19 +15740,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -16304,19 +16295,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -16840,19 +16831,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -17361,19 +17352,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -17916,19 +17907,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -18461,19 +18452,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -18997,19 +18988,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -19549,19 +19540,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -20104,19 +20095,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -20659,19 +20650,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -21109,164 +21100,164 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="4">
         <v>44279</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="4">
         <v>44309</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="4">
         <v>44314</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4">
         <v>44316</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4">
         <v>44320</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="4">
         <v>44327</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <v>44341</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4">
         <v>44344</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <v>44346</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="4">
         <v>44350</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="4">
         <v>44357</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="4">
         <v>44371</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="4">
         <v>44375</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/GreenIguanaMasterSpring2021.xlsx
+++ b/GreenIguanaMasterSpring2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usu-my.sharepoint.com/personal/a02308724_aggies_usu_edu/Documents/Desktop/ASU green iguana 2021/greeniguanaAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="8_{D3E1F204-3744-4711-9BBE-5D795E9D066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86DEEA17-38A6-485D-9282-C1551794D1E9}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="8_{D3E1F204-3744-4711-9BBE-5D795E9D066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{675627B5-2511-4514-BE69-913D751D5CE8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{480D2B5B-0BF7-4EFB-BBDF-5EF1CCA213B8}"/>
+    <workbookView xWindow="28680" yWindow="-1470" windowWidth="25440" windowHeight="15390" xr2:uid="{480D2B5B-0BF7-4EFB-BBDF-5EF1CCA213B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="2" r:id="rId1"/>
@@ -1106,8 +1106,8 @@
   <dimension ref="A1:FY37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BO9" sqref="BO9"/>
+      <pane xSplit="1" topLeftCell="FM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FT12" sqref="FT12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2136,51 +2136,39 @@
         <v>4.5789074579987009E-2</v>
       </c>
       <c r="FM2">
-        <f>EM2-EZ2</f>
         <v>2.1463615139359691</v>
       </c>
       <c r="FN2">
-        <f t="shared" ref="FN2:FY17" si="0">EN2-FA2</f>
         <v>-0.7017203545060402</v>
       </c>
       <c r="FO2">
-        <f t="shared" si="0"/>
         <v>2.7590235604743167</v>
       </c>
       <c r="FP2">
-        <f t="shared" si="0"/>
         <v>-1.3966621810102806</v>
       </c>
       <c r="FQ2">
-        <f t="shared" si="0"/>
         <v>0.69149070127087331</v>
       </c>
       <c r="FR2">
-        <f t="shared" si="0"/>
         <v>1.6318126266165698</v>
       </c>
       <c r="FS2">
-        <f t="shared" si="0"/>
         <v>-1.2656390367205264</v>
       </c>
       <c r="FT2">
-        <f t="shared" si="0"/>
         <v>-0.2800941804419419</v>
       </c>
       <c r="FU2">
-        <f t="shared" si="0"/>
         <v>3.6276952170528176</v>
       </c>
       <c r="FV2">
-        <f t="shared" si="0"/>
         <v>-1.5086804588900062</v>
       </c>
       <c r="FW2">
-        <f t="shared" si="0"/>
         <v>1.0384093080666836</v>
       </c>
       <c r="FY2">
-        <f t="shared" si="0"/>
         <v>2.005895263867258</v>
       </c>
     </row>
@@ -2687,55 +2675,42 @@
         <v>-0.23131002913157075</v>
       </c>
       <c r="FM3">
-        <f t="shared" ref="FM3:FM37" si="1">EM3-EZ3</f>
         <v>1.5122098266181345</v>
       </c>
       <c r="FN3">
-        <f t="shared" si="0"/>
         <v>-1.8034483450846193</v>
       </c>
       <c r="FO3">
-        <f t="shared" si="0"/>
         <v>0.98272503532312294</v>
       </c>
       <c r="FP3">
-        <f t="shared" si="0"/>
         <v>-3.2221519871328668</v>
       </c>
       <c r="FQ3">
-        <f t="shared" si="0"/>
         <v>-2.0812535558195693</v>
       </c>
       <c r="FR3">
-        <f t="shared" si="0"/>
         <v>-3.691132696710695</v>
       </c>
       <c r="FS3">
-        <f t="shared" si="0"/>
         <v>-0.45748701744101999</v>
       </c>
       <c r="FT3">
-        <f t="shared" si="0"/>
         <v>-0.90013036504017763</v>
       </c>
       <c r="FU3">
-        <f t="shared" si="0"/>
         <v>-0.77140536538357107</v>
       </c>
       <c r="FV3">
-        <f t="shared" si="0"/>
         <v>-0.30336301323063736</v>
       </c>
       <c r="FW3">
-        <f t="shared" si="0"/>
         <v>0.24298134535540386</v>
       </c>
       <c r="FX3">
-        <f t="shared" si="0"/>
         <v>1.8548666188979213</v>
       </c>
       <c r="FY3">
-        <f t="shared" si="0"/>
         <v>1.9457575679140795</v>
       </c>
     </row>
@@ -3227,55 +3202,42 @@
         <v>1.0618191215223707</v>
       </c>
       <c r="FM4">
-        <f t="shared" si="1"/>
         <v>-0.83673407378790499</v>
       </c>
       <c r="FN4">
-        <f t="shared" si="0"/>
         <v>1.1301199201119898</v>
       </c>
       <c r="FO4">
-        <f t="shared" si="0"/>
         <v>1.2750801852669942</v>
       </c>
       <c r="FP4">
-        <f t="shared" si="0"/>
         <v>-1.7163630195582225</v>
       </c>
       <c r="FQ4">
-        <f t="shared" si="0"/>
         <v>1.2835987691883926</v>
       </c>
       <c r="FR4">
-        <f t="shared" si="0"/>
         <v>-0.14574628146595914</v>
       </c>
       <c r="FS4">
-        <f t="shared" si="0"/>
         <v>-0.16223781180007513</v>
       </c>
       <c r="FT4">
-        <f t="shared" si="0"/>
         <v>-0.84400792406969938</v>
       </c>
       <c r="FU4">
-        <f t="shared" si="0"/>
         <v>1.7987245123520124E-2</v>
       </c>
       <c r="FV4">
-        <f t="shared" si="0"/>
         <v>0.33063948265759535</v>
       </c>
       <c r="FW4">
-        <f t="shared" si="0"/>
         <v>-0.48017884770468516</v>
       </c>
       <c r="FX4">
-        <f t="shared" si="0"/>
         <v>1.2994222869826033</v>
       </c>
       <c r="FY4">
-        <f t="shared" si="0"/>
         <v>-1.8523859399617344</v>
       </c>
     </row>
@@ -3773,55 +3735,42 @@
         <v>1.1080023054742918</v>
       </c>
       <c r="FM5">
-        <f t="shared" si="1"/>
         <v>4.1122077754081143</v>
       </c>
       <c r="FN5">
-        <f t="shared" si="0"/>
         <v>1.2172723098250191</v>
       </c>
       <c r="FO5">
-        <f t="shared" si="0"/>
         <v>1.8342934218549285</v>
       </c>
       <c r="FP5">
-        <f t="shared" si="0"/>
         <v>-0.72501036598586832</v>
       </c>
       <c r="FQ5">
-        <f t="shared" si="0"/>
         <v>2.7934752194363055</v>
       </c>
       <c r="FR5">
-        <f t="shared" si="0"/>
         <v>2.8395223660553661</v>
       </c>
       <c r="FS5">
-        <f t="shared" si="0"/>
         <v>-0.85957684077335494</v>
       </c>
       <c r="FT5">
-        <f t="shared" si="0"/>
         <v>3.0700538187612971</v>
       </c>
       <c r="FU5">
-        <f t="shared" si="0"/>
         <v>2.2913136303210981</v>
       </c>
       <c r="FV5">
-        <f t="shared" si="0"/>
         <v>1.5434493365638642</v>
       </c>
       <c r="FW5">
-        <f t="shared" si="0"/>
         <v>-0.24921960481065883</v>
       </c>
       <c r="FX5">
-        <f t="shared" si="0"/>
         <v>1.1316983781906766</v>
       </c>
       <c r="FY5">
-        <f t="shared" si="0"/>
         <v>1.211773157886286</v>
       </c>
     </row>
@@ -4310,51 +4259,39 @@
         <v>-0.87787460445854404</v>
       </c>
       <c r="FM6">
-        <f t="shared" si="1"/>
         <v>1.4877432333472471</v>
       </c>
       <c r="FN6">
-        <f t="shared" si="0"/>
         <v>0.78401777006652718</v>
       </c>
       <c r="FO6">
-        <f t="shared" si="0"/>
         <v>0.21107456263803764</v>
       </c>
       <c r="FP6">
-        <f t="shared" si="0"/>
         <v>-1.1213044978381701</v>
       </c>
       <c r="FQ6">
-        <f t="shared" si="0"/>
         <v>0.32882311151154486</v>
       </c>
       <c r="FR6">
-        <f t="shared" si="0"/>
         <v>1.0601920385360812</v>
       </c>
       <c r="FS6">
-        <f t="shared" si="0"/>
         <v>4.4326579205564993</v>
       </c>
       <c r="FT6">
-        <f t="shared" si="0"/>
         <v>-1.8339536766954208</v>
       </c>
       <c r="FU6">
-        <f t="shared" si="0"/>
         <v>2.2015592366786434</v>
       </c>
       <c r="FW6">
-        <f t="shared" si="0"/>
         <v>-0.48881179394704832</v>
       </c>
       <c r="FX6">
-        <f t="shared" si="0"/>
         <v>-0.15425515060944114</v>
       </c>
       <c r="FY6">
-        <f t="shared" si="0"/>
         <v>0.39906986340708422</v>
       </c>
     </row>
@@ -4855,55 +4792,42 @@
         <v>-1.5706223637374332</v>
       </c>
       <c r="FM7">
-        <f t="shared" si="1"/>
         <v>-0.10997720489927743</v>
       </c>
       <c r="FN7">
-        <f t="shared" si="0"/>
         <v>0.9722260697092594</v>
       </c>
       <c r="FO7">
-        <f t="shared" si="0"/>
         <v>0.12595681478582166</v>
       </c>
       <c r="FP7">
-        <f t="shared" si="0"/>
         <v>-2.9467943039607558</v>
       </c>
       <c r="FQ7">
-        <f t="shared" si="0"/>
         <v>-0.13886134786317239</v>
       </c>
       <c r="FR7">
-        <f t="shared" si="0"/>
         <v>-0.97996672456794576</v>
       </c>
       <c r="FS7">
-        <f t="shared" si="0"/>
         <v>-0.66979774355402633</v>
       </c>
       <c r="FT7">
-        <f t="shared" si="0"/>
         <v>1.9643607976115458</v>
       </c>
       <c r="FU7">
-        <f t="shared" si="0"/>
         <v>-1.0856431634286818</v>
       </c>
       <c r="FV7">
-        <f t="shared" si="0"/>
         <v>-0.85497070352267057</v>
       </c>
       <c r="FW7">
-        <f t="shared" si="0"/>
         <v>-3.0082139266691579</v>
       </c>
       <c r="FX7">
-        <f t="shared" si="0"/>
         <v>-1.6556190615749666</v>
       </c>
       <c r="FY7">
-        <f t="shared" si="0"/>
         <v>0.88559368044494735</v>
       </c>
     </row>
@@ -5398,51 +5322,39 @@
         <v>0.58188606457855419</v>
       </c>
       <c r="FM8">
-        <f t="shared" si="1"/>
         <v>0.3647562741092536</v>
       </c>
       <c r="FN8">
-        <f t="shared" si="0"/>
         <v>-0.39654437393270781</v>
       </c>
       <c r="FO8">
-        <f t="shared" si="0"/>
         <v>0.79452819876499758</v>
       </c>
       <c r="FP8">
-        <f t="shared" si="0"/>
         <v>-0.28664538100323855</v>
       </c>
       <c r="FQ8">
-        <f t="shared" si="0"/>
         <v>-1.7698384742557487</v>
       </c>
       <c r="FR8">
-        <f t="shared" si="0"/>
         <v>-0.61176160759590936</v>
       </c>
       <c r="FS8">
-        <f t="shared" si="0"/>
         <v>2.3583446387422882</v>
       </c>
       <c r="FT8">
-        <f t="shared" si="0"/>
         <v>2.9090114710988777</v>
       </c>
       <c r="FU8">
-        <f t="shared" si="0"/>
         <v>-0.53328694797801246</v>
       </c>
       <c r="FV8">
-        <f t="shared" si="0"/>
         <v>-1.7087144002075869</v>
       </c>
       <c r="FW8">
-        <f t="shared" si="0"/>
         <v>-0.71415663065201695</v>
       </c>
       <c r="FX8">
-        <f t="shared" si="0"/>
         <v>-1.2826825384337934</v>
       </c>
     </row>
@@ -5949,55 +5861,42 @@
         <v>-0.69314186865083893</v>
       </c>
       <c r="FM9">
-        <f t="shared" si="1"/>
         <v>-0.10532913481746761</v>
       </c>
       <c r="FN9">
-        <f t="shared" si="0"/>
         <v>-0.89437300545057774</v>
       </c>
       <c r="FO9">
-        <f t="shared" si="0"/>
         <v>-0.10876840616947347</v>
       </c>
       <c r="FP9">
-        <f t="shared" si="0"/>
         <v>-0.17973045863079684</v>
       </c>
       <c r="FQ9">
-        <f t="shared" si="0"/>
         <v>-1.4598596616340871</v>
       </c>
       <c r="FR9">
-        <f t="shared" si="0"/>
         <v>0.39051475663399576</v>
       </c>
       <c r="FS9">
-        <f t="shared" si="0"/>
         <v>2.4749017368017507</v>
       </c>
       <c r="FT9">
-        <f t="shared" si="0"/>
         <v>-0.71112023589026385</v>
       </c>
       <c r="FU9">
-        <f t="shared" si="0"/>
         <v>0.53363661723330202</v>
       </c>
       <c r="FV9">
-        <f t="shared" si="0"/>
         <v>-1.4552508158593855</v>
       </c>
       <c r="FW9">
-        <f t="shared" si="0"/>
         <v>0.20241530295637378</v>
       </c>
       <c r="FX9">
-        <f t="shared" si="0"/>
         <v>-1.9788715675311335</v>
       </c>
       <c r="FY9">
-        <f t="shared" si="0"/>
         <v>-0.21509390506722759</v>
       </c>
     </row>
@@ -6456,51 +6355,39 @@
         <v>0.59998728200310258</v>
       </c>
       <c r="FM10">
-        <f t="shared" si="1"/>
         <v>1.5803484149180334</v>
       </c>
       <c r="FN10">
-        <f t="shared" si="0"/>
         <v>-1.9315269042697554</v>
       </c>
       <c r="FP10">
-        <f t="shared" si="0"/>
         <v>1.0098072124151061</v>
       </c>
       <c r="FQ10">
-        <f t="shared" si="0"/>
         <v>-2.1756190997901435</v>
       </c>
       <c r="FR10">
-        <f t="shared" si="0"/>
         <v>-0.80159074611954462</v>
       </c>
       <c r="FS10">
-        <f t="shared" si="0"/>
         <v>-1.2570324823759174</v>
       </c>
       <c r="FT10">
-        <f t="shared" si="0"/>
         <v>-2.2666178242340735</v>
       </c>
       <c r="FU10">
-        <f t="shared" si="0"/>
         <v>-2.1966320896568998</v>
       </c>
       <c r="FV10">
-        <f t="shared" si="0"/>
         <v>-2.1355905958001236</v>
       </c>
       <c r="FW10">
-        <f t="shared" si="0"/>
         <v>-2.1011287551692472</v>
       </c>
       <c r="FX10">
-        <f t="shared" si="0"/>
         <v>-0.29860322277513462</v>
       </c>
       <c r="FY10">
-        <f t="shared" si="0"/>
         <v>1.1314434049639606</v>
       </c>
     </row>
@@ -6954,51 +6841,39 @@
         <v>-0.36985958098734961</v>
       </c>
       <c r="FM11">
-        <f t="shared" si="1"/>
         <v>2.8027842101666569</v>
       </c>
       <c r="FN11">
-        <f t="shared" si="0"/>
         <v>-0.72709129442184239</v>
       </c>
       <c r="FO11">
-        <f t="shared" si="0"/>
         <v>0.79221215367210596</v>
       </c>
       <c r="FP11">
-        <f t="shared" si="0"/>
         <v>1.5562008857229075</v>
       </c>
       <c r="FQ11">
-        <f t="shared" si="0"/>
         <v>-1.8267648461785428</v>
       </c>
       <c r="FS11">
-        <f t="shared" si="0"/>
         <v>1.0663359147149458</v>
       </c>
       <c r="FT11">
-        <f t="shared" si="0"/>
         <v>0.3441549752284383</v>
       </c>
       <c r="FU11">
-        <f t="shared" si="0"/>
         <v>-1.106041773241065</v>
       </c>
       <c r="FV11">
-        <f t="shared" si="0"/>
         <v>0.81158237237495146</v>
       </c>
       <c r="FW11">
-        <f t="shared" si="0"/>
         <v>-1.1237091693008232</v>
       </c>
       <c r="FX11">
-        <f t="shared" si="0"/>
         <v>2.4742633557314058</v>
       </c>
       <c r="FY11">
-        <f t="shared" si="0"/>
         <v>-0.98115112754233091</v>
       </c>
     </row>
@@ -7500,55 +7375,42 @@
         <v>0.55380409805118147</v>
       </c>
       <c r="FM12">
-        <f t="shared" si="1"/>
         <v>-1.6877674897519679E-3</v>
       </c>
       <c r="FN12">
-        <f t="shared" si="0"/>
         <v>0.50177662889135388</v>
       </c>
       <c r="FO12">
-        <f t="shared" si="0"/>
         <v>1.1099616790764468</v>
       </c>
       <c r="FP12">
-        <f t="shared" si="0"/>
         <v>-3.0925550793459072E-2</v>
       </c>
       <c r="FQ12">
-        <f t="shared" si="0"/>
         <v>0.35116897591152579</v>
       </c>
       <c r="FR12">
-        <f t="shared" si="0"/>
         <v>3.848033319123016</v>
       </c>
       <c r="FS12">
-        <f t="shared" si="0"/>
         <v>-0.11155133056588223</v>
       </c>
       <c r="FT12">
-        <f t="shared" si="0"/>
         <v>-0.32209432715119679</v>
       </c>
       <c r="FU12">
-        <f t="shared" si="0"/>
         <v>-1.7000395175529848</v>
       </c>
       <c r="FV12">
-        <f t="shared" si="0"/>
         <v>-1.0363170967238036</v>
       </c>
       <c r="FW12">
-        <f t="shared" si="0"/>
         <v>0.25246528478685981</v>
       </c>
       <c r="FX12">
-        <f t="shared" si="0"/>
         <v>1.8289828689523924</v>
       </c>
       <c r="FY12">
-        <f t="shared" si="0"/>
         <v>-0.61773479059422454</v>
       </c>
     </row>
@@ -8022,51 +7884,39 @@
         <v>0.92326956966658658</v>
       </c>
       <c r="FM13">
-        <f t="shared" si="1"/>
         <v>0.39474096025859462</v>
       </c>
       <c r="FO13">
-        <f t="shared" si="0"/>
         <v>-0.2631452021408075</v>
       </c>
       <c r="FP13">
-        <f t="shared" si="0"/>
         <v>0.28261104909643825</v>
       </c>
       <c r="FQ13">
-        <f t="shared" si="0"/>
         <v>-0.15328137596681357</v>
       </c>
       <c r="FR13">
-        <f t="shared" si="0"/>
         <v>-5.1282086799702253E-2</v>
       </c>
       <c r="FS13">
-        <f t="shared" si="0"/>
         <v>-0.75165896740707228</v>
       </c>
       <c r="FT13">
-        <f t="shared" si="0"/>
         <v>-0.28605480046222925</v>
       </c>
       <c r="FU13">
-        <f t="shared" si="0"/>
         <v>0.74462530144916528</v>
       </c>
       <c r="FV13">
-        <f t="shared" si="0"/>
         <v>3.1313277274882627</v>
       </c>
       <c r="FW13">
-        <f t="shared" si="0"/>
         <v>-0.25535374876227535</v>
       </c>
       <c r="FX13">
-        <f t="shared" si="0"/>
         <v>-1.0928392264777393</v>
       </c>
       <c r="FY13">
-        <f t="shared" si="0"/>
         <v>-1.6774439277104751</v>
       </c>
     </row>
@@ -8576,55 +8426,42 @@
         <v>0.46143773014732886</v>
       </c>
       <c r="FM14">
-        <f t="shared" si="1"/>
         <v>1.1259472618300286</v>
       </c>
       <c r="FN14">
-        <f t="shared" si="0"/>
         <v>-0.21672561887123842</v>
       </c>
       <c r="FO14">
-        <f t="shared" si="0"/>
         <v>-0.40059001371747938</v>
       </c>
       <c r="FP14">
-        <f t="shared" si="0"/>
         <v>-1.5671059550344379</v>
       </c>
       <c r="FQ14">
-        <f t="shared" si="0"/>
         <v>0.63004188639748149</v>
       </c>
       <c r="FR14">
-        <f t="shared" si="0"/>
         <v>-0.93233300454835588</v>
       </c>
       <c r="FS14">
-        <f t="shared" si="0"/>
         <v>-1.1404151426275815</v>
       </c>
       <c r="FT14">
-        <f t="shared" si="0"/>
         <v>-0.56105801229767671</v>
       </c>
       <c r="FU14">
-        <f t="shared" si="0"/>
         <v>-0.6758291044646485</v>
       </c>
       <c r="FV14">
-        <f t="shared" si="0"/>
         <v>-0.16404675130611468</v>
       </c>
       <c r="FW14">
-        <f t="shared" si="0"/>
         <v>-0.63146250988926811</v>
       </c>
       <c r="FX14">
-        <f t="shared" si="0"/>
         <v>0.15947607157733529</v>
       </c>
       <c r="FY14">
-        <f t="shared" si="0"/>
         <v>-0.15173916263016063</v>
       </c>
     </row>
@@ -9116,55 +8953,42 @@
         <v>0.79732749618849397</v>
       </c>
       <c r="FM15">
-        <f t="shared" si="1"/>
         <v>0.52075265519865344</v>
       </c>
       <c r="FN15">
-        <f t="shared" si="0"/>
         <v>0.44143296356702882</v>
       </c>
       <c r="FO15">
-        <f t="shared" si="0"/>
         <v>-0.24860122971348755</v>
       </c>
       <c r="FP15">
-        <f t="shared" si="0"/>
         <v>1.0213120949909429</v>
       </c>
       <c r="FQ15">
-        <f t="shared" si="0"/>
         <v>0.66439488443684058</v>
       </c>
       <c r="FR15">
-        <f t="shared" si="0"/>
         <v>-0.39249541513851804</v>
       </c>
       <c r="FS15">
-        <f t="shared" si="0"/>
         <v>-0.89236695960716228</v>
       </c>
       <c r="FT15">
-        <f t="shared" si="0"/>
         <v>-1.263760801334058</v>
       </c>
       <c r="FU15">
-        <f t="shared" si="0"/>
         <v>2.1544634473822293</v>
       </c>
       <c r="FV15">
-        <f t="shared" si="0"/>
         <v>-0.92963609904654554</v>
       </c>
       <c r="FW15">
-        <f t="shared" si="0"/>
         <v>-0.81293439528384415</v>
       </c>
       <c r="FX15">
-        <f t="shared" si="0"/>
         <v>-0.20740288357226183</v>
       </c>
       <c r="FY15">
-        <f t="shared" si="0"/>
         <v>-1.0468597367484604</v>
       </c>
     </row>
@@ -9656,55 +9480,42 @@
         <v>1.0656677201850304</v>
       </c>
       <c r="FM16">
-        <f t="shared" si="1"/>
         <v>-1.3438054059700251</v>
       </c>
       <c r="FN16">
-        <f t="shared" si="0"/>
         <v>1.0000563475320501</v>
       </c>
       <c r="FO16">
-        <f t="shared" si="0"/>
         <v>-0.75864787506876219</v>
       </c>
       <c r="FP16">
-        <f t="shared" si="0"/>
         <v>1.0148514406984204</v>
       </c>
       <c r="FQ16">
-        <f t="shared" si="0"/>
         <v>-0.59990919134786302</v>
       </c>
       <c r="FR16">
-        <f t="shared" si="0"/>
         <v>-1.0529023697567341</v>
       </c>
       <c r="FS16">
-        <f t="shared" si="0"/>
         <v>-0.85103563605190802</v>
       </c>
       <c r="FT16">
-        <f t="shared" si="0"/>
         <v>-0.48253099070884825</v>
       </c>
       <c r="FU16">
-        <f t="shared" si="0"/>
         <v>0.9581573124619378</v>
       </c>
       <c r="FV16">
-        <f t="shared" si="0"/>
         <v>-1.6717893721847461</v>
       </c>
       <c r="FW16">
-        <f t="shared" si="0"/>
         <v>-0.6502847929846518</v>
       </c>
       <c r="FX16">
-        <f t="shared" si="0"/>
         <v>-2.047517356101709</v>
       </c>
       <c r="FY16">
-        <f t="shared" si="0"/>
         <v>-1.7529298383114416</v>
       </c>
     </row>
@@ -10208,51 +10019,39 @@
         <v>0.84205086685458508</v>
       </c>
       <c r="FM17">
-        <f t="shared" si="1"/>
         <v>-0.93966300098517652</v>
       </c>
       <c r="FN17">
-        <f t="shared" si="0"/>
         <v>-1.4154217095222603</v>
       </c>
       <c r="FO17">
-        <f t="shared" si="0"/>
         <v>-1.1551298285206999</v>
       </c>
       <c r="FP17">
-        <f t="shared" si="0"/>
         <v>0.51173533996408294</v>
       </c>
       <c r="FQ17">
-        <f t="shared" si="0"/>
         <v>-1.5227493699027586</v>
       </c>
       <c r="FR17">
-        <f t="shared" si="0"/>
         <v>-0.85641128119526444</v>
       </c>
       <c r="FS17">
-        <f t="shared" si="0"/>
         <v>-0.57645518692580588</v>
       </c>
       <c r="FT17">
-        <f t="shared" si="0"/>
         <v>4.3777641896211064</v>
       </c>
       <c r="FU17">
-        <f t="shared" si="0"/>
         <v>-0.55561188937602324</v>
       </c>
       <c r="FW17">
-        <f t="shared" si="0"/>
         <v>-1.9108811504417826</v>
       </c>
       <c r="FX17">
-        <f t="shared" si="0"/>
         <v>-2.6438388873125538</v>
       </c>
       <c r="FY17">
-        <f t="shared" si="0"/>
         <v>-1.4472518599047017</v>
       </c>
     </row>
@@ -10750,51 +10549,39 @@
         <v>-0.54437362379419307</v>
       </c>
       <c r="FM18">
-        <f t="shared" si="1"/>
         <v>2.3500648387052587</v>
       </c>
       <c r="FN18">
-        <f t="shared" ref="FN18:FN37" si="2">EN18-FA18</f>
         <v>-1.417929118328793</v>
       </c>
       <c r="FO18">
-        <f t="shared" ref="FO18:FO36" si="3">EO18-FB18</f>
         <v>-0.55033471950301527</v>
       </c>
       <c r="FP18">
-        <f t="shared" ref="FP18:FP36" si="4">EP18-FC18</f>
         <v>-0.4472792698471999</v>
       </c>
       <c r="FR18">
-        <f t="shared" ref="FR18:FR37" si="5">ER18-FE18</f>
         <v>-0.91685998411767744</v>
       </c>
       <c r="FS18">
-        <f t="shared" ref="FS18:FS37" si="6">ES18-FF18</f>
         <v>-0.73551739105666558</v>
       </c>
       <c r="FT18">
-        <f t="shared" ref="FT18:FT37" si="7">ET18-FG18</f>
         <v>-0.14375481803851342</v>
       </c>
       <c r="FU18">
-        <f t="shared" ref="FU18:FU36" si="8">EU18-FH18</f>
         <v>-0.95405240033192307</v>
       </c>
       <c r="FV18">
-        <f t="shared" ref="FV18:FV37" si="9">EV18-FI18</f>
         <v>-1.7613200092598587</v>
       </c>
       <c r="FW18">
-        <f t="shared" ref="FW18:FW37" si="10">EW18-FJ18</f>
         <v>-1.1902711142719671</v>
       </c>
       <c r="FX18">
-        <f t="shared" ref="FX18:FX37" si="11">EX18-FK18</f>
         <v>2.6326110929554516</v>
       </c>
       <c r="FY18">
-        <f t="shared" ref="FY18:FY36" si="12">EY18-FL18</f>
         <v>0.9420078504264402</v>
       </c>
     </row>
@@ -11286,55 +11073,42 @@
         <v>-5.2416546467211438E-2</v>
       </c>
       <c r="FM19">
-        <f t="shared" si="1"/>
         <v>-0.35822254749423788</v>
       </c>
       <c r="FN19">
-        <f t="shared" si="2"/>
         <v>2.0129686203633277</v>
       </c>
       <c r="FO19">
-        <f t="shared" si="3"/>
         <v>2.5983931828822771</v>
       </c>
       <c r="FP19">
-        <f t="shared" si="4"/>
         <v>-0.29346230840486442</v>
       </c>
       <c r="FQ19">
-        <f t="shared" ref="FQ19:FQ37" si="13">EQ19-FD19</f>
         <v>-1.2913602651534752</v>
       </c>
       <c r="FR19">
-        <f t="shared" si="5"/>
         <v>-1.2208589703210118</v>
       </c>
       <c r="FS19">
-        <f t="shared" si="6"/>
         <v>-1.4854755257941772</v>
       </c>
       <c r="FT19">
-        <f t="shared" si="7"/>
         <v>-0.80032108389735246</v>
       </c>
       <c r="FU19">
-        <f t="shared" si="8"/>
         <v>-1.5434401934452051</v>
       </c>
       <c r="FV19">
-        <f t="shared" si="9"/>
         <v>-0.11646144856569107</v>
       </c>
       <c r="FW19">
-        <f t="shared" si="10"/>
         <v>-0.52975762369512813</v>
       </c>
       <c r="FX19">
-        <f t="shared" si="11"/>
         <v>-2.9642178761896787E-2</v>
       </c>
       <c r="FY19">
-        <f t="shared" si="12"/>
         <v>-0.22816029003109295</v>
       </c>
     </row>
@@ -11841,55 +11615,42 @@
         <v>-0.36548014112983374</v>
       </c>
       <c r="FM20">
-        <f t="shared" si="1"/>
         <v>-0.64074442625512373</v>
       </c>
       <c r="FN20">
-        <f t="shared" si="2"/>
         <v>0.41677510654033767</v>
       </c>
       <c r="FO20">
-        <f t="shared" si="3"/>
         <v>2.1847109981257837</v>
       </c>
       <c r="FP20">
-        <f t="shared" si="4"/>
         <v>0.61838616946173619</v>
       </c>
       <c r="FQ20">
-        <f t="shared" si="13"/>
         <v>-0.88173047621264411</v>
       </c>
       <c r="FR20">
-        <f t="shared" si="5"/>
         <v>-1.7885253061733488</v>
       </c>
       <c r="FS20">
-        <f t="shared" si="6"/>
         <v>-0.85263003083364364</v>
       </c>
       <c r="FT20">
-        <f t="shared" si="7"/>
         <v>-1.2650438571386751</v>
       </c>
       <c r="FU20">
-        <f t="shared" si="8"/>
         <v>-2.5262039182653164</v>
       </c>
       <c r="FV20">
-        <f t="shared" si="9"/>
         <v>-2.0042081158323835</v>
       </c>
       <c r="FW20">
-        <f t="shared" si="10"/>
         <v>-0.4991896131360809</v>
       </c>
       <c r="FX20">
-        <f t="shared" si="11"/>
         <v>-0.68895485943674184</v>
       </c>
       <c r="FY20">
-        <f t="shared" si="12"/>
         <v>0.57727005508929641</v>
       </c>
     </row>
@@ -12396,55 +12157,42 @@
         <v>-5.2416546467211438E-2</v>
       </c>
       <c r="FM21">
-        <f t="shared" si="1"/>
         <v>1.0592335537910023</v>
       </c>
       <c r="FN21">
-        <f t="shared" si="2"/>
         <v>0.90500195256548632</v>
       </c>
       <c r="FO21">
-        <f t="shared" si="3"/>
         <v>3.9954521506473091</v>
       </c>
       <c r="FP21">
-        <f t="shared" si="4"/>
         <v>-0.58346474389282477</v>
       </c>
       <c r="FQ21">
-        <f t="shared" si="13"/>
         <v>-0.55629948199120527</v>
       </c>
       <c r="FR21">
-        <f t="shared" si="5"/>
         <v>2.5935445820647933</v>
       </c>
       <c r="FS21">
-        <f t="shared" si="6"/>
         <v>-1.9964480944398693</v>
       </c>
       <c r="FT21">
-        <f t="shared" si="7"/>
         <v>-0.56585205222447876</v>
       </c>
       <c r="FU21">
-        <f t="shared" si="8"/>
         <v>-0.80397943983872855</v>
       </c>
       <c r="FV21">
-        <f t="shared" si="9"/>
         <v>1.303474705636269</v>
       </c>
       <c r="FW21">
-        <f t="shared" si="10"/>
         <v>-2.4160314286740703E-2</v>
       </c>
       <c r="FX21">
-        <f t="shared" si="11"/>
         <v>1.6398320897756902</v>
       </c>
       <c r="FY21">
-        <f t="shared" si="12"/>
         <v>-0.515374227778298</v>
       </c>
     </row>
@@ -12954,55 +12702,42 @@
         <v>0.57371064285804352</v>
       </c>
       <c r="FM22">
-        <f t="shared" si="1"/>
         <v>1.9100097195474619E-2</v>
       </c>
       <c r="FN22">
-        <f t="shared" si="2"/>
         <v>4.9175901569604774E-2</v>
       </c>
       <c r="FO22">
-        <f t="shared" si="3"/>
         <v>-1.3887232000728393</v>
       </c>
       <c r="FP22">
-        <f t="shared" si="4"/>
         <v>-0.8522997635019034</v>
       </c>
       <c r="FQ22">
-        <f t="shared" si="13"/>
         <v>-1.2737939106142611</v>
       </c>
       <c r="FR22">
-        <f t="shared" si="5"/>
         <v>-0.88670124078375601</v>
       </c>
       <c r="FS22">
-        <f t="shared" si="6"/>
         <v>0.4328034855337296</v>
       </c>
       <c r="FT22">
-        <f t="shared" si="7"/>
         <v>-0.94262296957132441</v>
       </c>
       <c r="FU22">
-        <f t="shared" si="8"/>
         <v>8.6171917827919275E-2</v>
       </c>
       <c r="FV22">
-        <f t="shared" si="9"/>
         <v>-1.8623063765490611E-2</v>
       </c>
       <c r="FW22">
-        <f t="shared" si="10"/>
         <v>-0.30781111439251463</v>
       </c>
       <c r="FX22">
-        <f t="shared" si="11"/>
         <v>-1.2847769271311194</v>
       </c>
       <c r="FY22">
-        <f t="shared" si="12"/>
         <v>-1.1825319796615261</v>
       </c>
     </row>
@@ -13494,51 +13229,39 @@
         <v>0.88677423752067097</v>
       </c>
       <c r="FM23">
-        <f t="shared" si="1"/>
         <v>-0.66072053211043136</v>
       </c>
       <c r="FN23">
-        <f t="shared" si="2"/>
         <v>-0.26037312201664237</v>
       </c>
       <c r="FO23">
-        <f t="shared" si="3"/>
         <v>-0.48472654698183903</v>
       </c>
       <c r="FP23">
-        <f t="shared" si="4"/>
         <v>0.71530917676056993</v>
       </c>
       <c r="FR23">
-        <f t="shared" si="5"/>
         <v>0.37005370178403207</v>
       </c>
       <c r="FS23">
-        <f t="shared" si="6"/>
         <v>1.4492869559924011</v>
       </c>
       <c r="FT23">
-        <f t="shared" si="7"/>
         <v>0.56027553339175107</v>
       </c>
       <c r="FU23">
-        <f t="shared" si="8"/>
         <v>1.3959417586350014</v>
       </c>
       <c r="FV23">
-        <f t="shared" si="9"/>
         <v>-0.45398529546709809</v>
       </c>
       <c r="FW23">
-        <f t="shared" si="10"/>
         <v>-0.47791423699545688</v>
       </c>
       <c r="FX23">
-        <f t="shared" si="11"/>
         <v>-0.6996681395019666</v>
       </c>
       <c r="FY23">
-        <f t="shared" si="12"/>
         <v>-1.6211008244408391</v>
       </c>
     </row>
@@ -14045,55 +13768,42 @@
         <v>3.7030194864965608E-2</v>
       </c>
       <c r="FM24">
-        <f t="shared" si="1"/>
         <v>-2.1168443382776707</v>
       </c>
       <c r="FN24">
-        <f t="shared" si="2"/>
         <v>-1.1190631232636239</v>
       </c>
       <c r="FO24">
-        <f t="shared" si="3"/>
         <v>-1.7749530574989194</v>
       </c>
       <c r="FP24">
-        <f t="shared" si="4"/>
         <v>1.1561334692584238</v>
       </c>
       <c r="FQ24">
-        <f t="shared" si="13"/>
         <v>0.32550875090234166</v>
       </c>
       <c r="FR24">
-        <f t="shared" si="5"/>
         <v>-0.25806133699071065</v>
       </c>
       <c r="FS24">
-        <f t="shared" si="6"/>
         <v>0.53516286347582953</v>
       </c>
       <c r="FT24">
-        <f t="shared" si="7"/>
         <v>-0.12636077224948516</v>
       </c>
       <c r="FU24">
-        <f t="shared" si="8"/>
         <v>-1.910009707072325</v>
       </c>
       <c r="FV24">
-        <f t="shared" si="9"/>
         <v>-1.2964229718400664</v>
       </c>
       <c r="FW24">
-        <f t="shared" si="10"/>
         <v>0.7656532422354857</v>
       </c>
       <c r="FX24">
-        <f t="shared" si="11"/>
         <v>-0.23296995378159893</v>
       </c>
       <c r="FY24">
-        <f t="shared" si="12"/>
         <v>0.89641490726544015</v>
       </c>
     </row>
@@ -14591,55 +14301,42 @@
         <v>-9.7139917133297365E-2</v>
       </c>
       <c r="FM25">
-        <f t="shared" si="1"/>
         <v>-2.2297818457689829</v>
       </c>
       <c r="FN25">
-        <f t="shared" si="2"/>
         <v>1.1884669533468322</v>
       </c>
       <c r="FO25">
-        <f t="shared" si="3"/>
         <v>0.18230080693541695</v>
       </c>
       <c r="FP25">
-        <f t="shared" si="4"/>
         <v>1.8887191324201589</v>
       </c>
       <c r="FQ25">
-        <f t="shared" si="13"/>
         <v>-0.32038683523722539</v>
       </c>
       <c r="FR25">
-        <f t="shared" si="5"/>
         <v>2.0538044964731696</v>
       </c>
       <c r="FS25">
-        <f t="shared" si="6"/>
         <v>3.0864790039563097</v>
       </c>
       <c r="FT25">
-        <f t="shared" si="7"/>
         <v>2.2650800025987783</v>
       </c>
       <c r="FU25">
-        <f t="shared" si="8"/>
         <v>0.98894703547048468</v>
       </c>
       <c r="FV25">
-        <f t="shared" si="9"/>
         <v>2.7997156288186513</v>
       </c>
       <c r="FW25">
-        <f t="shared" si="10"/>
         <v>0.92236565095012935</v>
       </c>
       <c r="FX25">
-        <f t="shared" si="11"/>
         <v>-1.3854660212658954</v>
       </c>
       <c r="FY25">
-        <f t="shared" si="12"/>
         <v>0.97145273795872622</v>
       </c>
     </row>
@@ -15128,55 +14825,42 @@
         <v>-7.6931758011151083E-3</v>
       </c>
       <c r="FM26">
-        <f t="shared" si="1"/>
         <v>0.53260059978550989</v>
       </c>
       <c r="FN26">
-        <f t="shared" si="2"/>
         <v>-1.3513467757852413</v>
       </c>
       <c r="FO26">
-        <f t="shared" si="3"/>
         <v>-0.9393647695552011</v>
       </c>
       <c r="FP26">
-        <f t="shared" si="4"/>
         <v>1.9604872706402861</v>
       </c>
       <c r="FQ26">
-        <f t="shared" si="13"/>
         <v>2.4923190848027885</v>
       </c>
       <c r="FR26">
-        <f t="shared" si="5"/>
         <v>1.6190135915592039</v>
       </c>
       <c r="FS26">
-        <f t="shared" si="6"/>
         <v>-1.7217073606622844</v>
       </c>
       <c r="FT26">
-        <f t="shared" si="7"/>
         <v>0.27311848903707059</v>
       </c>
       <c r="FU26">
-        <f t="shared" si="8"/>
         <v>-2.5092906001298592</v>
       </c>
       <c r="FV26">
-        <f t="shared" si="9"/>
         <v>-0.63733633339291029</v>
       </c>
       <c r="FW26">
-        <f t="shared" si="10"/>
         <v>0.38869913327343197</v>
       </c>
       <c r="FX26">
-        <f t="shared" si="11"/>
         <v>-0.5880884345173204</v>
       </c>
       <c r="FY26">
-        <f t="shared" si="12"/>
         <v>0.28102893356779896</v>
       </c>
     </row>
@@ -15683,55 +15367,42 @@
         <v>0.79732749618849397</v>
       </c>
       <c r="FM27">
-        <f t="shared" si="1"/>
         <v>-1.5953732570854133</v>
       </c>
       <c r="FN27">
-        <f t="shared" si="2"/>
         <v>-1.8443032062678371</v>
       </c>
       <c r="FO27">
-        <f t="shared" si="3"/>
         <v>-9.9412638335601211E-2</v>
       </c>
       <c r="FP27">
-        <f t="shared" si="4"/>
         <v>1.3236004842744098</v>
       </c>
       <c r="FQ27">
-        <f t="shared" si="13"/>
         <v>-0.351737555208955</v>
       </c>
       <c r="FR27">
-        <f t="shared" si="5"/>
         <v>-4.4932229552843123E-2</v>
       </c>
       <c r="FS27">
-        <f t="shared" si="6"/>
         <v>-0.14661956403096527</v>
       </c>
       <c r="FT27">
-        <f t="shared" si="7"/>
         <v>0.65511333349429757</v>
       </c>
       <c r="FU27">
-        <f t="shared" si="8"/>
         <v>1.0839705182829387</v>
       </c>
       <c r="FV27">
-        <f t="shared" si="9"/>
         <v>0.81460672846228199</v>
       </c>
       <c r="FW27">
-        <f t="shared" si="10"/>
         <v>0.11287599546641691</v>
       </c>
       <c r="FX27">
-        <f t="shared" si="11"/>
         <v>-0.764028616046455</v>
       </c>
       <c r="FY27">
-        <f t="shared" si="12"/>
         <v>-1.4351115830189038</v>
       </c>
     </row>
@@ -16238,55 +15909,42 @@
         <v>-2.6016486744343172</v>
       </c>
       <c r="FM28">
-        <f t="shared" si="1"/>
         <v>-2.6500640453572855</v>
       </c>
       <c r="FN28">
-        <f t="shared" si="2"/>
         <v>2.727026516824079</v>
       </c>
       <c r="FO28">
-        <f t="shared" si="3"/>
         <v>-1.4797555223293015</v>
       </c>
       <c r="FP28">
-        <f t="shared" si="4"/>
         <v>-1.3846749390619504</v>
       </c>
       <c r="FQ28">
-        <f t="shared" si="13"/>
         <v>0.30662269783315338</v>
       </c>
       <c r="FR28">
-        <f t="shared" si="5"/>
         <v>-1.3076433806037651</v>
       </c>
       <c r="FS28">
-        <f t="shared" si="6"/>
         <v>-1.386419426452334</v>
       </c>
       <c r="FT28">
-        <f t="shared" si="7"/>
         <v>-1.7837011558850857</v>
       </c>
       <c r="FU28">
-        <f t="shared" si="8"/>
         <v>0.95847888085607624</v>
       </c>
       <c r="FV28">
-        <f t="shared" si="9"/>
         <v>-2.3731866162347339</v>
       </c>
       <c r="FW28">
-        <f t="shared" si="10"/>
         <v>-2.4622642285856422E-3</v>
       </c>
       <c r="FX28">
-        <f t="shared" si="11"/>
         <v>-1.733397351582866E-2</v>
       </c>
       <c r="FY28">
-        <f t="shared" si="12"/>
         <v>2.2221157753440104</v>
       </c>
     </row>
@@ -16778,51 +16436,39 @@
         <v>-0.41020351179593006</v>
       </c>
       <c r="FM29">
-        <f t="shared" si="1"/>
         <v>-1.9280545652499503</v>
       </c>
       <c r="FN29">
-        <f t="shared" si="2"/>
         <v>4.2961973813916359</v>
       </c>
       <c r="FO29">
-        <f t="shared" si="3"/>
         <v>1.6722043739287404</v>
       </c>
       <c r="FP29">
-        <f t="shared" si="4"/>
         <v>2.5883235218838219</v>
       </c>
       <c r="FQ29">
-        <f t="shared" si="13"/>
         <v>3.306356318132186</v>
       </c>
       <c r="FS29">
-        <f t="shared" si="6"/>
         <v>1.3520313316985009</v>
       </c>
       <c r="FT29">
-        <f t="shared" si="7"/>
         <v>-0.15426291961946575</v>
       </c>
       <c r="FU29">
-        <f t="shared" si="8"/>
         <v>1.2356464838107608</v>
       </c>
       <c r="FV29">
-        <f t="shared" si="9"/>
         <v>4.4293523711936027</v>
       </c>
       <c r="FW29">
-        <f t="shared" si="10"/>
         <v>3.478327165092387</v>
       </c>
       <c r="FX29">
-        <f t="shared" si="11"/>
         <v>0.94713930529363577</v>
       </c>
       <c r="FY29">
-        <f t="shared" si="12"/>
         <v>-0.21189241876989418</v>
       </c>
     </row>
@@ -17299,51 +16945,39 @@
         <v>0.15744500097114447</v>
       </c>
       <c r="FM30">
-        <f t="shared" si="1"/>
         <v>-2.3566635635056938</v>
       </c>
       <c r="FN30">
-        <f t="shared" si="2"/>
         <v>0.36373974276892995</v>
       </c>
       <c r="FO30">
-        <f t="shared" si="3"/>
         <v>-1.8354253717132416</v>
       </c>
       <c r="FP30">
-        <f t="shared" si="4"/>
         <v>0.23315444002587749</v>
       </c>
       <c r="FQ30">
-        <f t="shared" si="13"/>
         <v>2.7155875683053359</v>
       </c>
       <c r="FR30">
-        <f t="shared" si="5"/>
         <v>0.50539034586839571</v>
       </c>
       <c r="FS30">
-        <f t="shared" si="6"/>
         <v>-0.16633919266990504</v>
       </c>
       <c r="FT30">
-        <f t="shared" si="7"/>
         <v>9.828366161426294E-2</v>
       </c>
       <c r="FU30">
-        <f t="shared" si="8"/>
         <v>0.49120063580068307</v>
       </c>
       <c r="FV30">
-        <f t="shared" si="9"/>
         <v>3.4817795791578412</v>
       </c>
       <c r="FW30">
-        <f t="shared" si="10"/>
         <v>2.0873912661647465</v>
       </c>
       <c r="FX30">
-        <f t="shared" si="11"/>
         <v>-0.47700819304913333</v>
       </c>
     </row>
@@ -17850,55 +17484,42 @@
         <v>0.21592367752932493</v>
       </c>
       <c r="FM31">
-        <f t="shared" si="1"/>
         <v>0.33378820912052565</v>
       </c>
       <c r="FN31">
-        <f t="shared" si="2"/>
         <v>1.3652791415793868</v>
       </c>
       <c r="FO31">
-        <f t="shared" si="3"/>
         <v>-1.8240414262842199</v>
       </c>
       <c r="FP31">
-        <f t="shared" si="4"/>
         <v>-0.9617971956517124</v>
       </c>
       <c r="FQ31">
-        <f t="shared" si="13"/>
         <v>-0.45051320607474971</v>
       </c>
       <c r="FR31">
-        <f t="shared" si="5"/>
         <v>-8.7462646744042472E-2</v>
       </c>
       <c r="FS31">
-        <f t="shared" si="6"/>
         <v>-0.74007159732832561</v>
       </c>
       <c r="FT31">
-        <f t="shared" si="7"/>
         <v>-1.2123859681369766</v>
       </c>
       <c r="FU31">
-        <f t="shared" si="8"/>
         <v>-1.3857287407174015</v>
       </c>
       <c r="FV31">
-        <f t="shared" si="9"/>
         <v>1.9778046867891279</v>
       </c>
       <c r="FW31">
-        <f t="shared" si="10"/>
         <v>-1.8017712758664097</v>
       </c>
       <c r="FX31">
-        <f t="shared" si="11"/>
         <v>-0.12016572366364742</v>
       </c>
       <c r="FY31">
-        <f t="shared" si="12"/>
         <v>0.41823967432283005</v>
       </c>
     </row>
@@ -18399,51 +18020,39 @@
         <v>-9.7139917133297365E-2</v>
       </c>
       <c r="FM32">
-        <f t="shared" si="1"/>
         <v>-0.2286746119946278</v>
       </c>
       <c r="FN32">
-        <f t="shared" si="2"/>
         <v>-0.1327224125649519</v>
       </c>
       <c r="FO32">
-        <f t="shared" si="3"/>
         <v>-1.419767355648186</v>
       </c>
       <c r="FP32">
-        <f t="shared" si="4"/>
         <v>0.29243143335033966</v>
       </c>
       <c r="FR32">
-        <f t="shared" si="5"/>
         <v>1.7151179894076467</v>
       </c>
       <c r="FS32">
-        <f t="shared" si="6"/>
         <v>2.7789200161755216</v>
       </c>
       <c r="FT32">
-        <f t="shared" si="7"/>
         <v>1.9705913860815039</v>
       </c>
       <c r="FU32">
-        <f t="shared" si="8"/>
         <v>3.6782267194557852</v>
       </c>
       <c r="FV32">
-        <f t="shared" si="9"/>
         <v>0.70275252318339343</v>
       </c>
       <c r="FW32">
-        <f t="shared" si="10"/>
         <v>2.7599817396317952</v>
       </c>
       <c r="FX32">
-        <f t="shared" si="11"/>
         <v>-0.64355615427781498</v>
       </c>
       <c r="FY32">
-        <f t="shared" si="12"/>
         <v>1.7015553948875224</v>
       </c>
     </row>
@@ -18935,51 +18544,39 @@
         <v>0.17120030686324419</v>
       </c>
       <c r="FM33">
-        <f t="shared" si="1"/>
         <v>-0.47786122139929832</v>
       </c>
       <c r="FN33">
-        <f t="shared" si="2"/>
         <v>-1.7640312683742798</v>
       </c>
       <c r="FO33">
-        <f t="shared" si="3"/>
         <v>-1.594936211169</v>
       </c>
       <c r="FP33">
-        <f t="shared" si="4"/>
         <v>-0.52280909890832694</v>
       </c>
       <c r="FR33">
-        <f t="shared" si="5"/>
         <v>1.7349229629847369</v>
       </c>
       <c r="FS33">
-        <f t="shared" si="6"/>
         <v>0.75310917983524095</v>
       </c>
       <c r="FT33">
-        <f t="shared" si="7"/>
         <v>-0.68972113142336322</v>
       </c>
       <c r="FU33">
-        <f t="shared" si="8"/>
         <v>0.62835435161033248</v>
       </c>
       <c r="FV33">
-        <f t="shared" si="9"/>
         <v>1.5301460908965181</v>
       </c>
       <c r="FW33">
-        <f t="shared" si="10"/>
         <v>-1.9558364638457602</v>
       </c>
       <c r="FX33">
-        <f t="shared" si="11"/>
         <v>-1.4772140913009597</v>
       </c>
       <c r="FY33">
-        <f t="shared" si="12"/>
         <v>0.72242101398013647</v>
       </c>
     </row>
@@ -19483,55 +19080,42 @@
         <v>0.97622097885284809</v>
       </c>
       <c r="FM34">
-        <f t="shared" si="1"/>
         <v>0.22904904961379741</v>
       </c>
       <c r="FN34">
-        <f t="shared" si="2"/>
         <v>-1.4015181893055377</v>
       </c>
       <c r="FO34">
-        <f t="shared" si="3"/>
         <v>-0.84580050158254094</v>
       </c>
       <c r="FP34">
-        <f t="shared" si="4"/>
         <v>1.1838138599216199</v>
       </c>
       <c r="FQ34">
-        <f t="shared" si="13"/>
         <v>1.0917566936313103</v>
       </c>
       <c r="FR34">
-        <f t="shared" si="5"/>
         <v>-1.0545922332207407</v>
       </c>
       <c r="FS34">
-        <f t="shared" si="6"/>
         <v>-2.1488579457554868</v>
       </c>
       <c r="FT34">
-        <f t="shared" si="7"/>
         <v>-7.5958033077002204E-2</v>
       </c>
       <c r="FU34">
-        <f t="shared" si="8"/>
         <v>0.54328654331320836</v>
       </c>
       <c r="FV34">
-        <f t="shared" si="9"/>
         <v>-0.90105593252301275</v>
       </c>
       <c r="FW34">
-        <f t="shared" si="10"/>
         <v>-0.35786109622300499</v>
       </c>
       <c r="FX34">
-        <f t="shared" si="11"/>
         <v>2.9775157571424229</v>
       </c>
       <c r="FY34">
-        <f t="shared" si="12"/>
         <v>-1.8082968471138963</v>
       </c>
     </row>
@@ -20038,55 +19622,42 @@
         <v>0.21592367752932493</v>
       </c>
       <c r="FM35">
-        <f t="shared" si="1"/>
         <v>-5.4085950578034073E-2</v>
       </c>
       <c r="FN35">
-        <f t="shared" si="2"/>
         <v>-1.2846931249527529</v>
       </c>
       <c r="FO35">
-        <f t="shared" si="3"/>
         <v>-1.2637745627404888</v>
       </c>
       <c r="FP35">
-        <f t="shared" si="4"/>
         <v>2.4358912314783021</v>
       </c>
       <c r="FQ35">
-        <f t="shared" si="13"/>
         <v>-0.87279787216183635</v>
       </c>
       <c r="FR35">
-        <f t="shared" si="5"/>
         <v>-1.1849408428858266</v>
       </c>
       <c r="FS35">
-        <f t="shared" si="6"/>
         <v>-0.37420094250287861</v>
       </c>
       <c r="FT35">
-        <f t="shared" si="7"/>
         <v>0.12657118957857139</v>
       </c>
       <c r="FU35">
-        <f t="shared" si="8"/>
         <v>-1.2871650972184305</v>
       </c>
       <c r="FV35">
-        <f t="shared" si="9"/>
         <v>-1.8188611101624712</v>
       </c>
       <c r="FW35">
-        <f t="shared" si="10"/>
         <v>4.5497582799156575</v>
       </c>
       <c r="FX35">
-        <f t="shared" si="11"/>
         <v>4.5289183468622545</v>
       </c>
       <c r="FY35">
-        <f t="shared" si="12"/>
         <v>-0.68596517045377992</v>
       </c>
     </row>
@@ -20593,55 +20164,42 @@
         <v>-3.3619459757578456</v>
       </c>
       <c r="FM36">
-        <f t="shared" si="1"/>
         <v>-0.46494355931986892</v>
       </c>
       <c r="FN36">
-        <f t="shared" si="2"/>
         <v>-0.1148603935653215</v>
       </c>
       <c r="FO36">
-        <f t="shared" si="3"/>
         <v>-2.0820186856307732</v>
       </c>
       <c r="FP36">
-        <f t="shared" si="4"/>
         <v>-1.5542871921465273</v>
       </c>
       <c r="FQ36">
-        <f t="shared" si="13"/>
         <v>1.493946337832142</v>
       </c>
       <c r="FR36">
-        <f t="shared" si="5"/>
         <v>-1.705039066845859</v>
       </c>
       <c r="FS36">
-        <f t="shared" si="6"/>
         <v>0.24719456922303765</v>
       </c>
       <c r="FT36">
-        <f t="shared" si="7"/>
         <v>-0.92457554369056427</v>
       </c>
       <c r="FU36">
-        <f t="shared" si="8"/>
         <v>-1.9362690800370292</v>
       </c>
       <c r="FV36">
-        <f t="shared" si="9"/>
         <v>-1.7311351621601947</v>
       </c>
       <c r="FW36">
-        <f t="shared" si="10"/>
         <v>-0.62924643110255163</v>
       </c>
       <c r="FX36">
-        <f t="shared" si="11"/>
         <v>-0.56912666313174332</v>
       </c>
       <c r="FY36">
-        <f t="shared" si="12"/>
         <v>2.712094076416216</v>
       </c>
     </row>
@@ -21046,39 +20604,30 @@
         <v>8.6704823703250847E-2</v>
       </c>
       <c r="FM37">
-        <f t="shared" si="1"/>
         <v>-1.4724574216564355</v>
       </c>
       <c r="FN37">
-        <f t="shared" si="2"/>
         <v>1.1209842140543886</v>
       </c>
       <c r="FQ37">
-        <f t="shared" si="13"/>
         <v>0.87819051634509515</v>
       </c>
       <c r="FR37">
-        <f t="shared" si="5"/>
         <v>-0.59299319841615872</v>
       </c>
       <c r="FS37">
-        <f t="shared" si="6"/>
         <v>-0.21768638932952772</v>
       </c>
       <c r="FT37">
-        <f t="shared" si="7"/>
         <v>-0.17839540483955349</v>
       </c>
       <c r="FV37">
-        <f t="shared" si="9"/>
         <v>-6.2868107175499732E-2</v>
       </c>
       <c r="FW37">
-        <f t="shared" si="10"/>
         <v>3.4012931597642018</v>
       </c>
       <c r="FX37">
-        <f t="shared" si="11"/>
         <v>-1.1350963485906889</v>
       </c>
     </row>

--- a/GreenIguanaMasterSpring2021.xlsx
+++ b/GreenIguanaMasterSpring2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usu-my.sharepoint.com/personal/a02308724_aggies_usu_edu/Documents/Desktop/ASU green iguana 2021/greeniguanaAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="8_{D3E1F204-3744-4711-9BBE-5D795E9D066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{675627B5-2511-4514-BE69-913D751D5CE8}"/>
+  <xr:revisionPtr revIDLastSave="327" documentId="8_{D3E1F204-3744-4711-9BBE-5D795E9D066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E4FDF20-11AA-4EC8-A31B-A2576A961C42}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1470" windowWidth="25440" windowHeight="15390" xr2:uid="{480D2B5B-0BF7-4EFB-BBDF-5EF1CCA213B8}"/>
   </bookViews>
@@ -778,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -789,6 +789,8 @@
     <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,8 +1108,8 @@
   <dimension ref="A1:FY37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FT12" sqref="FT12"/>
+      <pane xSplit="1" topLeftCell="EN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="ER19" sqref="ER19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1115,6 +1117,7 @@
     <col min="1" max="1" width="9.6328125" style="3"/>
     <col min="56" max="56" width="9.6328125" style="6"/>
     <col min="69" max="69" width="9.6328125" style="9"/>
+    <col min="130" max="130" width="9.6328125" style="11"/>
     <col min="167" max="167" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1506,7 +1509,7 @@
       <c r="DY1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="DZ1" s="3" t="s">
+      <c r="DZ1" s="10" t="s">
         <v>164</v>
       </c>
       <c r="EA1" s="3" t="s">
@@ -2024,7 +2027,7 @@
       <c r="DY2">
         <v>2.7308447937131626</v>
       </c>
-      <c r="DZ2">
+      <c r="DZ2" s="11">
         <v>0.18997574777687959</v>
       </c>
       <c r="EA2">
@@ -2557,7 +2560,7 @@
       <c r="DY3">
         <v>2.7834970530451866</v>
       </c>
-      <c r="DZ3">
+      <c r="DZ3" s="11">
         <v>0.21220695230396128</v>
       </c>
       <c r="EA3">
@@ -3620,8 +3623,8 @@
       <c r="DY5">
         <v>5.4805500982318254</v>
       </c>
-      <c r="DZ5">
-        <v>-9.7008892481810799E-2</v>
+      <c r="DZ5" s="11">
+        <v>0</v>
       </c>
       <c r="EA5">
         <v>5.0525464834276515E-2</v>
@@ -4147,7 +4150,7 @@
       <c r="DY6">
         <v>3.1622789783889975</v>
       </c>
-      <c r="DZ6">
+      <c r="DZ6" s="11">
         <v>1.2126111560226364E-2</v>
       </c>
       <c r="EA6">
@@ -4674,11 +4677,11 @@
       <c r="DY7">
         <v>2.0636542239685656</v>
       </c>
-      <c r="DZ7">
+      <c r="DZ7" s="11">
         <v>7.6798706548100296E-2</v>
       </c>
       <c r="EA7">
-        <v>-6.2651576394502764E-2</v>
+        <v>0</v>
       </c>
       <c r="EB7">
         <v>6.8013991449669603E-2</v>
@@ -5207,11 +5210,11 @@
       <c r="DY8">
         <v>2.4188605108055001</v>
       </c>
-      <c r="DZ8">
+      <c r="DZ8" s="11">
         <v>0.48908649959579636</v>
       </c>
       <c r="EA8">
-        <v>-3.4357316087307917E-2</v>
+        <v>0</v>
       </c>
       <c r="EB8">
         <v>0.17877963466770302</v>
@@ -5743,8 +5746,8 @@
       <c r="DY9">
         <v>5.3512770137524557</v>
       </c>
-      <c r="DZ9">
-        <v>-7.4777687954729138E-2</v>
+      <c r="DZ9" s="11">
+        <v>0</v>
       </c>
       <c r="EA9">
         <v>0.48504446240905419</v>
@@ -7257,7 +7260,7 @@
       <c r="DY12">
         <v>2.7218074656188609</v>
       </c>
-      <c r="DZ12">
+      <c r="DZ12" s="11">
         <v>9.9029911075181859E-2</v>
       </c>
       <c r="EA12">
@@ -7772,7 +7775,7 @@
       <c r="DY13">
         <v>0.79921414538310365</v>
       </c>
-      <c r="DZ13">
+      <c r="DZ13" s="11">
         <v>1.8189167340339547E-2</v>
       </c>
       <c r="EB13">
@@ -8308,8 +8311,8 @@
       <c r="DY14">
         <v>5.0255402750491154</v>
       </c>
-      <c r="DZ14">
-        <v>-4.8504446240905344E-2</v>
+      <c r="DZ14" s="11">
+        <v>0</v>
       </c>
       <c r="EA14">
         <v>0.23319082782743877</v>
@@ -8838,8 +8841,8 @@
       <c r="DY15">
         <v>3.6168958742632604</v>
       </c>
-      <c r="DZ15">
-        <v>-1.8189167340339547E-2</v>
+      <c r="DZ15" s="11">
+        <v>0</v>
       </c>
       <c r="EA15">
         <v>0.22930431403031482</v>
@@ -9365,8 +9368,8 @@
       <c r="DY16">
         <v>5.9056974459724945</v>
       </c>
-      <c r="DZ16">
-        <v>-0.10105092966855292</v>
+      <c r="DZ16" s="11">
+        <v>0</v>
       </c>
       <c r="EA16">
         <v>5.3808783521181507</v>
@@ -9904,8 +9907,8 @@
       <c r="DY17">
         <v>4.1520628683693515</v>
       </c>
-      <c r="DZ17">
-        <v>-0.10105092966855292</v>
+      <c r="DZ17" s="11">
+        <v>0</v>
       </c>
       <c r="EA17">
         <v>0.22347454333462882</v>
@@ -10434,8 +10437,8 @@
       <c r="DY18">
         <v>2.6730844793713153</v>
       </c>
-      <c r="DZ18">
-        <v>-1.6168148746968373E-2</v>
+      <c r="DZ18" s="11">
+        <v>0</v>
       </c>
       <c r="EA18">
         <v>0.32258064516129031</v>
@@ -10955,7 +10958,7 @@
       <c r="DY19">
         <v>1.3536345776031433</v>
       </c>
-      <c r="DZ19">
+      <c r="DZ19" s="11">
         <v>0.40824575586095391</v>
       </c>
       <c r="EA19">
@@ -11497,8 +11500,8 @@
       <c r="DY20">
         <v>2.5302058161819847</v>
       </c>
-      <c r="DZ20">
-        <v>-4.2441390460792164E-2</v>
+      <c r="DZ20" s="11">
+        <v>0</v>
       </c>
       <c r="EA20">
         <v>0.13408472600077731</v>
@@ -12039,7 +12042,7 @@
       <c r="DY21">
         <v>1.5061244896258645</v>
       </c>
-      <c r="DZ21">
+      <c r="DZ21" s="11">
         <v>0.28900565885206142</v>
       </c>
       <c r="EA21">
@@ -12584,8 +12587,8 @@
       <c r="DY22">
         <v>1.2632280643279725</v>
       </c>
-      <c r="DZ22">
-        <v>-0.1071139854486661</v>
+      <c r="DZ22" s="11">
+        <v>0</v>
       </c>
       <c r="EA22">
         <v>0.22347454333462882</v>
@@ -13114,7 +13117,7 @@
       <c r="DY23">
         <v>3.336805266227814</v>
       </c>
-      <c r="DZ23">
+      <c r="DZ23" s="11">
         <v>5.4567502021018635E-2</v>
       </c>
       <c r="EA23">
@@ -13650,8 +13653,8 @@
       <c r="DY24">
         <v>3.5280393300558286</v>
       </c>
-      <c r="DZ24">
-        <v>-8.8924818108326559E-2</v>
+      <c r="DZ24" s="11">
+        <v>0</v>
       </c>
       <c r="EA24">
         <v>0.34395647104547222</v>
@@ -14186,8 +14189,8 @@
       <c r="DY25">
         <v>3.1914007166069496</v>
       </c>
-      <c r="DZ25">
-        <v>-0.13540824575586094</v>
+      <c r="DZ25" s="11">
+        <v>0</v>
       </c>
       <c r="EA25">
         <v>3.0275942479595801</v>
@@ -14707,7 +14710,7 @@
       <c r="DY26">
         <v>2.2485626197816848</v>
       </c>
-      <c r="DZ26">
+      <c r="DZ26" s="11">
         <v>0.36176232821341947</v>
       </c>
       <c r="EA26">
@@ -15249,7 +15252,7 @@
       <c r="DY27">
         <v>3.0547454378801762</v>
       </c>
-      <c r="DZ27">
+      <c r="DZ27" s="11">
         <v>4.0420371867421208E-2</v>
       </c>
       <c r="EA27">
@@ -15791,8 +15794,8 @@
       <c r="DY28">
         <v>2.4539621698191816</v>
       </c>
-      <c r="DZ28">
-        <v>-8.4882780921584439E-2</v>
+      <c r="DZ28" s="11">
+        <v>0</v>
       </c>
       <c r="EA28">
         <v>0.84531675087446567</v>
@@ -16321,8 +16324,8 @@
       <c r="DY29">
         <v>6.0824097991834014</v>
       </c>
-      <c r="DZ29">
-        <v>-3.6378334680678977E-2</v>
+      <c r="DZ29" s="11">
+        <v>0</v>
       </c>
       <c r="EA29">
         <v>3.289933929265449</v>
@@ -16833,8 +16836,8 @@
       <c r="DX30">
         <v>4.293516699410608</v>
       </c>
-      <c r="DZ30">
-        <v>-6.6693613581244884E-2</v>
+      <c r="DZ30" s="11">
+        <v>0</v>
       </c>
       <c r="EA30">
         <v>1.6906335017489316</v>
@@ -17366,8 +17369,8 @@
       <c r="DY31">
         <v>2.0989917506874427</v>
       </c>
-      <c r="DZ31">
-        <v>-7.0735650767987004E-2</v>
+      <c r="DZ31" s="11">
+        <v>0</v>
       </c>
       <c r="EA31">
         <v>0.42168674698795178</v>
@@ -17905,8 +17908,8 @@
       <c r="DY32">
         <v>4.1992333972168998</v>
       </c>
-      <c r="DZ32">
-        <v>-5.6588520614389584E-2</v>
+      <c r="DZ32" s="11">
+        <v>0</v>
       </c>
       <c r="EA32">
         <v>1.4613291877186163</v>
@@ -18429,8 +18432,8 @@
       <c r="DY33">
         <v>2.5177068577618531</v>
       </c>
-      <c r="DZ33">
-        <v>-0.1071139854486661</v>
+      <c r="DZ33" s="11">
+        <v>0</v>
       </c>
       <c r="EA33">
         <v>0.16323357947920708</v>
@@ -18962,8 +18965,8 @@
       <c r="DY34">
         <v>1.4423798016831932</v>
       </c>
-      <c r="DZ34">
-        <v>-0.12530315278900558</v>
+      <c r="DZ34" s="11">
+        <v>0</v>
       </c>
       <c r="EA34">
         <v>0.60240963855421681</v>
@@ -19504,8 +19507,8 @@
       <c r="DY35">
         <v>3.4088825931172413</v>
       </c>
-      <c r="DZ35">
-        <v>-0.13338722716248991</v>
+      <c r="DZ35" s="11">
+        <v>0</v>
       </c>
       <c r="EA35">
         <v>6.607073455110761E-2</v>
@@ -20046,8 +20049,8 @@
       <c r="DY36">
         <v>3.1309890842429793</v>
       </c>
-      <c r="DZ36">
-        <v>-0.12126111560226353</v>
+      <c r="DZ36" s="11">
+        <v>0</v>
       </c>
       <c r="EA36">
         <v>0.75204041974349001</v>
@@ -20507,8 +20510,8 @@
       <c r="DX37">
         <v>2.849901768172888</v>
       </c>
-      <c r="DZ37">
-        <v>-7.6798706548100185E-2</v>
+      <c r="DZ37" s="11">
+        <v>0</v>
       </c>
       <c r="EA37">
         <v>2.7574815390594636</v>

--- a/GreenIguanaMasterSpring2021.xlsx
+++ b/GreenIguanaMasterSpring2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usu-my.sharepoint.com/personal/a02308724_aggies_usu_edu/Documents/Desktop/ASU green iguana 2021/greeniguanaAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="327" documentId="8_{D3E1F204-3744-4711-9BBE-5D795E9D066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E4FDF20-11AA-4EC8-A31B-A2576A961C42}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="8_{D3E1F204-3744-4711-9BBE-5D795E9D066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B59690EE-2B02-4788-8E1E-52D07A6B640B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1470" windowWidth="25440" windowHeight="15390" xr2:uid="{480D2B5B-0BF7-4EFB-BBDF-5EF1CCA213B8}"/>
+    <workbookView xWindow="-19310" yWindow="-470" windowWidth="19420" windowHeight="10420" xr2:uid="{480D2B5B-0BF7-4EFB-BBDF-5EF1CCA213B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="2" r:id="rId1"/>
@@ -1108,20 +1108,21 @@
   <dimension ref="A1:FY37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="EN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="ER19" sqref="ER19"/>
+      <pane xSplit="1" topLeftCell="CV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" style="3"/>
-    <col min="56" max="56" width="9.6328125" style="6"/>
-    <col min="69" max="69" width="9.6328125" style="9"/>
-    <col min="130" max="130" width="9.6328125" style="11"/>
-    <col min="167" max="167" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="3"/>
+    <col min="56" max="56" width="9.5703125" style="6"/>
+    <col min="69" max="69" width="9.5703125" style="9"/>
+    <col min="127" max="128" width="12" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="9.5703125" style="11"/>
+    <col min="167" max="167" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:181" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:181" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2175,7 +2176,7 @@
         <v>2.005895263867258</v>
       </c>
     </row>
-    <row r="3" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2717,7 +2718,7 @@
         <v>1.9457575679140795</v>
       </c>
     </row>
-    <row r="4" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3244,7 +3245,7 @@
         <v>-1.8523859399617344</v>
       </c>
     </row>
-    <row r="5" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3777,7 +3778,7 @@
         <v>1.211773157886286</v>
       </c>
     </row>
-    <row r="6" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4298,7 +4299,7 @@
         <v>0.39906986340708422</v>
       </c>
     </row>
-    <row r="7" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4834,7 +4835,7 @@
         <v>0.88559368044494735</v>
       </c>
     </row>
-    <row r="8" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5361,7 +5362,7 @@
         <v>-1.2826825384337934</v>
       </c>
     </row>
-    <row r="9" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5903,7 +5904,7 @@
         <v>-0.21509390506722759</v>
       </c>
     </row>
-    <row r="10" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6241,7 +6242,7 @@
         <v>2.6239520958083826</v>
       </c>
       <c r="DW10">
-        <v>1.0958000155267451</v>
+        <v>1.09580001552675</v>
       </c>
       <c r="DX10">
         <v>1.3911963356882229</v>
@@ -6394,7 +6395,7 @@
         <v>1.1314434049639606</v>
       </c>
     </row>
-    <row r="11" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>-0.98115112754233091</v>
       </c>
     </row>
-    <row r="12" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -7255,7 +7256,7 @@
         <v>2.4582718733017623</v>
       </c>
       <c r="DX12">
-        <v>5.5198428290766186</v>
+        <v>5.5198428290766204</v>
       </c>
       <c r="DY12">
         <v>2.7218074656188609</v>
@@ -7417,7 +7418,7 @@
         <v>-0.61773479059422454</v>
       </c>
     </row>
-    <row r="13" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -7923,7 +7924,7 @@
         <v>-1.6774439277104751</v>
       </c>
     </row>
-    <row r="14" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -8468,7 +8469,7 @@
         <v>-0.15173916263016063</v>
       </c>
     </row>
-    <row r="15" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -8995,7 +8996,7 @@
         <v>-1.0468597367484604</v>
       </c>
     </row>
-    <row r="16" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -9522,7 +9523,7 @@
         <v>-1.7529298383114416</v>
       </c>
     </row>
-    <row r="17" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -10058,7 +10059,7 @@
         <v>-1.4472518599047017</v>
       </c>
     </row>
-    <row r="18" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -10588,7 +10589,7 @@
         <v>0.9420078504264402</v>
       </c>
     </row>
-    <row r="19" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -11115,7 +11116,7 @@
         <v>-0.22816029003109295</v>
       </c>
     </row>
-    <row r="20" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -11657,7 +11658,7 @@
         <v>0.57727005508929641</v>
       </c>
     </row>
-    <row r="21" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -12199,7 +12200,7 @@
         <v>-0.515374227778298</v>
       </c>
     </row>
-    <row r="22" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -12744,7 +12745,7 @@
         <v>-1.1825319796615261</v>
       </c>
     </row>
-    <row r="23" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -13268,7 +13269,7 @@
         <v>-1.6211008244408391</v>
       </c>
     </row>
-    <row r="24" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -13810,7 +13811,7 @@
         <v>0.89641490726544015</v>
       </c>
     </row>
-    <row r="25" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -14343,7 +14344,7 @@
         <v>0.97145273795872622</v>
       </c>
     </row>
-    <row r="26" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -14867,7 +14868,7 @@
         <v>0.28102893356779896</v>
       </c>
     </row>
-    <row r="27" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -15409,7 +15410,7 @@
         <v>-1.4351115830189038</v>
       </c>
     </row>
-    <row r="28" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -15951,7 +15952,7 @@
         <v>2.2221157753440104</v>
       </c>
     </row>
-    <row r="29" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -16475,7 +16476,7 @@
         <v>-0.21189241876989418</v>
       </c>
     </row>
-    <row r="30" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -16984,7 +16985,7 @@
         <v>-0.47700819304913333</v>
       </c>
     </row>
-    <row r="31" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -17526,7 +17527,7 @@
         <v>0.41823967432283005</v>
       </c>
     </row>
-    <row r="32" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -18059,7 +18060,7 @@
         <v>1.7015553948875224</v>
       </c>
     </row>
-    <row r="33" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -18583,7 +18584,7 @@
         <v>0.72242101398013647</v>
       </c>
     </row>
-    <row r="34" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -19122,7 +19123,7 @@
         <v>-1.8082968471138963</v>
       </c>
     </row>
-    <row r="35" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -19664,7 +19665,7 @@
         <v>-0.68596517045377992</v>
       </c>
     </row>
-    <row r="36" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -20206,7 +20207,7 @@
         <v>2.712094076416216</v>
       </c>
     </row>
-    <row r="37" spans="1:181" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:181" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -20648,9 +20649,9 @@
       <selection activeCell="A6" sqref="A6:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -20658,7 +20659,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -20669,7 +20670,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -20680,7 +20681,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -20691,7 +20692,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -20702,7 +20703,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -20713,7 +20714,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -20724,7 +20725,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -20735,7 +20736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -20746,7 +20747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -20757,7 +20758,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -20768,7 +20769,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -20779,7 +20780,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -20790,7 +20791,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -20801,7 +20802,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>

--- a/GreenIguanaMasterSpring2021.xlsx
+++ b/GreenIguanaMasterSpring2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usu-my.sharepoint.com/personal/a02308724_aggies_usu_edu/Documents/Desktop/ASU green iguana 2021/greeniguanaAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="8_{D3E1F204-3744-4711-9BBE-5D795E9D066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B59690EE-2B02-4788-8E1E-52D07A6B640B}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="8_{D3E1F204-3744-4711-9BBE-5D795E9D066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4FA4442-8C37-4178-8A06-0CB0DEC4FA79}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-470" windowWidth="19420" windowHeight="10420" xr2:uid="{480D2B5B-0BF7-4EFB-BBDF-5EF1CCA213B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{480D2B5B-0BF7-4EFB-BBDF-5EF1CCA213B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="231">
   <si>
     <t>0324bka</t>
   </si>
@@ -710,6 +710,24 @@
   </si>
   <si>
     <t>l</t>
+  </si>
+  <si>
+    <t>0324cort</t>
+  </si>
+  <si>
+    <t>0423cort</t>
+  </si>
+  <si>
+    <t>0428cort</t>
+  </si>
+  <si>
+    <t>0528cort</t>
+  </si>
+  <si>
+    <t>0624cort</t>
+  </si>
+  <si>
+    <t>0628cort</t>
   </si>
 </sst>
 </file>
@@ -1105,24 +1123,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2963F0F5-C338-45B4-9605-B5DDA288A732}">
-  <dimension ref="A1:FY37"/>
+  <dimension ref="A1:GE37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:E1048576"/>
+      <pane xSplit="1" topLeftCell="FJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GD15" sqref="GD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="3"/>
-    <col min="56" max="56" width="9.5703125" style="6"/>
-    <col min="69" max="69" width="9.5703125" style="9"/>
+    <col min="1" max="1" width="9.54296875" style="3"/>
+    <col min="56" max="56" width="9.54296875" style="6"/>
+    <col min="69" max="69" width="9.54296875" style="9"/>
     <col min="127" max="128" width="12" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="9.5703125" style="11"/>
-    <col min="167" max="167" width="9.5703125" customWidth="1"/>
+    <col min="130" max="130" width="9.54296875" style="11"/>
+    <col min="167" max="167" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:181" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:187" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1666,8 +1684,26 @@
       <c r="FY1" s="3" t="s">
         <v>217</v>
       </c>
+      <c r="FZ1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="GA1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="GB1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="GC1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="GD1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="GE1" s="3" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="2" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2175,8 +2211,23 @@
       <c r="FY2">
         <v>2.005895263867258</v>
       </c>
+      <c r="FZ2">
+        <v>44.601999999999997</v>
+      </c>
+      <c r="GA2">
+        <v>22.869</v>
+      </c>
+      <c r="GB2">
+        <v>19.222000000000001</v>
+      </c>
+      <c r="GC2">
+        <v>22.128</v>
+      </c>
+      <c r="GE2">
+        <v>27.312000000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2717,8 +2768,23 @@
       <c r="FY3">
         <v>1.9457575679140795</v>
       </c>
+      <c r="FZ3">
+        <v>35.597000000000001</v>
+      </c>
+      <c r="GA3">
+        <v>45.436</v>
+      </c>
+      <c r="GB3">
+        <v>43.259</v>
+      </c>
+      <c r="GC3">
+        <v>40.908999999999999</v>
+      </c>
+      <c r="GD3">
+        <v>30.33</v>
+      </c>
     </row>
-    <row r="4" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3244,8 +3310,26 @@
       <c r="FY4">
         <v>-1.8523859399617344</v>
       </c>
+      <c r="FZ4">
+        <v>35.825000000000003</v>
+      </c>
+      <c r="GA4">
+        <v>38.889000000000003</v>
+      </c>
+      <c r="GB4">
+        <v>23.172999999999998</v>
+      </c>
+      <c r="GC4">
+        <v>53.816000000000003</v>
+      </c>
+      <c r="GD4">
+        <v>17.481999999999999</v>
+      </c>
+      <c r="GE4">
+        <v>24.004000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3777,8 +3861,26 @@
       <c r="FY5">
         <v>1.211773157886286</v>
       </c>
+      <c r="FZ5">
+        <v>36.130000000000003</v>
+      </c>
+      <c r="GA5">
+        <v>81.99</v>
+      </c>
+      <c r="GB5">
+        <v>55.875999999999998</v>
+      </c>
+      <c r="GC5">
+        <v>38.124000000000002</v>
+      </c>
+      <c r="GD5">
+        <v>23.187000000000001</v>
+      </c>
+      <c r="GE5">
+        <v>27.277000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4298,8 +4400,26 @@
       <c r="FY6">
         <v>0.39906986340708422</v>
       </c>
+      <c r="FZ6">
+        <v>61.947000000000003</v>
+      </c>
+      <c r="GA6">
+        <v>617.96</v>
+      </c>
+      <c r="GB6">
+        <v>190.93700000000001</v>
+      </c>
+      <c r="GC6">
+        <v>56.649000000000001</v>
+      </c>
+      <c r="GD6">
+        <v>96.343999999999994</v>
+      </c>
+      <c r="GE6">
+        <v>71.06</v>
+      </c>
     </row>
-    <row r="7" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4834,8 +4954,23 @@
       <c r="FY7">
         <v>0.88559368044494735</v>
       </c>
+      <c r="FZ7">
+        <v>61.012999999999998</v>
+      </c>
+      <c r="GA7">
+        <v>73.781999999999996</v>
+      </c>
+      <c r="GC7">
+        <v>44.174999999999997</v>
+      </c>
+      <c r="GD7">
+        <v>31.172999999999998</v>
+      </c>
+      <c r="GE7">
+        <v>25.155999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5361,8 +5496,26 @@
       <c r="FX8">
         <v>-1.2826825384337934</v>
       </c>
+      <c r="FZ8">
+        <v>46.069000000000003</v>
+      </c>
+      <c r="GA8">
+        <v>103.869</v>
+      </c>
+      <c r="GB8">
+        <v>43.094000000000001</v>
+      </c>
+      <c r="GC8">
+        <v>31.172999999999998</v>
+      </c>
+      <c r="GD8">
+        <v>21.966000000000001</v>
+      </c>
+      <c r="GE8">
+        <v>45.673999999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5903,8 +6056,26 @@
       <c r="FY9">
         <v>-0.21509390506722759</v>
       </c>
+      <c r="FZ9">
+        <v>8.0239999999999991</v>
+      </c>
+      <c r="GA9">
+        <v>47.831000000000003</v>
+      </c>
+      <c r="GB9">
+        <v>28.376999999999999</v>
+      </c>
+      <c r="GC9">
+        <v>20.76</v>
+      </c>
+      <c r="GD9">
+        <v>24.619</v>
+      </c>
+      <c r="GE9">
+        <v>8.8659999999999997</v>
+      </c>
     </row>
-    <row r="10" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6394,8 +6565,23 @@
       <c r="FY10">
         <v>1.1314434049639606</v>
       </c>
+      <c r="FZ10">
+        <v>49.122999999999998</v>
+      </c>
+      <c r="GA10">
+        <v>21.63</v>
+      </c>
+      <c r="GB10">
+        <v>20.023</v>
+      </c>
+      <c r="GC10">
+        <v>26.626000000000001</v>
+      </c>
+      <c r="GD10">
+        <v>17.044</v>
+      </c>
     </row>
-    <row r="11" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6880,8 +7066,23 @@
       <c r="FY11">
         <v>-0.98115112754233091</v>
       </c>
+      <c r="GA11">
+        <v>343.91800000000001</v>
+      </c>
+      <c r="GB11">
+        <v>49.96</v>
+      </c>
+      <c r="GC11">
+        <v>42.136000000000003</v>
+      </c>
+      <c r="GD11">
+        <v>35.890999999999998</v>
+      </c>
+      <c r="GE11">
+        <v>22.978000000000002</v>
+      </c>
     </row>
-    <row r="12" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -7417,8 +7618,26 @@
       <c r="FY12">
         <v>-0.61773479059422454</v>
       </c>
+      <c r="FZ12">
+        <v>92.84</v>
+      </c>
+      <c r="GA12">
+        <v>45.061999999999998</v>
+      </c>
+      <c r="GB12">
+        <v>28.934999999999999</v>
+      </c>
+      <c r="GC12">
+        <v>40.067999999999998</v>
+      </c>
+      <c r="GD12">
+        <v>16.658000000000001</v>
+      </c>
+      <c r="GE12">
+        <v>2.9329999999999998</v>
+      </c>
     </row>
-    <row r="13" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -7923,8 +8142,23 @@
       <c r="FY13">
         <v>-1.6774439277104751</v>
       </c>
+      <c r="FZ13">
+        <v>40.32</v>
+      </c>
+      <c r="GB13">
+        <v>29.384</v>
+      </c>
+      <c r="GC13">
+        <v>39.747999999999998</v>
+      </c>
+      <c r="GD13">
+        <v>25.663</v>
+      </c>
+      <c r="GE13">
+        <v>62.040999999999997</v>
+      </c>
     </row>
-    <row r="14" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -8468,8 +8702,26 @@
       <c r="FY14">
         <v>-0.15173916263016063</v>
       </c>
+      <c r="FZ14">
+        <v>33.835999999999999</v>
+      </c>
+      <c r="GA14">
+        <v>32.911000000000001</v>
+      </c>
+      <c r="GB14">
+        <v>14.132999999999999</v>
+      </c>
+      <c r="GC14">
+        <v>31.966000000000001</v>
+      </c>
+      <c r="GD14">
+        <v>27.614000000000001</v>
+      </c>
+      <c r="GE14">
+        <v>35.308</v>
+      </c>
     </row>
-    <row r="15" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -8995,8 +9247,26 @@
       <c r="FY15">
         <v>-1.0468597367484604</v>
       </c>
+      <c r="FZ15">
+        <v>31.407</v>
+      </c>
+      <c r="GA15">
+        <v>27.88</v>
+      </c>
+      <c r="GB15">
+        <v>18.093</v>
+      </c>
+      <c r="GC15">
+        <v>31.51</v>
+      </c>
+      <c r="GD15">
+        <v>31.611999999999998</v>
+      </c>
+      <c r="GE15">
+        <v>26.593</v>
+      </c>
     </row>
-    <row r="16" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -9522,8 +9792,26 @@
       <c r="FY16">
         <v>-1.7529298383114416</v>
       </c>
+      <c r="FZ16">
+        <v>32.581000000000003</v>
+      </c>
+      <c r="GA16">
+        <v>18.34</v>
+      </c>
+      <c r="GB16">
+        <v>28.518999999999998</v>
+      </c>
+      <c r="GC16">
+        <v>33.421999999999997</v>
+      </c>
+      <c r="GD16">
+        <v>16.943999999999999</v>
+      </c>
+      <c r="GE16">
+        <v>27.484000000000002</v>
+      </c>
     </row>
-    <row r="17" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -10058,8 +10346,26 @@
       <c r="FY17">
         <v>-1.4472518599047017</v>
       </c>
+      <c r="FZ17">
+        <v>58.75</v>
+      </c>
+      <c r="GA17">
+        <v>53.81</v>
+      </c>
+      <c r="GB17">
+        <v>48.872</v>
+      </c>
+      <c r="GC17">
+        <v>31.567</v>
+      </c>
+      <c r="GD17">
+        <v>37.987000000000002</v>
+      </c>
+      <c r="GE17">
+        <v>40.064</v>
+      </c>
     </row>
-    <row r="18" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -10588,8 +10894,26 @@
       <c r="FY18">
         <v>0.9420078504264402</v>
       </c>
+      <c r="FZ18">
+        <v>35.308</v>
+      </c>
+      <c r="GA18">
+        <v>12.595000000000001</v>
+      </c>
+      <c r="GB18">
+        <v>11.52</v>
+      </c>
+      <c r="GC18">
+        <v>20.492999999999999</v>
+      </c>
+      <c r="GD18">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="GE18">
+        <v>24.794</v>
+      </c>
     </row>
-    <row r="19" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -11115,8 +11439,23 @@
       <c r="FY19">
         <v>-0.22816029003109295</v>
       </c>
+      <c r="FZ19">
+        <v>45.41</v>
+      </c>
+      <c r="GB19">
+        <v>114.414</v>
+      </c>
+      <c r="GC19">
+        <v>57.173000000000002</v>
+      </c>
+      <c r="GD19">
+        <v>39.747999999999998</v>
+      </c>
+      <c r="GE19">
+        <v>48.494999999999997</v>
+      </c>
     </row>
-    <row r="20" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -11657,8 +11996,26 @@
       <c r="FY20">
         <v>0.57727005508929641</v>
       </c>
+      <c r="FZ20">
+        <v>31.34</v>
+      </c>
+      <c r="GA20">
+        <v>19.562000000000001</v>
+      </c>
+      <c r="GB20">
+        <v>30.437999999999999</v>
+      </c>
+      <c r="GC20">
+        <v>22.56</v>
+      </c>
+      <c r="GD20">
+        <v>24.141999999999999</v>
+      </c>
+      <c r="GE20">
+        <v>40.728000000000002</v>
+      </c>
     </row>
-    <row r="21" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -12199,8 +12556,26 @@
       <c r="FY21">
         <v>-0.515374227778298</v>
       </c>
+      <c r="FZ21">
+        <v>35.134999999999998</v>
+      </c>
+      <c r="GA21">
+        <v>61.424999999999997</v>
+      </c>
+      <c r="GB21">
+        <v>30.992999999999999</v>
+      </c>
+      <c r="GC21">
+        <v>35.89</v>
+      </c>
+      <c r="GD21">
+        <v>23.963000000000001</v>
+      </c>
+      <c r="GE21">
+        <v>43.4</v>
+      </c>
     </row>
-    <row r="22" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -12744,8 +13119,26 @@
       <c r="FY22">
         <v>-1.1825319796615261</v>
       </c>
+      <c r="FZ22">
+        <v>72.257999999999996</v>
+      </c>
+      <c r="GA22">
+        <v>31.57</v>
+      </c>
+      <c r="GB22">
+        <v>40.695999999999998</v>
+      </c>
+      <c r="GC22">
+        <v>49.96</v>
+      </c>
+      <c r="GD22">
+        <v>1.92</v>
+      </c>
+      <c r="GE22">
+        <v>38.869999999999997</v>
+      </c>
     </row>
-    <row r="23" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -13268,8 +13661,26 @@
       <c r="FY23">
         <v>-1.6211008244408391</v>
       </c>
+      <c r="FZ23">
+        <v>48.185000000000002</v>
+      </c>
+      <c r="GA23">
+        <v>26.361999999999998</v>
+      </c>
+      <c r="GB23">
+        <v>38.65</v>
+      </c>
+      <c r="GC23">
+        <v>35.616</v>
+      </c>
+      <c r="GD23">
+        <v>29.847000000000001</v>
+      </c>
+      <c r="GE23">
+        <v>26.725000000000001</v>
+      </c>
     </row>
-    <row r="24" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -13810,8 +14221,26 @@
       <c r="FY24">
         <v>0.89641490726544015</v>
       </c>
+      <c r="FZ24">
+        <v>75</v>
+      </c>
+      <c r="GA24">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="GB24">
+        <v>36.363999999999997</v>
+      </c>
+      <c r="GC24">
+        <v>34.667000000000002</v>
+      </c>
+      <c r="GD24">
+        <v>23.821999999999999</v>
+      </c>
+      <c r="GE24">
+        <v>42.515999999999998</v>
+      </c>
     </row>
-    <row r="25" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -14343,8 +14772,23 @@
       <c r="FY25">
         <v>0.97145273795872622</v>
       </c>
+      <c r="FZ25">
+        <v>37.741999999999997</v>
+      </c>
+      <c r="GA25">
+        <v>29.16</v>
+      </c>
+      <c r="GB25">
+        <v>65.162000000000006</v>
+      </c>
+      <c r="GD25">
+        <v>13.396000000000001</v>
+      </c>
+      <c r="GE25">
+        <v>21.434000000000001</v>
+      </c>
     </row>
-    <row r="26" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -14867,8 +15311,26 @@
       <c r="FY26">
         <v>0.28102893356779896</v>
       </c>
+      <c r="FZ26">
+        <v>36.908999999999999</v>
+      </c>
+      <c r="GA26">
+        <v>45.768000000000001</v>
+      </c>
+      <c r="GB26">
+        <v>50.783000000000001</v>
+      </c>
+      <c r="GC26">
+        <v>29.925999999999998</v>
+      </c>
+      <c r="GD26">
+        <v>24.808</v>
+      </c>
+      <c r="GE26">
+        <v>49.96</v>
+      </c>
     </row>
-    <row r="27" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -15409,8 +15871,26 @@
       <c r="FY27">
         <v>-1.4351115830189038</v>
       </c>
+      <c r="FZ27">
+        <v>160.32900000000001</v>
+      </c>
+      <c r="GA27">
+        <v>6.798</v>
+      </c>
+      <c r="GB27">
+        <v>60.106999999999999</v>
+      </c>
+      <c r="GC27">
+        <v>48.185000000000002</v>
+      </c>
+      <c r="GD27">
+        <v>25.29</v>
+      </c>
+      <c r="GE27">
+        <v>27.984999999999999</v>
+      </c>
     </row>
-    <row r="28" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -15951,8 +16431,26 @@
       <c r="FY28">
         <v>2.2221157753440104</v>
       </c>
+      <c r="FZ28">
+        <v>57.082999999999998</v>
+      </c>
+      <c r="GA28">
+        <v>30.56</v>
+      </c>
+      <c r="GB28">
+        <v>28.411000000000001</v>
+      </c>
+      <c r="GC28">
+        <v>43.523000000000003</v>
+      </c>
+      <c r="GD28">
+        <v>35.89</v>
+      </c>
+      <c r="GE28">
+        <v>50.685000000000002</v>
+      </c>
     </row>
-    <row r="29" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -16475,8 +16973,26 @@
       <c r="FY29">
         <v>-0.21189241876989418</v>
       </c>
+      <c r="FZ29">
+        <v>46.423000000000002</v>
+      </c>
+      <c r="GA29">
+        <v>28.571000000000002</v>
+      </c>
+      <c r="GB29">
+        <v>56.228999999999999</v>
+      </c>
+      <c r="GC29">
+        <v>37.987000000000002</v>
+      </c>
+      <c r="GD29">
+        <v>21.553000000000001</v>
+      </c>
+      <c r="GE29">
+        <v>25.353000000000002</v>
+      </c>
     </row>
-    <row r="30" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -16984,8 +17500,26 @@
       <c r="FX30">
         <v>-0.47700819304913333</v>
       </c>
+      <c r="FZ30">
+        <v>35.081000000000003</v>
+      </c>
+      <c r="GA30">
+        <v>22.036999999999999</v>
+      </c>
+      <c r="GB30">
+        <v>30.547999999999998</v>
+      </c>
+      <c r="GC30">
+        <v>32.276000000000003</v>
+      </c>
+      <c r="GD30">
+        <v>12.224</v>
+      </c>
+      <c r="GE30">
+        <v>19.452999999999999</v>
+      </c>
     </row>
-    <row r="31" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -17526,8 +18060,26 @@
       <c r="FY31">
         <v>0.41823967432283005</v>
       </c>
+      <c r="FZ31">
+        <v>55.131999999999998</v>
+      </c>
+      <c r="GA31">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="GB31">
+        <v>37.838000000000001</v>
+      </c>
+      <c r="GC31">
+        <v>1.484</v>
+      </c>
+      <c r="GD31">
+        <v>37.44</v>
+      </c>
+      <c r="GE31">
+        <v>47.402999999999999</v>
+      </c>
     </row>
-    <row r="32" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -18059,8 +18611,26 @@
       <c r="FY32">
         <v>1.7015553948875224</v>
       </c>
+      <c r="FZ32">
+        <v>31.661000000000001</v>
+      </c>
+      <c r="GA32">
+        <v>7.665</v>
+      </c>
+      <c r="GB32">
+        <v>23.55</v>
+      </c>
+      <c r="GC32">
+        <v>30.56</v>
+      </c>
+      <c r="GD32">
+        <v>31.414999999999999</v>
+      </c>
+      <c r="GE32">
+        <v>23.55</v>
+      </c>
     </row>
-    <row r="33" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -18583,8 +19153,26 @@
       <c r="FY33">
         <v>0.72242101398013647</v>
       </c>
+      <c r="FZ33">
+        <v>46.423000000000002</v>
+      </c>
+      <c r="GA33">
+        <v>39.762</v>
+      </c>
+      <c r="GB33">
+        <v>174.70500000000001</v>
+      </c>
+      <c r="GC33">
+        <v>44.761000000000003</v>
+      </c>
+      <c r="GD33">
+        <v>43.003999999999998</v>
+      </c>
+      <c r="GE33">
+        <v>36.99</v>
+      </c>
     </row>
-    <row r="34" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -19122,8 +19710,26 @@
       <c r="FY34">
         <v>-1.8082968471138963</v>
       </c>
+      <c r="FZ34">
+        <v>35.439</v>
+      </c>
+      <c r="GA34">
+        <v>62.76</v>
+      </c>
+      <c r="GB34">
+        <v>49.96</v>
+      </c>
+      <c r="GC34">
+        <v>147.86199999999999</v>
+      </c>
+      <c r="GD34">
+        <v>51.015000000000001</v>
+      </c>
+      <c r="GE34">
+        <v>49.241</v>
+      </c>
     </row>
-    <row r="35" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -19664,8 +20270,26 @@
       <c r="FY35">
         <v>-0.68596517045377992</v>
       </c>
+      <c r="FZ35">
+        <v>60.106999999999999</v>
+      </c>
+      <c r="GA35">
+        <v>818.33100000000002</v>
+      </c>
+      <c r="GB35">
+        <v>56.649000000000001</v>
+      </c>
+      <c r="GC35">
+        <v>35.134999999999998</v>
+      </c>
+      <c r="GD35">
+        <v>42.085999999999999</v>
+      </c>
+      <c r="GE35">
+        <v>30.745999999999999</v>
+      </c>
     </row>
-    <row r="36" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -20206,8 +20830,26 @@
       <c r="FY36">
         <v>2.712094076416216</v>
       </c>
+      <c r="FZ36">
+        <v>21.904</v>
+      </c>
+      <c r="GA36">
+        <v>26.521000000000001</v>
+      </c>
+      <c r="GB36">
+        <v>70.635000000000005</v>
+      </c>
+      <c r="GC36">
+        <v>30</v>
+      </c>
+      <c r="GD36">
+        <v>40.484999999999999</v>
+      </c>
+      <c r="GE36">
+        <v>48.911000000000001</v>
+      </c>
     </row>
-    <row r="37" spans="1:181" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -20633,6 +21275,18 @@
       </c>
       <c r="FX37">
         <v>-1.1350963485906889</v>
+      </c>
+      <c r="FZ37">
+        <v>40.645000000000003</v>
+      </c>
+      <c r="GA37">
+        <v>18.138999999999999</v>
+      </c>
+      <c r="GC37">
+        <v>71.921000000000006</v>
+      </c>
+      <c r="GD37">
+        <v>25.29</v>
       </c>
     </row>
   </sheetData>
@@ -20649,9 +21303,9 @@
       <selection activeCell="A6" sqref="A6:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -20659,7 +21313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -20670,7 +21324,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -20681,7 +21335,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -20692,7 +21346,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -20703,7 +21357,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -20714,7 +21368,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -20725,7 +21379,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -20736,7 +21390,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -20747,7 +21401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -20758,7 +21412,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -20769,7 +21423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -20780,7 +21434,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -20791,7 +21445,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -20802,7 +21456,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>84</v>
       </c>

--- a/GreenIguanaMasterSpring2021.xlsx
+++ b/GreenIguanaMasterSpring2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usu-my.sharepoint.com/personal/a02308724_aggies_usu_edu/Documents/Desktop/ASU green iguana 2021/greeniguanaAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="332" documentId="8_{D3E1F204-3744-4711-9BBE-5D795E9D066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4FA4442-8C37-4178-8A06-0CB0DEC4FA79}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="8_{D3E1F204-3744-4711-9BBE-5D795E9D066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD3F749-5F7B-4E6D-9746-8E0148573FA6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{480D2B5B-0BF7-4EFB-BBDF-5EF1CCA213B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{480D2B5B-0BF7-4EFB-BBDF-5EF1CCA213B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="2" r:id="rId1"/>
@@ -1127,20 +1127,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="FJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GD15" sqref="GD15"/>
+      <selection pane="topRight" activeCell="FP14" sqref="A1:GE37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="3"/>
-    <col min="56" max="56" width="9.54296875" style="6"/>
-    <col min="69" max="69" width="9.54296875" style="9"/>
+    <col min="1" max="1" width="9.5703125" style="3"/>
+    <col min="56" max="56" width="9.5703125" style="6"/>
+    <col min="69" max="69" width="9.5703125" style="9"/>
     <col min="127" max="128" width="12" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="9.54296875" style="11"/>
-    <col min="167" max="167" width="9.54296875" customWidth="1"/>
+    <col min="130" max="130" width="9.5703125" style="11"/>
+    <col min="167" max="167" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:187" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:187" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>27.312000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>30.33</v>
       </c>
     </row>
-    <row r="4" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>24.004000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>27.277000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>71.06</v>
       </c>
     </row>
-    <row r="7" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>25.155999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>45.673999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>8.8659999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>17.044</v>
       </c>
     </row>
-    <row r="11" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>22.978000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>2.9329999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>62.040999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>35.308</v>
       </c>
     </row>
-    <row r="15" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>26.593</v>
       </c>
     </row>
-    <row r="16" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>27.484000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>40.064</v>
       </c>
     </row>
-    <row r="18" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>24.794</v>
       </c>
     </row>
-    <row r="19" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>48.494999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>40.728000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="22" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -13138,7 +13138,7 @@
         <v>38.869999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>26.725000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -14240,7 +14240,7 @@
         <v>42.515999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>21.434000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>49.96</v>
       </c>
     </row>
-    <row r="27" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>27.984999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>50.685000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>25.353000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>19.452999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>47.402999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="33" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -19172,7 +19172,7 @@
         <v>36.99</v>
       </c>
     </row>
-    <row r="34" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>49.241</v>
       </c>
     </row>
-    <row r="35" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>30.745999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -20849,7 +20849,7 @@
         <v>48.911000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:187" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:187" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -21303,9 +21303,9 @@
       <selection activeCell="A6" sqref="A6:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -21313,7 +21313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -21324,7 +21324,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -21335,7 +21335,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -21357,7 +21357,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -21379,7 +21379,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -21390,7 +21390,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -21401,7 +21401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -21412,7 +21412,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -21423,7 +21423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -21434,7 +21434,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
